--- a/data/BppTrend/Valid_Import_Files/2020_Trend_Factors_Calculator.xlsx
+++ b/data/BppTrend/Valid_Import_Files/2020_Trend_Factors_Calculator.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14420" tabRatio="920" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14420" tabRatio="920" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Trends Settings " sheetId="21" r:id="rId1"/>
@@ -325,7 +325,7 @@
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="##"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -419,6 +419,12 @@
     <font>
       <b/>
       <sz val="10.5"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -671,7 +677,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -841,12 +847,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -887,6 +887,44 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="15" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -904,23 +942,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="15" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -1264,7 +1285,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5"/>
@@ -1326,7 +1347,7 @@
   <dimension ref="A1:AH44"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" activeCellId="1" sqref="B1:V1048576 A4:XFD4"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -1337,29 +1358,29 @@
   <sheetData>
     <row r="1" spans="1:34">
       <c r="A1" s="21"/>
-      <c r="B1" s="98" t="s">
+      <c r="B1" s="110" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
-      <c r="O1" s="98"/>
-      <c r="P1" s="98"/>
-      <c r="Q1" s="98"/>
-      <c r="R1" s="98"/>
-      <c r="S1" s="98"/>
-      <c r="T1" s="98"/>
-      <c r="U1" s="98"/>
-      <c r="V1" s="98"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="110"/>
+      <c r="M1" s="110"/>
+      <c r="N1" s="110"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="110"/>
+      <c r="S1" s="110"/>
+      <c r="T1" s="110"/>
+      <c r="U1" s="110"/>
+      <c r="V1" s="110"/>
       <c r="W1" s="21"/>
       <c r="X1" s="21"/>
       <c r="Y1" s="21"/>
@@ -1459,68 +1480,68 @@
       <c r="A3" s="78">
         <v>2019</v>
       </c>
-      <c r="B3" s="79">
-        <v>66.317783824789927</v>
-      </c>
-      <c r="C3" s="79">
-        <v>74.899362007046804</v>
-      </c>
-      <c r="D3" s="80">
-        <v>80.182149163236573</v>
-      </c>
-      <c r="E3" s="79">
-        <v>83.746373236449486</v>
-      </c>
-      <c r="F3" s="79">
-        <v>86.314881539518609</v>
-      </c>
-      <c r="G3" s="79">
-        <v>88.246432992957068</v>
-      </c>
-      <c r="H3" s="79">
-        <v>89.752688709908242</v>
-      </c>
-      <c r="I3" s="80">
-        <v>90.957270857569554</v>
-      </c>
-      <c r="J3" s="79">
-        <v>91.942669521274354</v>
-      </c>
-      <c r="K3" s="79">
-        <v>92.762443461077282</v>
-      </c>
-      <c r="L3" s="79">
-        <v>93.454551345631984</v>
-      </c>
-      <c r="M3" s="79">
-        <v>94.04741263603168</v>
-      </c>
-      <c r="N3" s="80">
-        <v>94.558456603150717</v>
-      </c>
-      <c r="O3" s="79">
-        <v>95.39664351131313</v>
-      </c>
-      <c r="P3" s="79">
-        <v>95.744130208247327</v>
-      </c>
-      <c r="Q3" s="80">
-        <v>96.330716895470388</v>
-      </c>
-      <c r="R3" s="79">
-        <v>96.805131952330044</v>
-      </c>
-      <c r="S3" s="80">
-        <v>97.366553809588368</v>
-      </c>
-      <c r="T3" s="80">
-        <v>98.033865716516772</v>
-      </c>
-      <c r="U3" s="80">
-        <v>98.491231931649025</v>
-      </c>
-      <c r="V3" s="80">
-        <v>98.818422299993003</v>
+      <c r="B3" s="100">
+        <v>66</v>
+      </c>
+      <c r="C3" s="100">
+        <v>75</v>
+      </c>
+      <c r="D3" s="100">
+        <v>80</v>
+      </c>
+      <c r="E3" s="101">
+        <v>84</v>
+      </c>
+      <c r="F3" s="100">
+        <v>86</v>
+      </c>
+      <c r="G3" s="100">
+        <v>88</v>
+      </c>
+      <c r="H3" s="100">
+        <v>90</v>
+      </c>
+      <c r="I3" s="101">
+        <v>91</v>
+      </c>
+      <c r="J3" s="101">
+        <v>92</v>
+      </c>
+      <c r="K3" s="101">
+        <v>93</v>
+      </c>
+      <c r="L3" s="102">
+        <v>93</v>
+      </c>
+      <c r="M3" s="103">
+        <v>94</v>
+      </c>
+      <c r="N3" s="103">
+        <v>95</v>
+      </c>
+      <c r="O3" s="103">
+        <v>95</v>
+      </c>
+      <c r="P3" s="103">
+        <v>96</v>
+      </c>
+      <c r="Q3" s="103">
+        <v>96</v>
+      </c>
+      <c r="R3" s="103">
+        <v>97</v>
+      </c>
+      <c r="S3" s="103">
+        <v>97</v>
+      </c>
+      <c r="T3" s="103">
+        <v>98</v>
+      </c>
+      <c r="U3" s="103">
+        <v>98</v>
+      </c>
+      <c r="V3" s="103">
+        <v>99</v>
       </c>
       <c r="W3" s="6">
         <v>1</v>
@@ -1530,68 +1551,68 @@
       <c r="A4" s="78">
         <v>2018</v>
       </c>
-      <c r="B4" s="79">
-        <v>36.876770872262135</v>
-      </c>
-      <c r="C4" s="79">
-        <v>51.391888244520715</v>
-      </c>
-      <c r="D4" s="80">
-        <v>60.984981258072899</v>
-      </c>
-      <c r="E4" s="79">
-        <v>67.710148010882747</v>
-      </c>
-      <c r="F4" s="79">
-        <v>72.653626831508163</v>
-      </c>
-      <c r="G4" s="79">
-        <v>76.435522946631735</v>
-      </c>
-      <c r="H4" s="79">
-        <v>79.399885966791032</v>
-      </c>
-      <c r="I4" s="80">
-        <v>81.787592634879303</v>
-      </c>
-      <c r="J4" s="79">
-        <v>83.748567569422022</v>
-      </c>
-      <c r="K4" s="79">
-        <v>85.382490089151503</v>
-      </c>
-      <c r="L4" s="79">
-        <v>86.770053046597212</v>
-      </c>
-      <c r="M4" s="79">
-        <v>87.95938820302672</v>
-      </c>
-      <c r="N4" s="80">
-        <v>88.987862955640622</v>
-      </c>
-      <c r="O4" s="79">
-        <v>90.67461283989266</v>
-      </c>
-      <c r="P4" s="79">
-        <v>91.376633948887658</v>
-      </c>
-      <c r="Q4" s="80">
-        <v>92.559937688579751</v>
-      </c>
-      <c r="R4" s="79">
-        <v>93.519548827111691</v>
-      </c>
-      <c r="S4" s="80">
-        <v>94.65566447973535</v>
-      </c>
-      <c r="T4" s="80">
-        <v>96.00767779601091</v>
-      </c>
-      <c r="U4" s="80">
-        <v>96.936057967076252</v>
-      </c>
-      <c r="V4" s="80">
-        <v>97.600907817210015</v>
+      <c r="B4" s="100">
+        <v>37</v>
+      </c>
+      <c r="C4" s="100">
+        <v>51</v>
+      </c>
+      <c r="D4" s="100">
+        <v>61</v>
+      </c>
+      <c r="E4" s="101">
+        <v>68</v>
+      </c>
+      <c r="F4" s="100">
+        <v>73</v>
+      </c>
+      <c r="G4" s="100">
+        <v>76</v>
+      </c>
+      <c r="H4" s="100">
+        <v>79</v>
+      </c>
+      <c r="I4" s="101">
+        <v>82</v>
+      </c>
+      <c r="J4" s="101">
+        <v>84</v>
+      </c>
+      <c r="K4" s="101">
+        <v>85</v>
+      </c>
+      <c r="L4" s="102">
+        <v>87</v>
+      </c>
+      <c r="M4" s="103">
+        <v>88</v>
+      </c>
+      <c r="N4" s="103">
+        <v>89</v>
+      </c>
+      <c r="O4" s="103">
+        <v>91</v>
+      </c>
+      <c r="P4" s="103">
+        <v>91</v>
+      </c>
+      <c r="Q4" s="103">
+        <v>93</v>
+      </c>
+      <c r="R4" s="103">
+        <v>94</v>
+      </c>
+      <c r="S4" s="103">
+        <v>95</v>
+      </c>
+      <c r="T4" s="103">
+        <v>96</v>
+      </c>
+      <c r="U4" s="103">
+        <v>97</v>
+      </c>
+      <c r="V4" s="103">
+        <v>98</v>
       </c>
       <c r="W4" s="6">
         <v>2</v>
@@ -1614,68 +1635,68 @@
       <c r="A5" s="78">
         <v>2017</v>
       </c>
-      <c r="B5" s="79">
-        <v>16.098759313544416</v>
-      </c>
-      <c r="C5" s="79">
-        <v>31.26628732988916</v>
-      </c>
-      <c r="D5" s="80">
-        <v>43.392993227994694</v>
-      </c>
-      <c r="E5" s="79">
-        <v>52.468819147720524</v>
-      </c>
-      <c r="F5" s="79">
-        <v>59.337674865298204</v>
-      </c>
-      <c r="G5" s="79">
-        <v>64.760763679909374</v>
-      </c>
-      <c r="H5" s="79">
-        <v>69.075340533731506</v>
-      </c>
-      <c r="I5" s="80">
-        <v>72.584128855475001</v>
-      </c>
-      <c r="J5" s="79">
-        <v>75.479737242033735</v>
-      </c>
-      <c r="K5" s="79">
-        <v>77.915170887308818</v>
-      </c>
-      <c r="L5" s="79">
-        <v>79.985312185348008</v>
-      </c>
-      <c r="M5" s="79">
-        <v>81.758819851662224</v>
-      </c>
-      <c r="N5" s="80">
-        <v>83.305378948415608</v>
-      </c>
-      <c r="O5" s="79">
-        <v>85.843168251321444</v>
-      </c>
-      <c r="P5" s="79">
-        <v>86.89936236778172</v>
-      </c>
-      <c r="Q5" s="80">
-        <v>88.691199176437394</v>
-      </c>
-      <c r="R5" s="79">
-        <v>90.142431934511734</v>
-      </c>
-      <c r="S5" s="80">
-        <v>91.86745751748785</v>
-      </c>
-      <c r="T5" s="80">
-        <v>93.92203426982563</v>
-      </c>
-      <c r="U5" s="80">
-        <v>95.334291029677615</v>
-      </c>
-      <c r="V5" s="80">
-        <v>96.34629652537123</v>
+      <c r="B5" s="100">
+        <v>16</v>
+      </c>
+      <c r="C5" s="100">
+        <v>31</v>
+      </c>
+      <c r="D5" s="100">
+        <v>43</v>
+      </c>
+      <c r="E5" s="101">
+        <v>52</v>
+      </c>
+      <c r="F5" s="100">
+        <v>59</v>
+      </c>
+      <c r="G5" s="100">
+        <v>65</v>
+      </c>
+      <c r="H5" s="100">
+        <v>69</v>
+      </c>
+      <c r="I5" s="101">
+        <v>73</v>
+      </c>
+      <c r="J5" s="101">
+        <v>75</v>
+      </c>
+      <c r="K5" s="101">
+        <v>78</v>
+      </c>
+      <c r="L5" s="102">
+        <v>80</v>
+      </c>
+      <c r="M5" s="103">
+        <v>82</v>
+      </c>
+      <c r="N5" s="103">
+        <v>83</v>
+      </c>
+      <c r="O5" s="103">
+        <v>86</v>
+      </c>
+      <c r="P5" s="103">
+        <v>87</v>
+      </c>
+      <c r="Q5" s="103">
+        <v>89</v>
+      </c>
+      <c r="R5" s="103">
+        <v>90</v>
+      </c>
+      <c r="S5" s="103">
+        <v>92</v>
+      </c>
+      <c r="T5" s="103">
+        <v>94</v>
+      </c>
+      <c r="U5" s="103">
+        <v>95</v>
+      </c>
+      <c r="V5" s="103">
+        <v>96</v>
       </c>
       <c r="W5" s="6">
         <v>3</v>
@@ -1696,68 +1717,68 @@
       <c r="A6" s="78">
         <v>2016</v>
       </c>
-      <c r="B6" s="79">
-        <v>5.849216513144003</v>
-      </c>
-      <c r="C6" s="79">
+      <c r="B6" s="100">
+        <v>6</v>
+      </c>
+      <c r="C6" s="100">
         <v>16</v>
       </c>
-      <c r="D6" s="80">
-        <v>28.272063254894075</v>
-      </c>
-      <c r="E6" s="79">
-        <v>38.463977132758778</v>
-      </c>
-      <c r="F6" s="79">
-        <v>46.852706062972807</v>
-      </c>
-      <c r="G6" s="79">
-        <v>53.541122661472649</v>
-      </c>
-      <c r="H6" s="79">
-        <v>58.957845818106335</v>
-      </c>
-      <c r="I6" s="80">
-        <v>63.476676873226488</v>
-      </c>
-      <c r="J6" s="79">
-        <v>67.224232118875022</v>
-      </c>
-      <c r="K6" s="79">
-        <v>70.410851017721782</v>
-      </c>
-      <c r="L6" s="79">
-        <v>73.118557555808707</v>
-      </c>
-      <c r="M6" s="79">
-        <v>75.480638657465775</v>
-      </c>
-      <c r="N6" s="80">
-        <v>77.527140852578142</v>
-      </c>
-      <c r="O6" s="79">
-        <v>80.918168385156235</v>
-      </c>
-      <c r="P6" s="79">
-        <v>82.334805592934529</v>
-      </c>
-      <c r="Q6" s="80">
-        <v>84.731924769563577</v>
-      </c>
-      <c r="R6" s="79">
-        <v>86.683437582399478</v>
-      </c>
-      <c r="S6" s="80">
-        <v>89.003056708633451</v>
-      </c>
-      <c r="T6" s="80">
-        <v>91.775063932880002</v>
-      </c>
-      <c r="U6" s="80">
-        <v>93.684471260547923</v>
-      </c>
-      <c r="V6" s="80">
-        <v>95.054428322327595</v>
+      <c r="D6" s="100">
+        <v>28</v>
+      </c>
+      <c r="E6" s="101">
+        <v>38</v>
+      </c>
+      <c r="F6" s="100">
+        <v>47</v>
+      </c>
+      <c r="G6" s="100">
+        <v>54</v>
+      </c>
+      <c r="H6" s="100">
+        <v>59</v>
+      </c>
+      <c r="I6" s="101">
+        <v>63</v>
+      </c>
+      <c r="J6" s="101">
+        <v>67</v>
+      </c>
+      <c r="K6" s="101">
+        <v>70</v>
+      </c>
+      <c r="L6" s="102">
+        <v>73</v>
+      </c>
+      <c r="M6" s="103">
+        <v>75</v>
+      </c>
+      <c r="N6" s="103">
+        <v>78</v>
+      </c>
+      <c r="O6" s="103">
+        <v>81</v>
+      </c>
+      <c r="P6" s="104">
+        <v>82</v>
+      </c>
+      <c r="Q6" s="103">
+        <v>85</v>
+      </c>
+      <c r="R6" s="103">
+        <v>87</v>
+      </c>
+      <c r="S6" s="103">
+        <v>89</v>
+      </c>
+      <c r="T6" s="103">
+        <v>92</v>
+      </c>
+      <c r="U6" s="103">
+        <v>94</v>
+      </c>
+      <c r="V6" s="103">
+        <v>95</v>
       </c>
       <c r="W6" s="6">
         <v>4</v>
@@ -1778,68 +1799,66 @@
       <c r="A7" s="78">
         <v>2015</v>
       </c>
-      <c r="B7" s="79">
-        <v>0</v>
-      </c>
-      <c r="C7" s="79">
-        <v>7.9982768565838889</v>
-      </c>
-      <c r="D7" s="80">
-        <v>16.792635856945832</v>
-      </c>
-      <c r="E7" s="79">
-        <v>26.461599051613653</v>
-      </c>
-      <c r="F7" s="79">
-        <v>35.341947003584458</v>
-      </c>
-      <c r="G7" s="79">
-        <v>42.904350384530993</v>
-      </c>
-      <c r="H7" s="79">
-        <v>49.229690067590106</v>
-      </c>
-      <c r="I7" s="80">
-        <v>54.607852528823251</v>
-      </c>
-      <c r="J7" s="79">
-        <v>59.085406287785112</v>
-      </c>
-      <c r="K7" s="79">
-        <v>62.93990376927546</v>
-      </c>
-      <c r="L7" s="79">
-        <v>66.283502761606883</v>
-      </c>
-      <c r="M7" s="79">
-        <v>69.162504929850783</v>
-      </c>
-      <c r="N7" s="80">
-        <v>71.714493266938845</v>
-      </c>
-      <c r="O7" s="79">
-        <v>75.920700695149122</v>
-      </c>
-      <c r="P7" s="79">
-        <v>77.677987780977944</v>
-      </c>
-      <c r="Q7" s="80">
-        <v>80.692190017632242</v>
-      </c>
-      <c r="R7" s="79">
-        <v>83.136569405006938</v>
-      </c>
-      <c r="S7" s="80">
-        <v>86.064912205396723</v>
-      </c>
-      <c r="T7" s="80">
-        <v>89.565721695858898</v>
-      </c>
-      <c r="U7" s="80">
-        <v>91.986710301956592</v>
-      </c>
-      <c r="V7" s="80">
-        <v>93.723263129672759</v>
+      <c r="B7" s="100"/>
+      <c r="C7" s="100">
+        <v>8</v>
+      </c>
+      <c r="D7" s="100">
+        <v>17</v>
+      </c>
+      <c r="E7" s="101">
+        <v>26</v>
+      </c>
+      <c r="F7" s="100">
+        <v>35</v>
+      </c>
+      <c r="G7" s="100">
+        <v>43</v>
+      </c>
+      <c r="H7" s="100">
+        <v>49</v>
+      </c>
+      <c r="I7" s="101">
+        <v>55</v>
+      </c>
+      <c r="J7" s="101">
+        <v>59</v>
+      </c>
+      <c r="K7" s="101">
+        <v>63</v>
+      </c>
+      <c r="L7" s="102">
+        <v>66</v>
+      </c>
+      <c r="M7" s="103">
+        <v>69</v>
+      </c>
+      <c r="N7" s="103">
+        <v>72</v>
+      </c>
+      <c r="O7" s="103">
+        <v>76</v>
+      </c>
+      <c r="P7" s="104">
+        <v>78</v>
+      </c>
+      <c r="Q7" s="103">
+        <v>81</v>
+      </c>
+      <c r="R7" s="103">
+        <v>83</v>
+      </c>
+      <c r="S7" s="103">
+        <v>86</v>
+      </c>
+      <c r="T7" s="103">
+        <v>90</v>
+      </c>
+      <c r="U7" s="103">
+        <v>92</v>
+      </c>
+      <c r="V7" s="103">
+        <v>94</v>
       </c>
       <c r="W7" s="6">
         <v>5</v>
@@ -1860,68 +1879,66 @@
       <c r="A8" s="78">
         <v>2014</v>
       </c>
-      <c r="B8" s="79">
-        <v>0</v>
-      </c>
-      <c r="C8" s="79">
-        <v>2.5663090625429956</v>
-      </c>
-      <c r="D8" s="80">
-        <v>9.4804095238911987</v>
-      </c>
-      <c r="E8" s="79">
-        <v>17.144997393229989</v>
-      </c>
-      <c r="F8" s="79">
-        <v>25.26083017868363</v>
-      </c>
-      <c r="G8" s="79">
-        <v>33.260606935273557</v>
-      </c>
-      <c r="H8" s="79">
-        <v>40.051603537510786</v>
-      </c>
-      <c r="I8" s="80">
-        <v>46.100741466824338</v>
-      </c>
-      <c r="J8" s="79">
-        <v>51.176727332203967</v>
-      </c>
-      <c r="K8" s="79">
-        <v>55.667831024892678</v>
-      </c>
-      <c r="L8" s="79">
-        <v>59.525230359729917</v>
-      </c>
-      <c r="M8" s="79">
-        <v>62.869908718776699</v>
-      </c>
-      <c r="N8" s="80">
-        <v>65.897536771426886</v>
-      </c>
-      <c r="O8" s="79">
-        <v>70.876899930171561</v>
-      </c>
-      <c r="P8" s="79">
-        <v>72.984238817272868</v>
-      </c>
-      <c r="Q8" s="80">
-        <v>76.585326727310871</v>
-      </c>
-      <c r="R8" s="79">
-        <v>79.531006266854988</v>
-      </c>
-      <c r="S8" s="80">
-        <v>83.060747109045167</v>
-      </c>
-      <c r="T8" s="80">
-        <v>87.303369591369957</v>
-      </c>
-      <c r="U8" s="80">
-        <v>90.241808739020399</v>
-      </c>
-      <c r="V8" s="80">
-        <v>92.354658533106218</v>
+      <c r="B8" s="100"/>
+      <c r="C8" s="100">
+        <v>3</v>
+      </c>
+      <c r="D8" s="100">
+        <v>9</v>
+      </c>
+      <c r="E8" s="101">
+        <v>17</v>
+      </c>
+      <c r="F8" s="100">
+        <v>25</v>
+      </c>
+      <c r="G8" s="100">
+        <v>33</v>
+      </c>
+      <c r="H8" s="100">
+        <v>40</v>
+      </c>
+      <c r="I8" s="101">
+        <v>46</v>
+      </c>
+      <c r="J8" s="101">
+        <v>51</v>
+      </c>
+      <c r="K8" s="101">
+        <v>56</v>
+      </c>
+      <c r="L8" s="102">
+        <v>60</v>
+      </c>
+      <c r="M8" s="103">
+        <v>63</v>
+      </c>
+      <c r="N8" s="103">
+        <v>66</v>
+      </c>
+      <c r="O8" s="103">
+        <v>71</v>
+      </c>
+      <c r="P8" s="105">
+        <v>73</v>
+      </c>
+      <c r="Q8" s="103">
+        <v>77</v>
+      </c>
+      <c r="R8" s="103">
+        <v>80</v>
+      </c>
+      <c r="S8" s="103">
+        <v>83</v>
+      </c>
+      <c r="T8" s="103">
+        <v>87</v>
+      </c>
+      <c r="U8" s="103">
+        <v>90</v>
+      </c>
+      <c r="V8" s="103">
+        <v>92</v>
       </c>
       <c r="W8" s="6">
         <v>6</v>
@@ -1942,66 +1959,64 @@
       <c r="A9" s="78">
         <v>2013</v>
       </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="79">
-        <v>0</v>
-      </c>
-      <c r="D9" s="80">
-        <v>4.8474810803284623</v>
-      </c>
-      <c r="E9" s="79">
-        <v>10.381776532153374</v>
-      </c>
-      <c r="F9" s="79">
-        <v>17.500802128446434</v>
-      </c>
-      <c r="G9" s="79">
-        <v>24.653348383703801</v>
-      </c>
-      <c r="H9" s="79">
-        <v>31.589731441870562</v>
-      </c>
-      <c r="I9" s="80">
-        <v>38.062893238001685</v>
-      </c>
-      <c r="J9" s="79">
-        <v>43.570802735623268</v>
-      </c>
-      <c r="K9" s="79">
-        <v>48.538343400445285</v>
-      </c>
-      <c r="L9" s="79">
-        <v>52.817998600437491</v>
-      </c>
-      <c r="M9" s="79">
-        <v>56.720108641179777</v>
-      </c>
-      <c r="N9" s="80">
-        <v>60.063972620129825</v>
-      </c>
-      <c r="O9" s="79">
-        <v>65.825972198298146</v>
-      </c>
-      <c r="P9" s="79">
-        <v>68.220640075973023</v>
-      </c>
-      <c r="Q9" s="80">
-        <v>72.427102910848589</v>
-      </c>
-      <c r="R9" s="79">
-        <v>75.841398753431037</v>
-      </c>
-      <c r="S9" s="80">
-        <v>79.993588471342676</v>
-      </c>
-      <c r="T9" s="80">
-        <v>84.978774470299939</v>
-      </c>
-      <c r="U9" s="80">
-        <v>88.447565771148589</v>
-      </c>
-      <c r="V9" s="80">
-        <v>90.944599327258345</v>
+      <c r="B9" s="100"/>
+      <c r="C9" s="100"/>
+      <c r="D9" s="100">
+        <v>5</v>
+      </c>
+      <c r="E9" s="101">
+        <v>10</v>
+      </c>
+      <c r="F9" s="100">
+        <v>18</v>
+      </c>
+      <c r="G9" s="100">
+        <v>25</v>
+      </c>
+      <c r="H9" s="100">
+        <v>32</v>
+      </c>
+      <c r="I9" s="101">
+        <v>38</v>
+      </c>
+      <c r="J9" s="101">
+        <v>44</v>
+      </c>
+      <c r="K9" s="101">
+        <v>49</v>
+      </c>
+      <c r="L9" s="102">
+        <v>53</v>
+      </c>
+      <c r="M9" s="103">
+        <v>57</v>
+      </c>
+      <c r="N9" s="103">
+        <v>60</v>
+      </c>
+      <c r="O9" s="103">
+        <v>66</v>
+      </c>
+      <c r="P9" s="105">
+        <v>68</v>
+      </c>
+      <c r="Q9" s="103">
+        <v>72</v>
+      </c>
+      <c r="R9" s="103">
+        <v>76</v>
+      </c>
+      <c r="S9" s="103">
+        <v>80</v>
+      </c>
+      <c r="T9" s="103">
+        <v>85</v>
+      </c>
+      <c r="U9" s="103">
+        <v>88</v>
+      </c>
+      <c r="V9" s="103">
+        <v>91</v>
       </c>
       <c r="W9" s="6">
         <v>7</v>
@@ -2022,66 +2037,64 @@
       <c r="A10" s="78">
         <v>2012</v>
       </c>
-      <c r="B10" s="78"/>
-      <c r="C10" s="79">
-        <v>0</v>
-      </c>
-      <c r="D10" s="80">
-        <v>0.80654216463811856</v>
-      </c>
-      <c r="E10" s="79">
-        <v>6.3596885554397335</v>
-      </c>
-      <c r="F10" s="79">
-        <v>11.591154712745046</v>
-      </c>
-      <c r="G10" s="79">
-        <v>17.859969380990727</v>
-      </c>
-      <c r="H10" s="79">
-        <v>24.108555359709868</v>
-      </c>
-      <c r="I10" s="80">
-        <v>30.661541414395323</v>
-      </c>
-      <c r="J10" s="79">
-        <v>36.358660710250518</v>
-      </c>
-      <c r="K10" s="79">
-        <v>41.645600988372934</v>
-      </c>
-      <c r="L10" s="79">
-        <v>46.381344870721094</v>
-      </c>
-      <c r="M10" s="79">
-        <v>50.63832319503522</v>
-      </c>
-      <c r="N10" s="80">
-        <v>54.37268450293152</v>
-      </c>
-      <c r="O10" s="79">
-        <v>60.791568939760928</v>
-      </c>
-      <c r="P10" s="79">
-        <v>63.493237463159559</v>
-      </c>
-      <c r="Q10" s="80">
-        <v>68.234929152340158</v>
-      </c>
-      <c r="R10" s="79">
-        <v>72.1327060707209</v>
-      </c>
-      <c r="S10" s="80">
-        <v>76.869418025716641</v>
-      </c>
-      <c r="T10" s="80">
-        <v>82.593315794757515</v>
-      </c>
-      <c r="U10" s="80">
-        <v>86.598245400445123</v>
-      </c>
-      <c r="V10" s="80">
-        <v>89.49890101664964</v>
+      <c r="B10" s="100"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="100">
+        <v>1</v>
+      </c>
+      <c r="E10" s="101">
+        <v>6</v>
+      </c>
+      <c r="F10" s="100">
+        <v>12</v>
+      </c>
+      <c r="G10" s="100">
+        <v>18</v>
+      </c>
+      <c r="H10" s="100">
+        <v>24</v>
+      </c>
+      <c r="I10" s="101">
+        <v>31</v>
+      </c>
+      <c r="J10" s="101">
+        <v>36</v>
+      </c>
+      <c r="K10" s="101">
+        <v>42</v>
+      </c>
+      <c r="L10" s="102">
+        <v>46</v>
+      </c>
+      <c r="M10" s="103">
+        <v>51</v>
+      </c>
+      <c r="N10" s="103">
+        <v>54</v>
+      </c>
+      <c r="O10" s="103">
+        <v>61</v>
+      </c>
+      <c r="P10" s="103">
+        <v>63</v>
+      </c>
+      <c r="Q10" s="103">
+        <v>68</v>
+      </c>
+      <c r="R10" s="103">
+        <v>72</v>
+      </c>
+      <c r="S10" s="103">
+        <v>77</v>
+      </c>
+      <c r="T10" s="103">
+        <v>83</v>
+      </c>
+      <c r="U10" s="103">
+        <v>87</v>
+      </c>
+      <c r="V10" s="103">
+        <v>89</v>
       </c>
       <c r="W10" s="6">
         <v>8</v>
@@ -2102,66 +2115,62 @@
       <c r="A11" s="78">
         <v>2011</v>
       </c>
-      <c r="B11" s="78"/>
-      <c r="C11" s="79">
-        <v>0</v>
-      </c>
-      <c r="D11" s="80">
-        <v>0</v>
-      </c>
-      <c r="E11" s="79">
-        <v>2.73106221612283</v>
-      </c>
-      <c r="F11" s="79">
-        <v>7.4984665199284457</v>
-      </c>
-      <c r="G11" s="79">
-        <v>12.390265969975129</v>
-      </c>
-      <c r="H11" s="79">
-        <v>18.222415076476139</v>
-      </c>
-      <c r="I11" s="80">
-        <v>24.114220467853873</v>
-      </c>
-      <c r="J11" s="79">
-        <v>29.678020179539423</v>
-      </c>
-      <c r="K11" s="79">
-        <v>35.283888802649471</v>
-      </c>
-      <c r="L11" s="79">
-        <v>40.208026698622618</v>
-      </c>
-      <c r="M11" s="79">
-        <v>44.700772003691995</v>
-      </c>
-      <c r="N11" s="80">
-        <v>48.800405398561928</v>
-      </c>
-      <c r="O11" s="79">
-        <v>55.698626202119094</v>
-      </c>
-      <c r="P11" s="79">
-        <v>58.797388447603659</v>
-      </c>
-      <c r="Q11" s="80">
-        <v>64.026884224814012</v>
-      </c>
-      <c r="R11" s="79">
-        <v>68.339821555528204</v>
-      </c>
-      <c r="S11" s="80">
-        <v>73.695060549379406</v>
-      </c>
-      <c r="T11" s="80">
-        <v>80.175090870833913</v>
-      </c>
-      <c r="U11" s="80">
-        <v>84.707377959565292</v>
-      </c>
-      <c r="V11" s="80">
-        <v>88.00868323613102</v>
+      <c r="B11" s="100"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="101">
+        <v>3</v>
+      </c>
+      <c r="F11" s="100">
+        <v>7</v>
+      </c>
+      <c r="G11" s="100">
+        <v>12</v>
+      </c>
+      <c r="H11" s="100">
+        <v>18</v>
+      </c>
+      <c r="I11" s="101">
+        <v>24</v>
+      </c>
+      <c r="J11" s="101">
+        <v>30</v>
+      </c>
+      <c r="K11" s="101">
+        <v>35</v>
+      </c>
+      <c r="L11" s="102">
+        <v>40</v>
+      </c>
+      <c r="M11" s="103">
+        <v>45</v>
+      </c>
+      <c r="N11" s="103">
+        <v>49</v>
+      </c>
+      <c r="O11" s="103">
+        <v>56</v>
+      </c>
+      <c r="P11" s="103">
+        <v>59</v>
+      </c>
+      <c r="Q11" s="103">
+        <v>64</v>
+      </c>
+      <c r="R11" s="103">
+        <v>68</v>
+      </c>
+      <c r="S11" s="103">
+        <v>74</v>
+      </c>
+      <c r="T11" s="103">
+        <v>80</v>
+      </c>
+      <c r="U11" s="103">
+        <v>85</v>
+      </c>
+      <c r="V11" s="103">
+        <v>88</v>
       </c>
       <c r="W11" s="6">
         <v>9</v>
@@ -2182,66 +2191,60 @@
       <c r="A12" s="78">
         <v>2010</v>
       </c>
-      <c r="B12" s="78"/>
-      <c r="C12" s="79">
-        <v>0</v>
-      </c>
-      <c r="D12" s="80">
-        <v>0</v>
-      </c>
-      <c r="E12" s="79">
-        <v>0</v>
-      </c>
-      <c r="F12" s="79">
-        <v>4.0363805507868795</v>
-      </c>
-      <c r="G12" s="79">
-        <v>8.8653290080612059</v>
-      </c>
-      <c r="H12" s="79">
-        <v>13.36881585031422</v>
-      </c>
-      <c r="I12" s="80">
-        <v>18.588052360103887</v>
-      </c>
-      <c r="J12" s="79">
-        <v>23.690538115393988</v>
-      </c>
-      <c r="K12" s="79">
-        <v>29.238231662672153</v>
-      </c>
-      <c r="L12" s="79">
-        <v>34.158911664042833</v>
-      </c>
-      <c r="M12" s="79">
-        <v>38.970974179470154</v>
-      </c>
-      <c r="N12" s="80">
-        <v>43.242196704163071</v>
-      </c>
-      <c r="O12" s="79">
-        <v>50.752741025726664</v>
-      </c>
-      <c r="P12" s="79">
-        <v>54.050016630568166</v>
-      </c>
-      <c r="Q12" s="80">
-        <v>59.820481647119685</v>
-      </c>
-      <c r="R12" s="79">
-        <v>64.582378796770001</v>
-      </c>
-      <c r="S12" s="80">
-        <v>70.478011506211899</v>
-      </c>
-      <c r="T12" s="80">
-        <v>77.691622068519735</v>
-      </c>
-      <c r="U12" s="80">
-        <v>82.777928301892501</v>
-      </c>
-      <c r="V12" s="80">
-        <v>86.486988943368928</v>
+      <c r="B12" s="100"/>
+      <c r="C12" s="100"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="101"/>
+      <c r="F12" s="100">
+        <v>4</v>
+      </c>
+      <c r="G12" s="100">
+        <v>9</v>
+      </c>
+      <c r="H12" s="100">
+        <v>13</v>
+      </c>
+      <c r="I12" s="101">
+        <v>19</v>
+      </c>
+      <c r="J12" s="101">
+        <v>24</v>
+      </c>
+      <c r="K12" s="101">
+        <v>29</v>
+      </c>
+      <c r="L12" s="102">
+        <v>34</v>
+      </c>
+      <c r="M12" s="103">
+        <v>39</v>
+      </c>
+      <c r="N12" s="103">
+        <v>43</v>
+      </c>
+      <c r="O12" s="103">
+        <v>51</v>
+      </c>
+      <c r="P12" s="103">
+        <v>54</v>
+      </c>
+      <c r="Q12" s="103">
+        <v>60</v>
+      </c>
+      <c r="R12" s="103">
+        <v>65</v>
+      </c>
+      <c r="S12" s="103">
+        <v>70</v>
+      </c>
+      <c r="T12" s="103">
+        <v>78</v>
+      </c>
+      <c r="U12" s="103">
+        <v>83</v>
+      </c>
+      <c r="V12" s="103">
+        <v>86</v>
       </c>
       <c r="W12" s="6">
         <v>10</v>
@@ -2262,66 +2265,60 @@
       <c r="A13" s="78">
         <v>2009</v>
       </c>
-      <c r="B13" s="78"/>
-      <c r="C13" s="79">
-        <v>0</v>
-      </c>
-      <c r="D13" s="80">
-        <v>0</v>
-      </c>
-      <c r="E13" s="79">
-        <v>0</v>
-      </c>
-      <c r="F13" s="79">
-        <v>1.3183453057223853</v>
-      </c>
-      <c r="G13" s="79">
-        <v>5.638853246152066</v>
-      </c>
-      <c r="H13" s="79">
-        <v>9.7191587127251964</v>
-      </c>
-      <c r="I13" s="80">
-        <v>14.137039299621327</v>
-      </c>
-      <c r="J13" s="79">
-        <v>18.956791943042404</v>
-      </c>
-      <c r="K13" s="79">
-        <v>23.746596635083694</v>
-      </c>
-      <c r="L13" s="79">
-        <v>28.745040790242243</v>
-      </c>
-      <c r="M13" s="79">
-        <v>33.523893346106298</v>
-      </c>
-      <c r="N13" s="80">
-        <v>38.03437600744914</v>
-      </c>
-      <c r="O13" s="79">
-        <v>45.897237358557014</v>
-      </c>
-      <c r="P13" s="79">
-        <v>49.479650851015414</v>
-      </c>
-      <c r="Q13" s="80">
-        <v>55.631604741886164</v>
-      </c>
-      <c r="R13" s="79">
-        <v>60.832032125649661</v>
-      </c>
-      <c r="S13" s="80">
-        <v>67.237505995997054</v>
-      </c>
-      <c r="T13" s="80">
-        <v>75.152645888689619</v>
-      </c>
-      <c r="U13" s="80">
-        <v>80.802353557382389</v>
-      </c>
-      <c r="V13" s="80">
-        <v>84.916675616037764</v>
+      <c r="B13" s="100"/>
+      <c r="C13" s="100"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="101"/>
+      <c r="F13" s="100">
+        <v>1</v>
+      </c>
+      <c r="G13" s="100">
+        <v>6</v>
+      </c>
+      <c r="H13" s="100">
+        <v>10</v>
+      </c>
+      <c r="I13" s="101">
+        <v>14</v>
+      </c>
+      <c r="J13" s="101">
+        <v>19</v>
+      </c>
+      <c r="K13" s="101">
+        <v>24</v>
+      </c>
+      <c r="L13" s="102">
+        <v>29</v>
+      </c>
+      <c r="M13" s="103">
+        <v>34</v>
+      </c>
+      <c r="N13" s="103">
+        <v>38</v>
+      </c>
+      <c r="O13" s="103">
+        <v>46</v>
+      </c>
+      <c r="P13" s="103">
+        <v>49</v>
+      </c>
+      <c r="Q13" s="103">
+        <v>56</v>
+      </c>
+      <c r="R13" s="103">
+        <v>61</v>
+      </c>
+      <c r="S13" s="103">
+        <v>67</v>
+      </c>
+      <c r="T13" s="103">
+        <v>75</v>
+      </c>
+      <c r="U13" s="103">
+        <v>81</v>
+      </c>
+      <c r="V13" s="103">
+        <v>85</v>
       </c>
       <c r="W13" s="6">
         <v>11</v>
@@ -2342,66 +2339,58 @@
       <c r="A14" s="78">
         <v>2008</v>
       </c>
-      <c r="B14" s="78"/>
-      <c r="C14" s="79">
-        <v>0</v>
-      </c>
-      <c r="D14" s="80">
-        <v>0</v>
-      </c>
-      <c r="E14" s="79">
-        <v>0</v>
-      </c>
-      <c r="F14" s="79">
-        <v>0</v>
-      </c>
-      <c r="G14" s="79">
-        <v>2.9019505563929737</v>
-      </c>
-      <c r="H14" s="79">
-        <v>6.8945041996181997</v>
-      </c>
-      <c r="I14" s="80">
-        <v>10.705655420687233</v>
-      </c>
-      <c r="J14" s="79">
-        <v>14.782100884762094</v>
-      </c>
-      <c r="K14" s="79">
-        <v>19.328542339907056</v>
-      </c>
-      <c r="L14" s="79">
-        <v>23.913156668862303</v>
-      </c>
-      <c r="M14" s="79">
-        <v>28.418991842610986</v>
-      </c>
-      <c r="N14" s="80">
-        <v>33.101866094881593</v>
-      </c>
-      <c r="O14" s="79">
-        <v>41.163094195596791</v>
-      </c>
-      <c r="P14" s="79">
-        <v>44.8375548533215</v>
-      </c>
-      <c r="Q14" s="80">
-        <v>51.474245874420234</v>
-      </c>
-      <c r="R14" s="79">
-        <v>56.994343804678891</v>
-      </c>
-      <c r="S14" s="80">
-        <v>63.972815198353636</v>
-      </c>
-      <c r="T14" s="80">
-        <v>72.617698350192398</v>
-      </c>
-      <c r="U14" s="80">
-        <v>78.787967070935167</v>
-      </c>
-      <c r="V14" s="80">
-        <v>83.322069803689487</v>
+      <c r="B14" s="100"/>
+      <c r="C14" s="100"/>
+      <c r="D14" s="100"/>
+      <c r="E14" s="101"/>
+      <c r="F14" s="100"/>
+      <c r="G14" s="100">
+        <v>3</v>
+      </c>
+      <c r="H14" s="100">
+        <v>7</v>
+      </c>
+      <c r="I14" s="101">
+        <v>11</v>
+      </c>
+      <c r="J14" s="101">
+        <v>15</v>
+      </c>
+      <c r="K14" s="101">
+        <v>19</v>
+      </c>
+      <c r="L14" s="102">
+        <v>24</v>
+      </c>
+      <c r="M14" s="103">
+        <v>28</v>
+      </c>
+      <c r="N14" s="103">
+        <v>33</v>
+      </c>
+      <c r="O14" s="103">
+        <v>41</v>
+      </c>
+      <c r="P14" s="103">
+        <v>45</v>
+      </c>
+      <c r="Q14" s="103">
+        <v>51</v>
+      </c>
+      <c r="R14" s="103">
+        <v>57</v>
+      </c>
+      <c r="S14" s="103">
+        <v>64</v>
+      </c>
+      <c r="T14" s="103">
+        <v>73</v>
+      </c>
+      <c r="U14" s="103">
+        <v>79</v>
+      </c>
+      <c r="V14" s="103">
+        <v>83</v>
       </c>
       <c r="W14" s="6">
         <v>12</v>
@@ -2422,66 +2411,56 @@
       <c r="A15" s="78">
         <v>2007</v>
       </c>
-      <c r="B15" s="78"/>
-      <c r="C15" s="79">
-        <v>0</v>
-      </c>
-      <c r="D15" s="80">
-        <v>0</v>
-      </c>
-      <c r="E15" s="79">
-        <v>0</v>
-      </c>
-      <c r="F15" s="79">
-        <v>0</v>
-      </c>
-      <c r="G15" s="79">
-        <v>0</v>
-      </c>
-      <c r="H15" s="79">
-        <v>4.082233140272935</v>
-      </c>
-      <c r="I15" s="80">
-        <v>8.0739760190333527</v>
-      </c>
-      <c r="J15" s="79">
-        <v>11.443035996746262</v>
-      </c>
-      <c r="K15" s="79">
-        <v>15.304025012666203</v>
-      </c>
-      <c r="L15" s="79">
-        <v>19.70314781675399</v>
-      </c>
-      <c r="M15" s="79">
-        <v>23.801980919302888</v>
-      </c>
-      <c r="N15" s="80">
-        <v>28.262793744840653</v>
-      </c>
-      <c r="O15" s="79">
-        <v>36.619223596366332</v>
-      </c>
-      <c r="P15" s="79">
-        <v>40.481602650007268</v>
-      </c>
-      <c r="Q15" s="80">
-        <v>47.364253227486643</v>
-      </c>
-      <c r="R15" s="79">
-        <v>53.276990016705703</v>
-      </c>
-      <c r="S15" s="80">
-        <v>60.691294277133181</v>
-      </c>
-      <c r="T15" s="80">
-        <v>70.006990213542139</v>
-      </c>
-      <c r="U15" s="80">
-        <v>76.738356473499067</v>
-      </c>
-      <c r="V15" s="80">
-        <v>81.673005439136091</v>
+      <c r="B15" s="100"/>
+      <c r="C15" s="100"/>
+      <c r="D15" s="100"/>
+      <c r="E15" s="101"/>
+      <c r="F15" s="100"/>
+      <c r="G15" s="100"/>
+      <c r="H15" s="100">
+        <v>4</v>
+      </c>
+      <c r="I15" s="101">
+        <v>8</v>
+      </c>
+      <c r="J15" s="101">
+        <v>11</v>
+      </c>
+      <c r="K15" s="101">
+        <v>15</v>
+      </c>
+      <c r="L15" s="102">
+        <v>20</v>
+      </c>
+      <c r="M15" s="103">
+        <v>24</v>
+      </c>
+      <c r="N15" s="103">
+        <v>28</v>
+      </c>
+      <c r="O15" s="103">
+        <v>37</v>
+      </c>
+      <c r="P15" s="103">
+        <v>40</v>
+      </c>
+      <c r="Q15" s="103">
+        <v>47</v>
+      </c>
+      <c r="R15" s="103">
+        <v>53</v>
+      </c>
+      <c r="S15" s="103">
+        <v>61</v>
+      </c>
+      <c r="T15" s="103">
+        <v>70</v>
+      </c>
+      <c r="U15" s="103">
+        <v>77</v>
+      </c>
+      <c r="V15" s="103">
+        <v>82</v>
       </c>
       <c r="W15" s="6">
         <v>13</v>
@@ -2502,66 +2481,56 @@
       <c r="A16" s="78">
         <v>2006</v>
       </c>
-      <c r="B16" s="78"/>
-      <c r="C16" s="79">
-        <v>0</v>
-      </c>
-      <c r="D16" s="80">
-        <v>0</v>
-      </c>
-      <c r="E16" s="79">
-        <v>0</v>
-      </c>
-      <c r="F16" s="79">
-        <v>0</v>
-      </c>
-      <c r="G16" s="79">
-        <v>0</v>
-      </c>
-      <c r="H16" s="79">
-        <v>1.5068310338139119</v>
-      </c>
-      <c r="I16" s="80">
-        <v>5.5816488892871448</v>
-      </c>
-      <c r="J16" s="79">
-        <v>8.8060927876361337</v>
-      </c>
-      <c r="K16" s="79">
-        <v>11.937057145781752</v>
-      </c>
-      <c r="L16" s="79">
-        <v>15.726462900383709</v>
-      </c>
-      <c r="M16" s="79">
-        <v>20.080640919483447</v>
-      </c>
-      <c r="N16" s="80">
-        <v>24.12671409142477</v>
-      </c>
-      <c r="O16" s="79">
-        <v>32.304020060199335</v>
-      </c>
-      <c r="P16" s="79">
-        <v>36.062155362640446</v>
-      </c>
-      <c r="Q16" s="80">
-        <v>43.323735943815414</v>
-      </c>
-      <c r="R16" s="79">
-        <v>49.448800709224997</v>
-      </c>
-      <c r="S16" s="80">
-        <v>57.400007591864757</v>
-      </c>
-      <c r="T16" s="80">
-        <v>67.348592397949787</v>
-      </c>
-      <c r="U16" s="80">
-        <v>74.646922743540131</v>
-      </c>
-      <c r="V16" s="80">
-        <v>80.010342370238789</v>
+      <c r="B16" s="100"/>
+      <c r="C16" s="100"/>
+      <c r="D16" s="100"/>
+      <c r="E16" s="101"/>
+      <c r="F16" s="100"/>
+      <c r="G16" s="100"/>
+      <c r="H16" s="100">
+        <v>2</v>
+      </c>
+      <c r="I16" s="101">
+        <v>6</v>
+      </c>
+      <c r="J16" s="101">
+        <v>9</v>
+      </c>
+      <c r="K16" s="101">
+        <v>12</v>
+      </c>
+      <c r="L16" s="102">
+        <v>16</v>
+      </c>
+      <c r="M16" s="103">
+        <v>20</v>
+      </c>
+      <c r="N16" s="103">
+        <v>24</v>
+      </c>
+      <c r="O16" s="103">
+        <v>32</v>
+      </c>
+      <c r="P16" s="103">
+        <v>36</v>
+      </c>
+      <c r="Q16" s="103">
+        <v>43</v>
+      </c>
+      <c r="R16" s="103">
+        <v>49</v>
+      </c>
+      <c r="S16" s="103">
+        <v>57</v>
+      </c>
+      <c r="T16" s="103">
+        <v>67</v>
+      </c>
+      <c r="U16" s="103">
+        <v>75</v>
+      </c>
+      <c r="V16" s="103">
+        <v>80</v>
       </c>
       <c r="W16" s="6">
         <v>14</v>
@@ -2582,66 +2551,54 @@
       <c r="A17" s="78">
         <v>2005</v>
       </c>
-      <c r="B17" s="78"/>
-      <c r="C17" s="79">
-        <v>0</v>
-      </c>
-      <c r="D17" s="80">
-        <v>0</v>
-      </c>
-      <c r="E17" s="79">
-        <v>0</v>
-      </c>
-      <c r="F17" s="79">
-        <v>0</v>
-      </c>
-      <c r="G17" s="79">
-        <v>0</v>
-      </c>
-      <c r="H17" s="79">
-        <v>0</v>
-      </c>
-      <c r="I17" s="80">
-        <v>3.0787942540720792</v>
-      </c>
-      <c r="J17" s="79">
-        <v>6.4895549457392772</v>
-      </c>
-      <c r="K17" s="79">
-        <v>9.7802831683461182</v>
-      </c>
-      <c r="L17" s="79">
-        <v>12.801874399073707</v>
-      </c>
-      <c r="M17" s="79">
-        <v>16.571305999478607</v>
-      </c>
-      <c r="N17" s="80">
-        <v>20.460858529576079</v>
-      </c>
-      <c r="O17" s="79">
-        <v>28.272094593447843</v>
-      </c>
-      <c r="P17" s="79">
-        <v>32.089534443416781</v>
-      </c>
-      <c r="Q17" s="80">
-        <v>39.382612365141043</v>
-      </c>
-      <c r="R17" s="79">
-        <v>45.81716742025371</v>
-      </c>
-      <c r="S17" s="80">
-        <v>54.105594944409084</v>
-      </c>
-      <c r="T17" s="80">
-        <v>64.746064104188989</v>
-      </c>
-      <c r="U17" s="80">
-        <v>72.471629552598429</v>
-      </c>
-      <c r="V17" s="80">
-        <v>78.284977355197668</v>
+      <c r="B17" s="100"/>
+      <c r="C17" s="100"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="100"/>
+      <c r="G17" s="100"/>
+      <c r="H17" s="100"/>
+      <c r="I17" s="101">
+        <v>3</v>
+      </c>
+      <c r="J17" s="101">
+        <v>6</v>
+      </c>
+      <c r="K17" s="101">
+        <v>10</v>
+      </c>
+      <c r="L17" s="102">
+        <v>13</v>
+      </c>
+      <c r="M17" s="103">
+        <v>17</v>
+      </c>
+      <c r="N17" s="103">
+        <v>20</v>
+      </c>
+      <c r="O17" s="103">
+        <v>28</v>
+      </c>
+      <c r="P17" s="103">
+        <v>32</v>
+      </c>
+      <c r="Q17" s="103">
+        <v>39</v>
+      </c>
+      <c r="R17" s="103">
+        <v>46</v>
+      </c>
+      <c r="S17" s="103">
+        <v>54</v>
+      </c>
+      <c r="T17" s="103">
+        <v>65</v>
+      </c>
+      <c r="U17" s="103">
+        <v>72</v>
+      </c>
+      <c r="V17" s="103">
+        <v>78</v>
       </c>
       <c r="W17" s="6">
         <v>15</v>
@@ -2651,66 +2608,54 @@
       <c r="A18" s="78">
         <v>2004</v>
       </c>
-      <c r="B18" s="78"/>
-      <c r="C18" s="79">
-        <v>0</v>
-      </c>
-      <c r="D18" s="80">
-        <v>0</v>
-      </c>
-      <c r="E18" s="79">
-        <v>0</v>
-      </c>
-      <c r="F18" s="79">
-        <v>0</v>
-      </c>
-      <c r="G18" s="79">
-        <v>0</v>
-      </c>
-      <c r="H18" s="79">
-        <v>0</v>
-      </c>
-      <c r="I18" s="80">
-        <v>0.9467896635108306</v>
-      </c>
-      <c r="J18" s="79">
-        <v>4.0503095477050861</v>
-      </c>
-      <c r="K18" s="79">
-        <v>7.4528410678868049</v>
-      </c>
-      <c r="L18" s="79">
-        <v>10.525261822821076</v>
-      </c>
-      <c r="M18" s="79">
-        <v>13.559500444440124</v>
-      </c>
-      <c r="N18" s="80">
-        <v>16.852867614657999</v>
-      </c>
-      <c r="O18" s="79">
-        <v>24.569635058848046</v>
-      </c>
-      <c r="P18" s="79">
-        <v>28.062059344992441</v>
-      </c>
-      <c r="Q18" s="80">
-        <v>35.576761184879018</v>
-      </c>
-      <c r="R18" s="79">
-        <v>42.054598778300992</v>
-      </c>
-      <c r="S18" s="80">
-        <v>50.83196403216985</v>
-      </c>
-      <c r="T18" s="80">
-        <v>62.044200261351115</v>
-      </c>
-      <c r="U18" s="80">
-        <v>70.307345993723231</v>
-      </c>
-      <c r="V18" s="80">
-        <v>76.560538005352825</v>
+      <c r="B18" s="100"/>
+      <c r="C18" s="100"/>
+      <c r="D18" s="100"/>
+      <c r="E18" s="101"/>
+      <c r="F18" s="100"/>
+      <c r="G18" s="100"/>
+      <c r="H18" s="100"/>
+      <c r="I18" s="101">
+        <v>1</v>
+      </c>
+      <c r="J18" s="101">
+        <v>4</v>
+      </c>
+      <c r="K18" s="101">
+        <v>7</v>
+      </c>
+      <c r="L18" s="102">
+        <v>11</v>
+      </c>
+      <c r="M18" s="103">
+        <v>14</v>
+      </c>
+      <c r="N18" s="103">
+        <v>17</v>
+      </c>
+      <c r="O18" s="103">
+        <v>25</v>
+      </c>
+      <c r="P18" s="103">
+        <v>28</v>
+      </c>
+      <c r="Q18" s="103">
+        <v>36</v>
+      </c>
+      <c r="R18" s="103">
+        <v>42</v>
+      </c>
+      <c r="S18" s="103">
+        <v>51</v>
+      </c>
+      <c r="T18" s="103">
+        <v>62</v>
+      </c>
+      <c r="U18" s="103">
+        <v>70</v>
+      </c>
+      <c r="V18" s="103">
+        <v>77</v>
       </c>
       <c r="W18" s="6">
         <v>16</v>
@@ -2720,66 +2665,52 @@
       <c r="A19" s="78">
         <v>2003</v>
       </c>
-      <c r="B19" s="78"/>
-      <c r="C19" s="79">
-        <v>0</v>
-      </c>
-      <c r="D19" s="80">
-        <v>0</v>
-      </c>
-      <c r="E19" s="79">
-        <v>0</v>
-      </c>
-      <c r="F19" s="79">
-        <v>0</v>
-      </c>
-      <c r="G19" s="79">
-        <v>0</v>
-      </c>
-      <c r="H19" s="79">
-        <v>0</v>
-      </c>
-      <c r="I19" s="80">
-        <v>0</v>
-      </c>
-      <c r="J19" s="79">
-        <v>1.8332553019889075</v>
-      </c>
-      <c r="K19" s="79">
-        <v>5.0722397406590298</v>
-      </c>
-      <c r="L19" s="79">
-        <v>8.0381791929563668</v>
-      </c>
-      <c r="M19" s="79">
-        <v>11.048299098615445</v>
-      </c>
-      <c r="N19" s="80">
-        <v>14.199075441226086</v>
-      </c>
-      <c r="O19" s="79">
-        <v>21.229071946723625</v>
-      </c>
-      <c r="P19" s="79">
-        <v>24.659338271654669</v>
-      </c>
-      <c r="Q19" s="80">
-        <v>31.943763080387281</v>
-      </c>
-      <c r="R19" s="79">
-        <v>38.596239790870399</v>
-      </c>
-      <c r="S19" s="80">
-        <v>47.576846421987355</v>
-      </c>
-      <c r="T19" s="80">
-        <v>59.30278327177313</v>
-      </c>
-      <c r="U19" s="80">
-        <v>68.130881816994858</v>
-      </c>
-      <c r="V19" s="80">
-        <v>74.762182341211954</v>
+      <c r="B19" s="100"/>
+      <c r="C19" s="100"/>
+      <c r="D19" s="100"/>
+      <c r="E19" s="101"/>
+      <c r="F19" s="100"/>
+      <c r="G19" s="100"/>
+      <c r="H19" s="100"/>
+      <c r="I19" s="101"/>
+      <c r="J19" s="101">
+        <v>2</v>
+      </c>
+      <c r="K19" s="101">
+        <v>5</v>
+      </c>
+      <c r="L19" s="102">
+        <v>8</v>
+      </c>
+      <c r="M19" s="103">
+        <v>11</v>
+      </c>
+      <c r="N19" s="103">
+        <v>14</v>
+      </c>
+      <c r="O19" s="103">
+        <v>21</v>
+      </c>
+      <c r="P19" s="103">
+        <v>25</v>
+      </c>
+      <c r="Q19" s="103">
+        <v>32</v>
+      </c>
+      <c r="R19" s="103">
+        <v>39</v>
+      </c>
+      <c r="S19" s="103">
+        <v>48</v>
+      </c>
+      <c r="T19" s="103">
+        <v>59</v>
+      </c>
+      <c r="U19" s="103">
+        <v>68</v>
+      </c>
+      <c r="V19" s="103">
+        <v>75</v>
       </c>
       <c r="W19" s="6">
         <v>17</v>
@@ -2789,64 +2720,50 @@
       <c r="A20" s="78">
         <v>2002</v>
       </c>
-      <c r="B20" s="78"/>
-      <c r="C20" s="79">
-        <v>0</v>
-      </c>
-      <c r="D20" s="80">
-        <v>0</v>
-      </c>
-      <c r="E20" s="79">
-        <v>0</v>
-      </c>
-      <c r="F20" s="79">
-        <v>0</v>
-      </c>
-      <c r="G20" s="79">
-        <v>0</v>
-      </c>
-      <c r="H20" s="79">
-        <v>0</v>
-      </c>
-      <c r="I20" s="80">
-        <v>0</v>
-      </c>
-      <c r="J20" s="79"/>
-      <c r="K20" s="79">
-        <v>3.2616109868110192</v>
-      </c>
-      <c r="L20" s="79">
-        <v>6.2043415669851703</v>
-      </c>
-      <c r="M20" s="79">
-        <v>8.9380466255872442</v>
-      </c>
-      <c r="N20" s="80">
-        <v>12.00605965878718</v>
-      </c>
-      <c r="O20" s="79">
-        <v>17.777329150473285</v>
-      </c>
-      <c r="P20" s="79">
-        <v>21.61686670381804</v>
-      </c>
-      <c r="Q20" s="80">
-        <v>28.518728251989316</v>
-      </c>
-      <c r="R20" s="79">
-        <v>34.985192588323478</v>
-      </c>
-      <c r="S20" s="80">
-        <v>44.3540799956846</v>
-      </c>
-      <c r="T20" s="80">
-        <v>56.678954205853415</v>
-      </c>
-      <c r="U20" s="80">
-        <v>65.921161528744875</v>
-      </c>
-      <c r="V20" s="80">
-        <v>72.983250703108325</v>
+      <c r="B20" s="100"/>
+      <c r="C20" s="100"/>
+      <c r="D20" s="100"/>
+      <c r="E20" s="101"/>
+      <c r="F20" s="100"/>
+      <c r="G20" s="100"/>
+      <c r="H20" s="100"/>
+      <c r="I20" s="101"/>
+      <c r="J20" s="101"/>
+      <c r="K20" s="101">
+        <v>3</v>
+      </c>
+      <c r="L20" s="102">
+        <v>6</v>
+      </c>
+      <c r="M20" s="103">
+        <v>9</v>
+      </c>
+      <c r="N20" s="103">
+        <v>12</v>
+      </c>
+      <c r="O20" s="103">
+        <v>18</v>
+      </c>
+      <c r="P20" s="103">
+        <v>22</v>
+      </c>
+      <c r="Q20" s="103">
+        <v>29</v>
+      </c>
+      <c r="R20" s="103">
+        <v>35</v>
+      </c>
+      <c r="S20" s="103">
+        <v>44</v>
+      </c>
+      <c r="T20" s="103">
+        <v>57</v>
+      </c>
+      <c r="U20" s="103">
+        <v>66</v>
+      </c>
+      <c r="V20" s="103">
+        <v>73</v>
       </c>
       <c r="W20" s="6">
         <v>18</v>
@@ -2856,66 +2773,50 @@
       <c r="A21" s="78">
         <v>2001</v>
       </c>
-      <c r="B21" s="78"/>
-      <c r="C21" s="79">
-        <v>0</v>
-      </c>
-      <c r="D21" s="80">
-        <v>0</v>
-      </c>
-      <c r="E21" s="79">
-        <v>0</v>
-      </c>
-      <c r="F21" s="79">
-        <v>0</v>
-      </c>
-      <c r="G21" s="79">
-        <v>0</v>
-      </c>
-      <c r="H21" s="79">
-        <v>0</v>
-      </c>
-      <c r="I21" s="80">
-        <v>0</v>
-      </c>
-      <c r="J21" s="79">
-        <v>0</v>
-      </c>
-      <c r="K21" s="79">
-        <v>1.1747351136204567</v>
-      </c>
-      <c r="L21" s="79">
-        <v>4.266025881949485</v>
-      </c>
-      <c r="M21" s="79">
-        <v>6.9912786426435378</v>
-      </c>
-      <c r="N21" s="80">
-        <v>9.609572041961318</v>
-      </c>
-      <c r="O21" s="79">
-        <v>15.1910501550066</v>
-      </c>
-      <c r="P21" s="79">
-        <v>18.452975204254965</v>
-      </c>
-      <c r="Q21" s="80">
-        <v>25.33035637900602</v>
-      </c>
-      <c r="R21" s="79">
-        <v>31.818328613239672</v>
-      </c>
-      <c r="S21" s="80">
-        <v>41.17918998078148</v>
-      </c>
-      <c r="T21" s="80">
-        <v>53.920460840093007</v>
-      </c>
-      <c r="U21" s="80">
-        <v>63.693438171674401</v>
-      </c>
-      <c r="V21" s="80">
-        <v>71.115654790438981</v>
+      <c r="B21" s="100"/>
+      <c r="C21" s="100"/>
+      <c r="D21" s="100"/>
+      <c r="E21" s="101"/>
+      <c r="F21" s="100"/>
+      <c r="G21" s="100"/>
+      <c r="H21" s="100"/>
+      <c r="I21" s="101"/>
+      <c r="J21" s="101"/>
+      <c r="K21" s="101">
+        <v>1</v>
+      </c>
+      <c r="L21" s="102">
+        <v>4</v>
+      </c>
+      <c r="M21" s="103">
+        <v>7</v>
+      </c>
+      <c r="N21" s="103">
+        <v>10</v>
+      </c>
+      <c r="O21" s="103">
+        <v>15</v>
+      </c>
+      <c r="P21" s="103">
+        <v>18</v>
+      </c>
+      <c r="Q21" s="103">
+        <v>25</v>
+      </c>
+      <c r="R21" s="103">
+        <v>32</v>
+      </c>
+      <c r="S21" s="103">
+        <v>41</v>
+      </c>
+      <c r="T21" s="103">
+        <v>54</v>
+      </c>
+      <c r="U21" s="103">
+        <v>64</v>
+      </c>
+      <c r="V21" s="103">
+        <v>71</v>
       </c>
       <c r="W21" s="6">
         <v>19</v>
@@ -2925,64 +2826,48 @@
       <c r="A22" s="78">
         <v>2000</v>
       </c>
-      <c r="B22" s="78"/>
-      <c r="C22" s="79">
-        <v>0</v>
-      </c>
-      <c r="D22" s="80">
-        <v>0</v>
-      </c>
-      <c r="E22" s="79">
-        <v>0</v>
-      </c>
-      <c r="F22" s="79">
-        <v>0</v>
-      </c>
-      <c r="G22" s="79">
-        <v>0</v>
-      </c>
-      <c r="H22" s="79">
-        <v>0</v>
-      </c>
-      <c r="I22" s="80">
-        <v>0</v>
-      </c>
-      <c r="J22" s="79"/>
-      <c r="K22" s="79">
-        <v>0</v>
-      </c>
-      <c r="L22" s="79">
-        <v>1.9395170749481347</v>
-      </c>
-      <c r="M22" s="79">
-        <v>4.901336258253691</v>
-      </c>
-      <c r="N22" s="80">
-        <v>8.0335350914510393</v>
-      </c>
-      <c r="O22" s="79">
-        <v>12.975206000279105</v>
-      </c>
-      <c r="P22" s="79">
-        <v>16.15760372635776</v>
-      </c>
-      <c r="Q22" s="80">
-        <v>22.399321076269729</v>
-      </c>
-      <c r="R22" s="79">
-        <v>28.457939524098503</v>
-      </c>
-      <c r="S22" s="80">
-        <v>38.069520985263026</v>
-      </c>
-      <c r="T22" s="80">
-        <v>51.132954519575726</v>
-      </c>
-      <c r="U22" s="80">
-        <v>61.450558109449169</v>
-      </c>
-      <c r="V22" s="80">
-        <v>69.289835964332809</v>
+      <c r="B22" s="100"/>
+      <c r="C22" s="100"/>
+      <c r="D22" s="100"/>
+      <c r="E22" s="101"/>
+      <c r="F22" s="100"/>
+      <c r="G22" s="100"/>
+      <c r="H22" s="100"/>
+      <c r="I22" s="101"/>
+      <c r="J22" s="101"/>
+      <c r="K22" s="101"/>
+      <c r="L22" s="102">
+        <v>2</v>
+      </c>
+      <c r="M22" s="103">
+        <v>5</v>
+      </c>
+      <c r="N22" s="103">
+        <v>8</v>
+      </c>
+      <c r="O22" s="103">
+        <v>13</v>
+      </c>
+      <c r="P22" s="103">
+        <v>16</v>
+      </c>
+      <c r="Q22" s="103">
+        <v>22</v>
+      </c>
+      <c r="R22" s="103">
+        <v>28</v>
+      </c>
+      <c r="S22" s="103">
+        <v>38</v>
+      </c>
+      <c r="T22" s="103">
+        <v>51</v>
+      </c>
+      <c r="U22" s="103">
+        <v>61</v>
+      </c>
+      <c r="V22" s="103">
+        <v>69</v>
       </c>
       <c r="W22" s="6">
         <v>20</v>
@@ -2992,64 +2877,46 @@
       <c r="A23" s="78">
         <v>1999</v>
       </c>
-      <c r="B23" s="78"/>
-      <c r="C23" s="79">
-        <v>0</v>
-      </c>
-      <c r="D23" s="80">
-        <v>0</v>
-      </c>
-      <c r="E23" s="79">
-        <v>0</v>
-      </c>
-      <c r="F23" s="79">
-        <v>0</v>
-      </c>
-      <c r="G23" s="79">
-        <v>0</v>
-      </c>
-      <c r="H23" s="79">
-        <v>0</v>
-      </c>
-      <c r="I23" s="80">
-        <v>0</v>
-      </c>
-      <c r="J23" s="79"/>
-      <c r="K23" s="79">
-        <v>0</v>
-      </c>
-      <c r="L23" s="79">
-        <v>0</v>
-      </c>
-      <c r="M23" s="79">
-        <v>3.4500976590844954</v>
-      </c>
-      <c r="N23" s="80">
-        <v>6.3725248373946828</v>
-      </c>
-      <c r="O23" s="79">
-        <v>11.094570437236914</v>
-      </c>
-      <c r="P23" s="79">
-        <v>13.596010782071311</v>
-      </c>
-      <c r="Q23" s="80">
-        <v>19.737746587798664</v>
-      </c>
-      <c r="R23" s="79">
-        <v>25.694524150230151</v>
-      </c>
-      <c r="S23" s="80">
-        <v>35.081964417444247</v>
-      </c>
-      <c r="T23" s="80">
-        <v>48.542242709445112</v>
-      </c>
-      <c r="U23" s="80">
-        <v>59.18044103358698</v>
-      </c>
-      <c r="V23" s="80">
-        <v>67.356744288866182</v>
+      <c r="B23" s="100"/>
+      <c r="C23" s="100"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="101"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="100"/>
+      <c r="I23" s="101"/>
+      <c r="J23" s="101"/>
+      <c r="K23" s="101"/>
+      <c r="L23" s="102"/>
+      <c r="M23" s="103">
+        <v>3</v>
+      </c>
+      <c r="N23" s="103">
+        <v>6</v>
+      </c>
+      <c r="O23" s="103">
+        <v>11</v>
+      </c>
+      <c r="P23" s="103">
+        <v>14</v>
+      </c>
+      <c r="Q23" s="103">
+        <v>20</v>
+      </c>
+      <c r="R23" s="103">
+        <v>26</v>
+      </c>
+      <c r="S23" s="103">
+        <v>35</v>
+      </c>
+      <c r="T23" s="103">
+        <v>49</v>
+      </c>
+      <c r="U23" s="103">
+        <v>59</v>
+      </c>
+      <c r="V23" s="103">
+        <v>67</v>
       </c>
       <c r="W23" s="6">
         <v>21</v>
@@ -3059,64 +2926,46 @@
       <c r="A24" s="78">
         <v>1998</v>
       </c>
-      <c r="B24" s="78"/>
-      <c r="C24" s="79">
-        <v>0</v>
-      </c>
-      <c r="D24" s="80">
-        <v>0</v>
-      </c>
-      <c r="E24" s="79">
-        <v>0</v>
-      </c>
-      <c r="F24" s="79">
-        <v>0</v>
-      </c>
-      <c r="G24" s="79">
-        <v>0</v>
-      </c>
-      <c r="H24" s="79">
-        <v>0</v>
-      </c>
-      <c r="I24" s="80">
-        <v>0</v>
-      </c>
-      <c r="J24" s="79"/>
-      <c r="K24" s="79">
-        <v>0</v>
-      </c>
-      <c r="L24" s="79">
-        <v>0</v>
-      </c>
-      <c r="M24" s="79">
-        <v>1.6302379454053046</v>
-      </c>
-      <c r="N24" s="80">
-        <v>4.0577783839402635</v>
-      </c>
-      <c r="O24" s="79">
-        <v>9.4669593320500702</v>
-      </c>
-      <c r="P24" s="79">
-        <v>11.960899245437689</v>
-      </c>
-      <c r="Q24" s="80">
-        <v>17.350051213569682</v>
-      </c>
-      <c r="R24" s="79">
-        <v>23.190193465337426</v>
-      </c>
-      <c r="S24" s="80">
-        <v>32.205806738455621</v>
-      </c>
-      <c r="T24" s="80">
-        <v>45.785101970581337</v>
-      </c>
-      <c r="U24" s="80">
-        <v>56.749642386756136</v>
-      </c>
-      <c r="V24" s="80">
-        <v>65.491323482780558</v>
+      <c r="B24" s="100"/>
+      <c r="C24" s="100"/>
+      <c r="D24" s="100"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="100"/>
+      <c r="G24" s="100"/>
+      <c r="H24" s="100"/>
+      <c r="I24" s="101"/>
+      <c r="J24" s="101"/>
+      <c r="K24" s="101"/>
+      <c r="L24" s="102"/>
+      <c r="M24" s="103">
+        <v>2</v>
+      </c>
+      <c r="N24" s="103">
+        <v>4</v>
+      </c>
+      <c r="O24" s="103">
+        <v>9</v>
+      </c>
+      <c r="P24" s="103">
+        <v>12</v>
+      </c>
+      <c r="Q24" s="103">
+        <v>17</v>
+      </c>
+      <c r="R24" s="103">
+        <v>23</v>
+      </c>
+      <c r="S24" s="103">
+        <v>32</v>
+      </c>
+      <c r="T24" s="103">
+        <v>46</v>
+      </c>
+      <c r="U24" s="103">
+        <v>57</v>
+      </c>
+      <c r="V24" s="103">
+        <v>65</v>
       </c>
       <c r="W24" s="6">
         <v>22</v>
@@ -3126,64 +2975,44 @@
       <c r="A25" s="78">
         <v>1997</v>
       </c>
-      <c r="B25" s="78"/>
-      <c r="C25" s="79">
-        <v>0</v>
-      </c>
-      <c r="D25" s="80">
-        <v>0</v>
-      </c>
-      <c r="E25" s="79">
-        <v>0</v>
-      </c>
-      <c r="F25" s="79">
-        <v>0</v>
-      </c>
-      <c r="G25" s="79">
-        <v>0</v>
-      </c>
-      <c r="H25" s="79">
-        <v>0</v>
-      </c>
-      <c r="I25" s="80">
-        <v>0</v>
-      </c>
-      <c r="J25" s="79"/>
-      <c r="K25" s="79">
-        <v>0</v>
-      </c>
-      <c r="L25" s="79">
-        <v>0</v>
-      </c>
-      <c r="M25" s="79">
-        <v>0</v>
-      </c>
-      <c r="N25" s="80">
-        <v>2.4919856881966811</v>
-      </c>
-      <c r="O25" s="79">
-        <v>7.9235207471035354</v>
-      </c>
-      <c r="P25" s="79">
-        <v>9.9010935411543635</v>
-      </c>
-      <c r="Q25" s="80">
-        <v>15.2330758850525</v>
-      </c>
-      <c r="R25" s="79">
-        <v>20.425205677105001</v>
-      </c>
-      <c r="S25" s="80">
-        <v>29.456540169597332</v>
-      </c>
-      <c r="T25" s="80">
-        <v>43.017720495153291</v>
-      </c>
-      <c r="U25" s="80">
-        <v>54.439146630985014</v>
-      </c>
-      <c r="V25" s="80">
-        <v>63.496295059982032</v>
+      <c r="B25" s="100"/>
+      <c r="C25" s="100"/>
+      <c r="D25" s="100"/>
+      <c r="E25" s="101"/>
+      <c r="F25" s="100"/>
+      <c r="G25" s="100"/>
+      <c r="H25" s="100"/>
+      <c r="I25" s="101"/>
+      <c r="J25" s="101"/>
+      <c r="K25" s="101"/>
+      <c r="L25" s="102"/>
+      <c r="M25" s="103"/>
+      <c r="N25" s="103">
+        <v>2</v>
+      </c>
+      <c r="O25" s="103">
+        <v>8</v>
+      </c>
+      <c r="P25" s="103">
+        <v>10</v>
+      </c>
+      <c r="Q25" s="103">
+        <v>15</v>
+      </c>
+      <c r="R25" s="103">
+        <v>20</v>
+      </c>
+      <c r="S25" s="103">
+        <v>29</v>
+      </c>
+      <c r="T25" s="103">
+        <v>43</v>
+      </c>
+      <c r="U25" s="103">
+        <v>54</v>
+      </c>
+      <c r="V25" s="103">
+        <v>63</v>
       </c>
       <c r="W25" s="6">
         <v>23</v>
@@ -3193,64 +3022,44 @@
       <c r="A26" s="78">
         <v>1996</v>
       </c>
-      <c r="B26" s="78"/>
-      <c r="C26" s="79">
-        <v>0</v>
-      </c>
-      <c r="D26" s="80">
-        <v>0</v>
-      </c>
-      <c r="E26" s="79">
-        <v>0</v>
-      </c>
-      <c r="F26" s="79">
-        <v>0</v>
-      </c>
-      <c r="G26" s="79">
-        <v>0</v>
-      </c>
-      <c r="H26" s="79">
-        <v>0</v>
-      </c>
-      <c r="I26" s="80">
-        <v>0</v>
-      </c>
-      <c r="J26" s="79"/>
-      <c r="K26" s="79">
-        <v>0</v>
-      </c>
-      <c r="L26" s="79">
-        <v>0</v>
-      </c>
-      <c r="M26" s="79">
-        <v>0</v>
-      </c>
-      <c r="N26" s="80">
-        <v>1.1002210648936919</v>
-      </c>
-      <c r="O26" s="79">
-        <v>6.2326949589327478</v>
-      </c>
-      <c r="P26" s="79">
-        <v>8.6353294843142425</v>
-      </c>
-      <c r="Q26" s="80">
-        <v>13.373645370241766</v>
-      </c>
-      <c r="R26" s="79">
-        <v>18.411408655083729</v>
-      </c>
-      <c r="S26" s="80">
-        <v>26.847641347838451</v>
-      </c>
-      <c r="T26" s="80">
-        <v>40.563872635424559</v>
-      </c>
-      <c r="U26" s="80">
-        <v>52.14854451582103</v>
-      </c>
-      <c r="V26" s="80">
-        <v>61.598064108650441</v>
+      <c r="B26" s="100"/>
+      <c r="C26" s="100"/>
+      <c r="D26" s="100"/>
+      <c r="E26" s="101"/>
+      <c r="F26" s="100"/>
+      <c r="G26" s="100"/>
+      <c r="H26" s="100"/>
+      <c r="I26" s="101"/>
+      <c r="J26" s="101"/>
+      <c r="K26" s="101"/>
+      <c r="L26" s="102"/>
+      <c r="M26" s="103"/>
+      <c r="N26" s="103">
+        <v>1</v>
+      </c>
+      <c r="O26" s="103">
+        <v>6</v>
+      </c>
+      <c r="P26" s="103">
+        <v>9</v>
+      </c>
+      <c r="Q26" s="103">
+        <v>13</v>
+      </c>
+      <c r="R26" s="103">
+        <v>18</v>
+      </c>
+      <c r="S26" s="103">
+        <v>27</v>
+      </c>
+      <c r="T26" s="103">
+        <v>41</v>
+      </c>
+      <c r="U26" s="103">
+        <v>52</v>
+      </c>
+      <c r="V26" s="103">
+        <v>62</v>
       </c>
       <c r="W26" s="6">
         <v>24</v>
@@ -3260,62 +3069,42 @@
       <c r="A27" s="78">
         <v>1995</v>
       </c>
-      <c r="B27" s="78"/>
-      <c r="C27" s="79">
-        <v>0</v>
-      </c>
-      <c r="D27" s="80">
-        <v>0</v>
-      </c>
-      <c r="E27" s="79">
-        <v>0</v>
-      </c>
-      <c r="F27" s="79">
-        <v>0</v>
-      </c>
-      <c r="G27" s="79">
-        <v>0</v>
-      </c>
-      <c r="H27" s="79">
-        <v>0</v>
-      </c>
-      <c r="I27" s="80">
-        <v>0</v>
-      </c>
-      <c r="J27" s="79"/>
-      <c r="K27" s="79">
-        <v>0</v>
-      </c>
-      <c r="L27" s="79">
-        <v>0</v>
-      </c>
-      <c r="M27" s="79">
-        <v>0</v>
-      </c>
-      <c r="N27" s="80"/>
-      <c r="O27" s="79">
-        <v>4.5457297916527537</v>
-      </c>
-      <c r="P27" s="79">
-        <v>6.6334333916534023</v>
-      </c>
-      <c r="Q27" s="80">
-        <v>11.739926788241144</v>
-      </c>
-      <c r="R27" s="79">
-        <v>16.032870840486403</v>
-      </c>
-      <c r="S27" s="80">
-        <v>24.390593914304127</v>
-      </c>
-      <c r="T27" s="80">
-        <v>37.905853046838487</v>
-      </c>
-      <c r="U27" s="80">
-        <v>49.845942290748205</v>
-      </c>
-      <c r="V27" s="80">
-        <v>59.546002651878858</v>
+      <c r="B27" s="100"/>
+      <c r="C27" s="100"/>
+      <c r="D27" s="100"/>
+      <c r="E27" s="101"/>
+      <c r="F27" s="100"/>
+      <c r="G27" s="100"/>
+      <c r="H27" s="100"/>
+      <c r="I27" s="101"/>
+      <c r="J27" s="101"/>
+      <c r="K27" s="101"/>
+      <c r="L27" s="102"/>
+      <c r="M27" s="103"/>
+      <c r="N27" s="103"/>
+      <c r="O27" s="103">
+        <v>5</v>
+      </c>
+      <c r="P27" s="103">
+        <v>7</v>
+      </c>
+      <c r="Q27" s="103">
+        <v>12</v>
+      </c>
+      <c r="R27" s="103">
+        <v>16</v>
+      </c>
+      <c r="S27" s="103">
+        <v>24</v>
+      </c>
+      <c r="T27" s="103">
+        <v>38</v>
+      </c>
+      <c r="U27" s="103">
+        <v>50</v>
+      </c>
+      <c r="V27" s="103">
+        <v>60</v>
       </c>
       <c r="W27" s="6">
         <v>25</v>
@@ -3325,64 +3114,42 @@
       <c r="A28" s="78">
         <v>1994</v>
       </c>
-      <c r="B28" s="78"/>
-      <c r="C28" s="79">
-        <v>0</v>
-      </c>
-      <c r="D28" s="80">
-        <v>0</v>
-      </c>
-      <c r="E28" s="79">
-        <v>0</v>
-      </c>
-      <c r="F28" s="79">
-        <v>0</v>
-      </c>
-      <c r="G28" s="79">
-        <v>0</v>
-      </c>
-      <c r="H28" s="79">
-        <v>0</v>
-      </c>
-      <c r="I28" s="80">
-        <v>0</v>
-      </c>
-      <c r="J28" s="79"/>
-      <c r="K28" s="79">
-        <v>0</v>
-      </c>
-      <c r="L28" s="79">
-        <v>0</v>
-      </c>
-      <c r="M28" s="79">
-        <v>0</v>
-      </c>
-      <c r="N28" s="80">
-        <v>0</v>
-      </c>
-      <c r="O28" s="79">
-        <v>2.3507104600615536</v>
-      </c>
-      <c r="P28" s="79">
-        <v>5.203688534034014</v>
-      </c>
-      <c r="Q28" s="80">
-        <v>10.26072199569052</v>
-      </c>
-      <c r="R28" s="79">
-        <v>14.503381219172876</v>
-      </c>
-      <c r="S28" s="80">
-        <v>22.141380060367382</v>
-      </c>
-      <c r="T28" s="80">
-        <v>35.261743139113186</v>
-      </c>
-      <c r="U28" s="80">
-        <v>47.558510945918648</v>
-      </c>
-      <c r="V28" s="80">
-        <v>57.623709158310575</v>
+      <c r="B28" s="100"/>
+      <c r="C28" s="100"/>
+      <c r="D28" s="100"/>
+      <c r="E28" s="101"/>
+      <c r="F28" s="100"/>
+      <c r="G28" s="100"/>
+      <c r="H28" s="100"/>
+      <c r="I28" s="101"/>
+      <c r="J28" s="101"/>
+      <c r="K28" s="101"/>
+      <c r="L28" s="102"/>
+      <c r="M28" s="103"/>
+      <c r="N28" s="106"/>
+      <c r="O28" s="103">
+        <v>2</v>
+      </c>
+      <c r="P28" s="105">
+        <v>5</v>
+      </c>
+      <c r="Q28" s="103">
+        <v>10</v>
+      </c>
+      <c r="R28" s="103">
+        <v>15</v>
+      </c>
+      <c r="S28" s="103">
+        <v>22</v>
+      </c>
+      <c r="T28" s="103">
+        <v>35</v>
+      </c>
+      <c r="U28" s="103">
+        <v>48</v>
+      </c>
+      <c r="V28" s="103">
+        <v>58</v>
       </c>
       <c r="W28" s="6">
         <v>26</v>
@@ -3392,64 +3159,42 @@
       <c r="A29" s="78">
         <v>1993</v>
       </c>
-      <c r="B29" s="78"/>
-      <c r="C29" s="79">
-        <v>0</v>
-      </c>
-      <c r="D29" s="80">
-        <v>0</v>
-      </c>
-      <c r="E29" s="79">
-        <v>0</v>
-      </c>
-      <c r="F29" s="79">
-        <v>0</v>
-      </c>
-      <c r="G29" s="79">
-        <v>0</v>
-      </c>
-      <c r="H29" s="79">
-        <v>0</v>
-      </c>
-      <c r="I29" s="80">
-        <v>0</v>
-      </c>
-      <c r="J29" s="79"/>
-      <c r="K29" s="79">
-        <v>0</v>
-      </c>
-      <c r="L29" s="79">
-        <v>0</v>
-      </c>
-      <c r="M29" s="79">
-        <v>0</v>
-      </c>
-      <c r="N29" s="80">
-        <v>0</v>
-      </c>
-      <c r="O29" s="79">
-        <v>0.91890473497202863</v>
-      </c>
-      <c r="P29" s="79">
-        <v>3.8436494635190139</v>
-      </c>
-      <c r="Q29" s="80">
-        <v>8.8019035646986641</v>
-      </c>
-      <c r="R29" s="79">
-        <v>12.488035360918175</v>
-      </c>
-      <c r="S29" s="80">
-        <v>20.057849629622329</v>
-      </c>
-      <c r="T29" s="80">
-        <v>33.081557379266002</v>
-      </c>
-      <c r="U29" s="80">
-        <v>45.29985319153716</v>
-      </c>
-      <c r="V29" s="80">
-        <v>55.523022119984169</v>
+      <c r="B29" s="100"/>
+      <c r="C29" s="100"/>
+      <c r="D29" s="100"/>
+      <c r="E29" s="101"/>
+      <c r="F29" s="100"/>
+      <c r="G29" s="100"/>
+      <c r="H29" s="100"/>
+      <c r="I29" s="101"/>
+      <c r="J29" s="101"/>
+      <c r="K29" s="101"/>
+      <c r="L29" s="102"/>
+      <c r="M29" s="103"/>
+      <c r="N29" s="103"/>
+      <c r="O29" s="103">
+        <v>1</v>
+      </c>
+      <c r="P29" s="105">
+        <v>4</v>
+      </c>
+      <c r="Q29" s="103">
+        <v>9</v>
+      </c>
+      <c r="R29" s="103">
+        <v>12</v>
+      </c>
+      <c r="S29" s="103">
+        <v>20</v>
+      </c>
+      <c r="T29" s="103">
+        <v>33</v>
+      </c>
+      <c r="U29" s="103">
+        <v>45</v>
+      </c>
+      <c r="V29" s="103">
+        <v>56</v>
       </c>
       <c r="W29" s="6">
         <v>27</v>
@@ -3459,64 +3204,40 @@
       <c r="A30" s="78">
         <v>1992</v>
       </c>
-      <c r="B30" s="78"/>
-      <c r="C30" s="79">
-        <v>0</v>
-      </c>
-      <c r="D30" s="80">
-        <v>0</v>
-      </c>
-      <c r="E30" s="79">
-        <v>0</v>
-      </c>
-      <c r="F30" s="79">
-        <v>0</v>
-      </c>
-      <c r="G30" s="79">
-        <v>0</v>
-      </c>
-      <c r="H30" s="79">
-        <v>0</v>
-      </c>
-      <c r="I30" s="80">
-        <v>0</v>
-      </c>
-      <c r="J30" s="79"/>
-      <c r="K30" s="79">
-        <v>0</v>
-      </c>
-      <c r="L30" s="79">
-        <v>0</v>
-      </c>
-      <c r="M30" s="79">
-        <v>0</v>
-      </c>
-      <c r="N30" s="80">
-        <v>0</v>
-      </c>
-      <c r="O30" s="79">
-        <v>0</v>
-      </c>
-      <c r="P30" s="79">
-        <v>1.9544772142318694</v>
-      </c>
-      <c r="Q30" s="80">
-        <v>7.2151537318018528</v>
-      </c>
-      <c r="R30" s="79">
-        <v>11.35131038504319</v>
-      </c>
-      <c r="S30" s="80">
-        <v>18.141213184480542</v>
-      </c>
-      <c r="T30" s="80">
-        <v>30.62959197232265</v>
-      </c>
-      <c r="U30" s="80">
-        <v>43.044094973180627</v>
-      </c>
-      <c r="V30" s="80">
-        <v>53.590775713436365</v>
+      <c r="B30" s="100"/>
+      <c r="C30" s="100"/>
+      <c r="D30" s="100"/>
+      <c r="E30" s="101"/>
+      <c r="F30" s="100"/>
+      <c r="G30" s="100"/>
+      <c r="H30" s="100"/>
+      <c r="I30" s="101"/>
+      <c r="J30" s="101"/>
+      <c r="K30" s="101"/>
+      <c r="L30" s="102"/>
+      <c r="M30" s="103"/>
+      <c r="N30" s="103"/>
+      <c r="O30" s="103"/>
+      <c r="P30" s="105">
+        <v>2</v>
+      </c>
+      <c r="Q30" s="103">
+        <v>7</v>
+      </c>
+      <c r="R30" s="103">
+        <v>11</v>
+      </c>
+      <c r="S30" s="103">
+        <v>18</v>
+      </c>
+      <c r="T30" s="103">
+        <v>31</v>
+      </c>
+      <c r="U30" s="103">
+        <v>43</v>
+      </c>
+      <c r="V30" s="103">
+        <v>54</v>
       </c>
       <c r="W30" s="6">
         <v>28</v>
@@ -3526,64 +3247,40 @@
       <c r="A31" s="78">
         <v>1991</v>
       </c>
-      <c r="B31" s="78"/>
-      <c r="C31" s="79">
-        <v>0</v>
-      </c>
-      <c r="D31" s="80">
-        <v>0</v>
-      </c>
-      <c r="E31" s="79">
-        <v>0</v>
-      </c>
-      <c r="F31" s="79">
-        <v>0</v>
-      </c>
-      <c r="G31" s="79">
-        <v>0</v>
-      </c>
-      <c r="H31" s="79">
-        <v>0</v>
-      </c>
-      <c r="I31" s="80">
-        <v>0</v>
-      </c>
-      <c r="J31" s="79"/>
-      <c r="K31" s="79">
-        <v>0</v>
-      </c>
-      <c r="L31" s="79">
-        <v>0</v>
-      </c>
-      <c r="M31" s="79">
-        <v>0</v>
-      </c>
-      <c r="N31" s="80">
-        <v>0</v>
-      </c>
-      <c r="O31" s="79">
-        <v>0</v>
-      </c>
-      <c r="P31" s="79">
-        <v>0.85475147767053505</v>
-      </c>
-      <c r="Q31" s="80">
-        <v>5.5860041467656822</v>
-      </c>
-      <c r="R31" s="79">
-        <v>9.5653819382327043</v>
-      </c>
-      <c r="S31" s="80">
-        <v>16.38994751675439</v>
-      </c>
-      <c r="T31" s="80">
-        <v>28.213239014052725</v>
-      </c>
-      <c r="U31" s="80">
-        <v>40.521801975074396</v>
-      </c>
-      <c r="V31" s="80">
-        <v>51.45457199598944</v>
+      <c r="B31" s="100"/>
+      <c r="C31" s="100"/>
+      <c r="D31" s="100"/>
+      <c r="E31" s="101"/>
+      <c r="F31" s="100"/>
+      <c r="G31" s="100"/>
+      <c r="H31" s="100"/>
+      <c r="I31" s="101"/>
+      <c r="J31" s="101"/>
+      <c r="K31" s="101"/>
+      <c r="L31" s="102"/>
+      <c r="M31" s="103"/>
+      <c r="N31" s="103"/>
+      <c r="O31" s="103"/>
+      <c r="P31" s="105">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="103">
+        <v>6</v>
+      </c>
+      <c r="R31" s="103">
+        <v>10</v>
+      </c>
+      <c r="S31" s="103">
+        <v>16</v>
+      </c>
+      <c r="T31" s="103">
+        <v>28</v>
+      </c>
+      <c r="U31" s="103">
+        <v>41</v>
+      </c>
+      <c r="V31" s="103">
+        <v>51</v>
       </c>
       <c r="W31" s="6">
         <v>29</v>
@@ -3593,64 +3290,38 @@
       <c r="A32" s="78">
         <v>1990</v>
       </c>
-      <c r="B32" s="78"/>
-      <c r="C32" s="79">
-        <v>0</v>
-      </c>
-      <c r="D32" s="80">
-        <v>0</v>
-      </c>
-      <c r="E32" s="79">
-        <v>0</v>
-      </c>
-      <c r="F32" s="79">
-        <v>0</v>
-      </c>
-      <c r="G32" s="79">
-        <v>0</v>
-      </c>
-      <c r="H32" s="79">
-        <v>0</v>
-      </c>
-      <c r="I32" s="80">
-        <v>0</v>
-      </c>
-      <c r="J32" s="79"/>
-      <c r="K32" s="79">
-        <v>0</v>
-      </c>
-      <c r="L32" s="79">
-        <v>0</v>
-      </c>
-      <c r="M32" s="79">
-        <v>0</v>
-      </c>
-      <c r="N32" s="80">
-        <v>0</v>
-      </c>
-      <c r="O32" s="79">
-        <v>0</v>
-      </c>
-      <c r="P32" s="79">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="80">
-        <v>4.0481958906706836</v>
-      </c>
-      <c r="R32" s="79">
-        <v>8.5052163108156282</v>
-      </c>
-      <c r="S32" s="80">
-        <v>14.799558655094014</v>
-      </c>
-      <c r="T32" s="80">
-        <v>26.421558858003401</v>
-      </c>
-      <c r="U32" s="80">
-        <v>38.317929999816165</v>
-      </c>
-      <c r="V32" s="80">
-        <v>49.533269817870298</v>
+      <c r="B32" s="100"/>
+      <c r="C32" s="100"/>
+      <c r="D32" s="100"/>
+      <c r="E32" s="101"/>
+      <c r="F32" s="100"/>
+      <c r="G32" s="100"/>
+      <c r="H32" s="100"/>
+      <c r="I32" s="101"/>
+      <c r="J32" s="101"/>
+      <c r="K32" s="101"/>
+      <c r="L32" s="102"/>
+      <c r="M32" s="103"/>
+      <c r="N32" s="103"/>
+      <c r="O32" s="103"/>
+      <c r="P32" s="105"/>
+      <c r="Q32" s="103">
+        <v>4</v>
+      </c>
+      <c r="R32" s="103">
+        <v>9</v>
+      </c>
+      <c r="S32" s="103">
+        <v>15</v>
+      </c>
+      <c r="T32" s="103">
+        <v>26</v>
+      </c>
+      <c r="U32" s="103">
+        <v>38</v>
+      </c>
+      <c r="V32" s="103">
+        <v>50</v>
       </c>
       <c r="W32" s="6">
         <v>30</v>
@@ -3660,64 +3331,38 @@
       <c r="A33" s="78">
         <v>1989</v>
       </c>
-      <c r="B33" s="78"/>
-      <c r="C33" s="79">
-        <v>0</v>
-      </c>
-      <c r="D33" s="80">
-        <v>0</v>
-      </c>
-      <c r="E33" s="79">
-        <v>0</v>
-      </c>
-      <c r="F33" s="79">
-        <v>0</v>
-      </c>
-      <c r="G33" s="79">
-        <v>0</v>
-      </c>
-      <c r="H33" s="79">
-        <v>0</v>
-      </c>
-      <c r="I33" s="80">
-        <v>0</v>
-      </c>
-      <c r="J33" s="79"/>
-      <c r="K33" s="79">
-        <v>0</v>
-      </c>
-      <c r="L33" s="79">
-        <v>0</v>
-      </c>
-      <c r="M33" s="79">
-        <v>0</v>
-      </c>
-      <c r="N33" s="80">
-        <v>0</v>
-      </c>
-      <c r="O33" s="79">
-        <v>0</v>
-      </c>
-      <c r="P33" s="79">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="80">
-        <v>2.6028709941595394</v>
-      </c>
-      <c r="R33" s="79">
-        <v>6.6240761071842407</v>
-      </c>
-      <c r="S33" s="80">
-        <v>13.389207130546357</v>
-      </c>
-      <c r="T33" s="80">
-        <v>24.254812069249589</v>
-      </c>
-      <c r="U33" s="80">
-        <v>36.22482763022348</v>
-      </c>
-      <c r="V33" s="80">
-        <v>47.379081690756927</v>
+      <c r="B33" s="100"/>
+      <c r="C33" s="100"/>
+      <c r="D33" s="100"/>
+      <c r="E33" s="101"/>
+      <c r="F33" s="100"/>
+      <c r="G33" s="100"/>
+      <c r="H33" s="100"/>
+      <c r="I33" s="101"/>
+      <c r="J33" s="101"/>
+      <c r="K33" s="101"/>
+      <c r="L33" s="102"/>
+      <c r="M33" s="103"/>
+      <c r="N33" s="103"/>
+      <c r="O33" s="103"/>
+      <c r="P33" s="103"/>
+      <c r="Q33" s="103">
+        <v>3</v>
+      </c>
+      <c r="R33" s="103">
+        <v>7</v>
+      </c>
+      <c r="S33" s="103">
+        <v>13</v>
+      </c>
+      <c r="T33" s="103">
+        <v>24</v>
+      </c>
+      <c r="U33" s="103">
+        <v>36</v>
+      </c>
+      <c r="V33" s="103">
+        <v>47</v>
       </c>
       <c r="W33" s="6">
         <v>31</v>
@@ -3727,64 +3372,38 @@
       <c r="A34" s="78">
         <v>1988</v>
       </c>
-      <c r="B34" s="78"/>
-      <c r="C34" s="79">
-        <v>0</v>
-      </c>
-      <c r="D34" s="80">
-        <v>0</v>
-      </c>
-      <c r="E34" s="79">
-        <v>0</v>
-      </c>
-      <c r="F34" s="79">
-        <v>0</v>
-      </c>
-      <c r="G34" s="79">
-        <v>0</v>
-      </c>
-      <c r="H34" s="79">
-        <v>0</v>
-      </c>
-      <c r="I34" s="80">
-        <v>0</v>
-      </c>
-      <c r="J34" s="79"/>
-      <c r="K34" s="79">
-        <v>0</v>
-      </c>
-      <c r="L34" s="79">
-        <v>0</v>
-      </c>
-      <c r="M34" s="79">
-        <v>0</v>
-      </c>
-      <c r="N34" s="80">
-        <v>0</v>
-      </c>
-      <c r="O34" s="79">
-        <v>0</v>
-      </c>
-      <c r="P34" s="79">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="80">
-        <v>1.2658277414948422</v>
-      </c>
-      <c r="R34" s="79">
-        <v>5.3977205332494202</v>
-      </c>
-      <c r="S34" s="80">
-        <v>12.075526754667857</v>
-      </c>
-      <c r="T34" s="80">
-        <v>22.137924716140965</v>
-      </c>
-      <c r="U34" s="80">
-        <v>34.164787857092804</v>
-      </c>
-      <c r="V34" s="80">
-        <v>45.49563989975821</v>
+      <c r="B34" s="100"/>
+      <c r="C34" s="100"/>
+      <c r="D34" s="100"/>
+      <c r="E34" s="101"/>
+      <c r="F34" s="100"/>
+      <c r="G34" s="100"/>
+      <c r="H34" s="100"/>
+      <c r="I34" s="101"/>
+      <c r="J34" s="101"/>
+      <c r="K34" s="101"/>
+      <c r="L34" s="102"/>
+      <c r="M34" s="103"/>
+      <c r="N34" s="103"/>
+      <c r="O34" s="103"/>
+      <c r="P34" s="103"/>
+      <c r="Q34" s="103">
+        <v>1</v>
+      </c>
+      <c r="R34" s="103">
+        <v>5</v>
+      </c>
+      <c r="S34" s="103">
+        <v>12</v>
+      </c>
+      <c r="T34" s="103">
+        <v>22</v>
+      </c>
+      <c r="U34" s="103">
+        <v>34</v>
+      </c>
+      <c r="V34" s="103">
+        <v>45</v>
       </c>
       <c r="W34" s="6">
         <v>32</v>
@@ -3794,64 +3413,36 @@
       <c r="A35" s="78">
         <v>1987</v>
       </c>
-      <c r="B35" s="78"/>
-      <c r="C35" s="79">
-        <v>0</v>
-      </c>
-      <c r="D35" s="80">
-        <v>0</v>
-      </c>
-      <c r="E35" s="79">
-        <v>0</v>
-      </c>
-      <c r="F35" s="79">
-        <v>0</v>
-      </c>
-      <c r="G35" s="79">
-        <v>0</v>
-      </c>
-      <c r="H35" s="79">
-        <v>0</v>
-      </c>
-      <c r="I35" s="80">
-        <v>0</v>
-      </c>
-      <c r="J35" s="79"/>
-      <c r="K35" s="79">
-        <v>0</v>
-      </c>
-      <c r="L35" s="79">
-        <v>0</v>
-      </c>
-      <c r="M35" s="79">
-        <v>0</v>
-      </c>
-      <c r="N35" s="80">
-        <v>0</v>
-      </c>
-      <c r="O35" s="79">
-        <v>0</v>
-      </c>
-      <c r="P35" s="79">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="80">
-        <v>0</v>
-      </c>
-      <c r="R35" s="79">
-        <v>4.2577113595900729</v>
-      </c>
-      <c r="S35" s="80">
-        <v>10.799419225562747</v>
-      </c>
-      <c r="T35" s="80">
-        <v>20.795975897691918</v>
-      </c>
-      <c r="U35" s="80">
-        <v>32.190348870382913</v>
-      </c>
-      <c r="V35" s="80">
-        <v>43.344048767199219</v>
+      <c r="B35" s="100"/>
+      <c r="C35" s="100"/>
+      <c r="D35" s="100"/>
+      <c r="E35" s="101"/>
+      <c r="F35" s="100"/>
+      <c r="G35" s="100"/>
+      <c r="H35" s="100"/>
+      <c r="I35" s="101"/>
+      <c r="J35" s="101"/>
+      <c r="K35" s="101"/>
+      <c r="L35" s="102"/>
+      <c r="M35" s="103"/>
+      <c r="N35" s="103"/>
+      <c r="O35" s="103"/>
+      <c r="P35" s="103"/>
+      <c r="Q35" s="103"/>
+      <c r="R35" s="103">
+        <v>4</v>
+      </c>
+      <c r="S35" s="103">
+        <v>11</v>
+      </c>
+      <c r="T35" s="103">
+        <v>21</v>
+      </c>
+      <c r="U35" s="103">
+        <v>32</v>
+      </c>
+      <c r="V35" s="103">
+        <v>43</v>
       </c>
       <c r="W35" s="6">
         <v>33</v>
@@ -3861,64 +3452,36 @@
       <c r="A36" s="78">
         <v>1986</v>
       </c>
-      <c r="B36" s="78"/>
-      <c r="C36" s="79">
-        <v>0</v>
-      </c>
-      <c r="D36" s="80">
-        <v>0</v>
-      </c>
-      <c r="E36" s="79">
-        <v>0</v>
-      </c>
-      <c r="F36" s="79">
-        <v>0</v>
-      </c>
-      <c r="G36" s="79">
-        <v>0</v>
-      </c>
-      <c r="H36" s="79">
-        <v>0</v>
-      </c>
-      <c r="I36" s="80">
-        <v>0</v>
-      </c>
-      <c r="J36" s="79"/>
-      <c r="K36" s="79">
-        <v>0</v>
-      </c>
-      <c r="L36" s="79">
-        <v>0</v>
-      </c>
-      <c r="M36" s="79">
-        <v>0</v>
-      </c>
-      <c r="N36" s="80">
-        <v>0</v>
-      </c>
-      <c r="O36" s="79">
-        <v>0</v>
-      </c>
-      <c r="P36" s="79">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="80">
-        <v>0</v>
-      </c>
-      <c r="R36" s="79">
-        <v>2.4836915104089172</v>
-      </c>
-      <c r="S36" s="80">
-        <v>9.4978767711823071</v>
-      </c>
-      <c r="T36" s="80">
-        <v>18.952718811126992</v>
-      </c>
-      <c r="U36" s="80">
-        <v>30.310876009364446</v>
-      </c>
-      <c r="V36" s="80">
-        <v>41.528738442492077</v>
+      <c r="B36" s="100"/>
+      <c r="C36" s="100"/>
+      <c r="D36" s="100"/>
+      <c r="E36" s="101"/>
+      <c r="F36" s="100"/>
+      <c r="G36" s="100"/>
+      <c r="H36" s="100"/>
+      <c r="I36" s="101"/>
+      <c r="J36" s="101"/>
+      <c r="K36" s="101"/>
+      <c r="L36" s="102"/>
+      <c r="M36" s="103"/>
+      <c r="N36" s="103"/>
+      <c r="O36" s="103"/>
+      <c r="P36" s="103"/>
+      <c r="Q36" s="103"/>
+      <c r="R36" s="103">
+        <v>2</v>
+      </c>
+      <c r="S36" s="103">
+        <v>9</v>
+      </c>
+      <c r="T36" s="103">
+        <v>19</v>
+      </c>
+      <c r="U36" s="103">
+        <v>30</v>
+      </c>
+      <c r="V36" s="103">
+        <v>42</v>
       </c>
       <c r="W36" s="6">
         <v>34</v>
@@ -3928,64 +3491,36 @@
       <c r="A37" s="78">
         <v>1985</v>
       </c>
-      <c r="B37" s="78"/>
-      <c r="C37" s="79">
-        <v>0</v>
-      </c>
-      <c r="D37" s="80">
-        <v>0</v>
-      </c>
-      <c r="E37" s="79">
-        <v>0</v>
-      </c>
-      <c r="F37" s="79">
-        <v>0</v>
-      </c>
-      <c r="G37" s="79">
-        <v>0</v>
-      </c>
-      <c r="H37" s="79">
-        <v>0</v>
-      </c>
-      <c r="I37" s="80">
-        <v>0</v>
-      </c>
-      <c r="J37" s="79"/>
-      <c r="K37" s="79">
-        <v>0</v>
-      </c>
-      <c r="L37" s="79">
-        <v>0</v>
-      </c>
-      <c r="M37" s="79">
-        <v>0</v>
-      </c>
-      <c r="N37" s="80">
-        <v>0</v>
-      </c>
-      <c r="O37" s="79">
-        <v>0</v>
-      </c>
-      <c r="P37" s="79">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="80">
-        <v>0</v>
-      </c>
-      <c r="R37" s="79">
-        <v>1.5218665988104463</v>
-      </c>
-      <c r="S37" s="80">
-        <v>8.103952659292613</v>
-      </c>
-      <c r="T37" s="80">
-        <v>17.164244149798787</v>
-      </c>
-      <c r="U37" s="80">
-        <v>28.479065584338137</v>
-      </c>
-      <c r="V37" s="80">
-        <v>39.401363966996172</v>
+      <c r="B37" s="100"/>
+      <c r="C37" s="100"/>
+      <c r="D37" s="100"/>
+      <c r="E37" s="101"/>
+      <c r="F37" s="100"/>
+      <c r="G37" s="100"/>
+      <c r="H37" s="100"/>
+      <c r="I37" s="101"/>
+      <c r="J37" s="101"/>
+      <c r="K37" s="101"/>
+      <c r="L37" s="102"/>
+      <c r="M37" s="103"/>
+      <c r="N37" s="103"/>
+      <c r="O37" s="103"/>
+      <c r="P37" s="103"/>
+      <c r="Q37" s="103"/>
+      <c r="R37" s="103">
+        <v>2</v>
+      </c>
+      <c r="S37" s="103">
+        <v>8</v>
+      </c>
+      <c r="T37" s="103">
+        <v>17</v>
+      </c>
+      <c r="U37" s="103">
+        <v>28</v>
+      </c>
+      <c r="V37" s="103">
+        <v>39</v>
       </c>
       <c r="W37" s="6">
         <v>35</v>
@@ -3995,64 +3530,34 @@
       <c r="A38" s="78">
         <v>1984</v>
       </c>
-      <c r="B38" s="78"/>
-      <c r="C38" s="79">
-        <v>0</v>
-      </c>
-      <c r="D38" s="80">
-        <v>0</v>
-      </c>
-      <c r="E38" s="79">
-        <v>0</v>
-      </c>
-      <c r="F38" s="79">
-        <v>0</v>
-      </c>
-      <c r="G38" s="79">
-        <v>0</v>
-      </c>
-      <c r="H38" s="79">
-        <v>0</v>
-      </c>
-      <c r="I38" s="80">
-        <v>0</v>
-      </c>
-      <c r="J38" s="79"/>
-      <c r="K38" s="79">
-        <v>0</v>
-      </c>
-      <c r="L38" s="79">
-        <v>0</v>
-      </c>
-      <c r="M38" s="79">
-        <v>0</v>
-      </c>
-      <c r="N38" s="80">
-        <v>0</v>
-      </c>
-      <c r="O38" s="79">
-        <v>0</v>
-      </c>
-      <c r="P38" s="79">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="80">
-        <v>0</v>
-      </c>
-      <c r="R38" s="79">
-        <v>0</v>
-      </c>
-      <c r="S38" s="80">
-        <v>6.6567633584948602</v>
-      </c>
-      <c r="T38" s="80">
-        <v>16.27414414770859</v>
-      </c>
-      <c r="U38" s="80">
-        <v>26.170756711202419</v>
-      </c>
-      <c r="V38" s="80">
-        <v>37.684582793154377</v>
+      <c r="B38" s="100"/>
+      <c r="C38" s="100"/>
+      <c r="D38" s="100"/>
+      <c r="E38" s="101"/>
+      <c r="F38" s="100"/>
+      <c r="G38" s="100"/>
+      <c r="H38" s="100"/>
+      <c r="I38" s="101"/>
+      <c r="J38" s="101"/>
+      <c r="K38" s="101"/>
+      <c r="L38" s="102"/>
+      <c r="M38" s="103"/>
+      <c r="N38" s="103"/>
+      <c r="O38" s="103"/>
+      <c r="P38" s="103"/>
+      <c r="Q38" s="103"/>
+      <c r="R38" s="103"/>
+      <c r="S38" s="103">
+        <v>7</v>
+      </c>
+      <c r="T38" s="103">
+        <v>16</v>
+      </c>
+      <c r="U38" s="103">
+        <v>26</v>
+      </c>
+      <c r="V38" s="103">
+        <v>38</v>
       </c>
       <c r="W38" s="6">
         <v>36</v>
@@ -4062,64 +3567,34 @@
       <c r="A39" s="78">
         <v>1983</v>
       </c>
-      <c r="B39" s="78"/>
-      <c r="C39" s="79">
-        <v>0</v>
-      </c>
-      <c r="D39" s="80">
-        <v>0</v>
-      </c>
-      <c r="E39" s="79">
-        <v>0</v>
-      </c>
-      <c r="F39" s="79">
-        <v>0</v>
-      </c>
-      <c r="G39" s="79">
-        <v>0</v>
-      </c>
-      <c r="H39" s="79">
-        <v>0</v>
-      </c>
-      <c r="I39" s="80">
-        <v>0</v>
-      </c>
-      <c r="J39" s="79"/>
-      <c r="K39" s="79">
-        <v>0</v>
-      </c>
-      <c r="L39" s="79">
-        <v>0</v>
-      </c>
-      <c r="M39" s="79">
-        <v>0</v>
-      </c>
-      <c r="N39" s="80">
-        <v>0</v>
-      </c>
-      <c r="O39" s="79">
-        <v>0</v>
-      </c>
-      <c r="P39" s="79">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="80">
-        <v>0</v>
-      </c>
-      <c r="R39" s="79">
-        <v>0</v>
-      </c>
-      <c r="S39" s="80">
-        <v>5.2645107334699723</v>
-      </c>
-      <c r="T39" s="80">
-        <v>14.735281854212035</v>
-      </c>
-      <c r="U39" s="80">
-        <v>24.488223129766151</v>
-      </c>
-      <c r="V39" s="80">
-        <v>35.602099755259154</v>
+      <c r="B39" s="100"/>
+      <c r="C39" s="100"/>
+      <c r="D39" s="100"/>
+      <c r="E39" s="101"/>
+      <c r="F39" s="100"/>
+      <c r="G39" s="100"/>
+      <c r="H39" s="100"/>
+      <c r="I39" s="101"/>
+      <c r="J39" s="101"/>
+      <c r="K39" s="101"/>
+      <c r="L39" s="102"/>
+      <c r="M39" s="103"/>
+      <c r="N39" s="103"/>
+      <c r="O39" s="103"/>
+      <c r="P39" s="103"/>
+      <c r="Q39" s="103"/>
+      <c r="R39" s="103"/>
+      <c r="S39" s="103">
+        <v>5</v>
+      </c>
+      <c r="T39" s="103">
+        <v>15</v>
+      </c>
+      <c r="U39" s="103">
+        <v>24</v>
+      </c>
+      <c r="V39" s="103">
+        <v>36</v>
       </c>
       <c r="W39" s="6">
         <v>37</v>
@@ -4129,64 +3604,34 @@
       <c r="A40" s="78">
         <v>1982</v>
       </c>
-      <c r="B40" s="78"/>
-      <c r="C40" s="79">
-        <v>0</v>
-      </c>
-      <c r="D40" s="80">
-        <v>0</v>
-      </c>
-      <c r="E40" s="79">
-        <v>0</v>
-      </c>
-      <c r="F40" s="79">
-        <v>0</v>
-      </c>
-      <c r="G40" s="79">
-        <v>0</v>
-      </c>
-      <c r="H40" s="79">
-        <v>0</v>
-      </c>
-      <c r="I40" s="80">
-        <v>0</v>
-      </c>
-      <c r="J40" s="79"/>
-      <c r="K40" s="79">
-        <v>0</v>
-      </c>
-      <c r="L40" s="79">
-        <v>0</v>
-      </c>
-      <c r="M40" s="79">
-        <v>0</v>
-      </c>
-      <c r="N40" s="80">
-        <v>0</v>
-      </c>
-      <c r="O40" s="79">
-        <v>0</v>
-      </c>
-      <c r="P40" s="79">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="80">
-        <v>0</v>
-      </c>
-      <c r="R40" s="79">
-        <v>0</v>
-      </c>
-      <c r="S40" s="80">
-        <v>3.9279938417063778</v>
-      </c>
-      <c r="T40" s="80">
-        <v>13.231965078922689</v>
-      </c>
-      <c r="U40" s="80">
-        <v>22.974194785611825</v>
-      </c>
-      <c r="V40" s="80">
-        <v>34.011383128470435</v>
+      <c r="B40" s="100"/>
+      <c r="C40" s="100"/>
+      <c r="D40" s="100"/>
+      <c r="E40" s="101"/>
+      <c r="F40" s="100"/>
+      <c r="G40" s="100"/>
+      <c r="H40" s="100"/>
+      <c r="I40" s="101"/>
+      <c r="J40" s="101"/>
+      <c r="K40" s="101"/>
+      <c r="L40" s="102"/>
+      <c r="M40" s="103"/>
+      <c r="N40" s="103"/>
+      <c r="O40" s="103"/>
+      <c r="P40" s="103"/>
+      <c r="Q40" s="103"/>
+      <c r="R40" s="103"/>
+      <c r="S40" s="103">
+        <v>4</v>
+      </c>
+      <c r="T40" s="103">
+        <v>13</v>
+      </c>
+      <c r="U40" s="103">
+        <v>23</v>
+      </c>
+      <c r="V40" s="103">
+        <v>34</v>
       </c>
       <c r="W40" s="6">
         <v>38</v>
@@ -4196,64 +3641,34 @@
       <c r="A41" s="78">
         <v>1981</v>
       </c>
-      <c r="B41" s="78"/>
-      <c r="C41" s="79">
-        <v>0</v>
-      </c>
-      <c r="D41" s="80">
-        <v>0</v>
-      </c>
-      <c r="E41" s="79">
-        <v>0</v>
-      </c>
-      <c r="F41" s="79">
-        <v>0</v>
-      </c>
-      <c r="G41" s="79">
-        <v>0</v>
-      </c>
-      <c r="H41" s="79">
-        <v>0</v>
-      </c>
-      <c r="I41" s="80">
-        <v>0</v>
-      </c>
-      <c r="J41" s="79"/>
-      <c r="K41" s="79">
-        <v>0</v>
-      </c>
-      <c r="L41" s="79">
-        <v>0</v>
-      </c>
-      <c r="M41" s="79">
-        <v>0</v>
-      </c>
-      <c r="N41" s="80">
-        <v>0</v>
-      </c>
-      <c r="O41" s="79">
-        <v>0</v>
-      </c>
-      <c r="P41" s="79">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="80">
-        <v>0</v>
-      </c>
-      <c r="R41" s="79">
-        <v>0</v>
-      </c>
-      <c r="S41" s="80">
-        <v>2.6514991474350587</v>
-      </c>
-      <c r="T41" s="80">
-        <v>12.665438061944709</v>
-      </c>
-      <c r="U41" s="80">
-        <v>21.519451315836839</v>
-      </c>
-      <c r="V41" s="80">
-        <v>31.992125575122039</v>
+      <c r="B41" s="100"/>
+      <c r="C41" s="100"/>
+      <c r="D41" s="100"/>
+      <c r="E41" s="101"/>
+      <c r="F41" s="100"/>
+      <c r="G41" s="100"/>
+      <c r="H41" s="100"/>
+      <c r="I41" s="101"/>
+      <c r="J41" s="101"/>
+      <c r="K41" s="101"/>
+      <c r="L41" s="102"/>
+      <c r="M41" s="103"/>
+      <c r="N41" s="103"/>
+      <c r="O41" s="103"/>
+      <c r="P41" s="103"/>
+      <c r="Q41" s="103"/>
+      <c r="R41" s="103"/>
+      <c r="S41" s="103">
+        <v>3</v>
+      </c>
+      <c r="T41" s="103">
+        <v>13</v>
+      </c>
+      <c r="U41" s="103">
+        <v>22</v>
+      </c>
+      <c r="V41" s="103">
+        <v>32</v>
       </c>
       <c r="W41" s="6">
         <v>39</v>
@@ -4263,64 +3678,34 @@
       <c r="A42" s="78">
         <v>1980</v>
       </c>
-      <c r="B42" s="78"/>
-      <c r="C42" s="79">
-        <v>0</v>
-      </c>
-      <c r="D42" s="80">
-        <v>0</v>
-      </c>
-      <c r="E42" s="79">
-        <v>0</v>
-      </c>
-      <c r="F42" s="79">
-        <v>0</v>
-      </c>
-      <c r="G42" s="79">
-        <v>0</v>
-      </c>
-      <c r="H42" s="79">
-        <v>0</v>
-      </c>
-      <c r="I42" s="80">
-        <v>0</v>
-      </c>
-      <c r="J42" s="79"/>
-      <c r="K42" s="79">
-        <v>0</v>
-      </c>
-      <c r="L42" s="79">
-        <v>0</v>
-      </c>
-      <c r="M42" s="79">
-        <v>0</v>
-      </c>
-      <c r="N42" s="80">
-        <v>0</v>
-      </c>
-      <c r="O42" s="79">
-        <v>0</v>
-      </c>
-      <c r="P42" s="79">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="80">
-        <v>0</v>
-      </c>
-      <c r="R42" s="79">
-        <v>0</v>
-      </c>
-      <c r="S42" s="80">
-        <v>1.442627803758215</v>
-      </c>
-      <c r="T42" s="80">
-        <v>11.222899636161136</v>
-      </c>
-      <c r="U42" s="80">
-        <v>20.180767908949974</v>
-      </c>
-      <c r="V42" s="80">
-        <v>30.550233983267077</v>
+      <c r="B42" s="100"/>
+      <c r="C42" s="100"/>
+      <c r="D42" s="100"/>
+      <c r="E42" s="101"/>
+      <c r="F42" s="100"/>
+      <c r="G42" s="100"/>
+      <c r="H42" s="100"/>
+      <c r="I42" s="101"/>
+      <c r="J42" s="101"/>
+      <c r="K42" s="101"/>
+      <c r="L42" s="102"/>
+      <c r="M42" s="103"/>
+      <c r="N42" s="103"/>
+      <c r="O42" s="103"/>
+      <c r="P42" s="103"/>
+      <c r="Q42" s="103"/>
+      <c r="R42" s="103"/>
+      <c r="S42" s="103">
+        <v>1</v>
+      </c>
+      <c r="T42" s="103">
+        <v>11</v>
+      </c>
+      <c r="U42" s="103">
+        <v>20</v>
+      </c>
+      <c r="V42" s="103">
+        <v>31</v>
       </c>
       <c r="W42" s="6">
         <v>40</v>
@@ -4404,16 +3789,16 @@
   <sheetData>
     <row r="2" spans="1:14">
       <c r="A2" s="17"/>
-      <c r="B2" s="99" t="s">
+      <c r="B2" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="99" t="s">
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
       <c r="H2" s="17"/>
       <c r="I2" s="21"/>
       <c r="J2" s="21"/>
@@ -4432,7 +3817,7 @@
       <c r="C3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="89" t="s">
+      <c r="D3" s="87" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="16" t="s">
@@ -4458,22 +3843,22 @@
       <c r="A4" s="50">
         <v>2019</v>
       </c>
-      <c r="B4" s="86">
+      <c r="B4" s="84">
         <v>78</v>
       </c>
-      <c r="C4" s="86">
+      <c r="C4" s="84">
         <v>92</v>
       </c>
-      <c r="D4" s="90">
+      <c r="D4" s="88">
         <v>85</v>
       </c>
-      <c r="E4" s="86">
+      <c r="E4" s="84">
         <v>74</v>
       </c>
-      <c r="F4" s="86">
+      <c r="F4" s="84">
         <v>90</v>
       </c>
-      <c r="G4" s="86">
+      <c r="G4" s="84">
         <v>82</v>
       </c>
       <c r="H4" s="49">
@@ -4484,22 +3869,22 @@
       <c r="A5" s="51">
         <v>2018</v>
       </c>
-      <c r="B5" s="86">
+      <c r="B5" s="84">
         <v>70</v>
       </c>
-      <c r="C5" s="86">
+      <c r="C5" s="84">
         <v>82</v>
       </c>
-      <c r="D5" s="90">
+      <c r="D5" s="88">
         <v>76</v>
       </c>
-      <c r="E5" s="86">
+      <c r="E5" s="84">
         <v>64</v>
       </c>
-      <c r="F5" s="86">
+      <c r="F5" s="84">
         <v>78</v>
       </c>
-      <c r="G5" s="86">
+      <c r="G5" s="84">
         <v>71</v>
       </c>
       <c r="H5" s="49">
@@ -4516,22 +3901,22 @@
       <c r="A6" s="50">
         <v>2017</v>
       </c>
-      <c r="B6" s="86">
+      <c r="B6" s="84">
         <v>64</v>
       </c>
-      <c r="C6" s="86">
+      <c r="C6" s="84">
         <v>75</v>
       </c>
-      <c r="D6" s="90">
+      <c r="D6" s="88">
         <v>70</v>
       </c>
-      <c r="E6" s="86">
+      <c r="E6" s="84">
         <v>57</v>
       </c>
-      <c r="F6" s="86">
+      <c r="F6" s="84">
         <v>69</v>
       </c>
-      <c r="G6" s="86">
+      <c r="G6" s="84">
         <v>63</v>
       </c>
       <c r="H6" s="49">
@@ -4548,22 +3933,22 @@
       <c r="A7" s="51">
         <v>2016</v>
       </c>
-      <c r="B7" s="86">
+      <c r="B7" s="84">
         <v>58</v>
       </c>
-      <c r="C7" s="86">
+      <c r="C7" s="84">
         <v>68</v>
       </c>
-      <c r="D7" s="90">
+      <c r="D7" s="88">
         <v>63</v>
       </c>
-      <c r="E7" s="86">
+      <c r="E7" s="84">
         <v>50</v>
       </c>
-      <c r="F7" s="86">
+      <c r="F7" s="84">
         <v>60</v>
       </c>
-      <c r="G7" s="86">
+      <c r="G7" s="84">
         <v>55</v>
       </c>
       <c r="H7" s="49">
@@ -4580,22 +3965,22 @@
       <c r="A8" s="50">
         <v>2015</v>
       </c>
-      <c r="B8" s="86">
+      <c r="B8" s="84">
         <v>52</v>
       </c>
-      <c r="C8" s="86">
+      <c r="C8" s="84">
         <v>62</v>
       </c>
-      <c r="D8" s="90">
+      <c r="D8" s="88">
         <v>57</v>
       </c>
-      <c r="E8" s="86">
+      <c r="E8" s="84">
         <v>43</v>
       </c>
-      <c r="F8" s="86">
+      <c r="F8" s="84">
         <v>53</v>
       </c>
-      <c r="G8" s="86">
+      <c r="G8" s="84">
         <v>48</v>
       </c>
       <c r="H8" s="49">
@@ -4612,22 +3997,22 @@
       <c r="A9" s="51">
         <v>2014</v>
       </c>
-      <c r="B9" s="86">
+      <c r="B9" s="84">
         <v>47</v>
       </c>
-      <c r="C9" s="86">
+      <c r="C9" s="84">
         <v>56</v>
       </c>
-      <c r="D9" s="90">
+      <c r="D9" s="88">
         <v>52</v>
       </c>
-      <c r="E9" s="86">
+      <c r="E9" s="84">
         <v>38</v>
       </c>
-      <c r="F9" s="86">
+      <c r="F9" s="84">
         <v>46</v>
       </c>
-      <c r="G9" s="86">
+      <c r="G9" s="84">
         <v>42</v>
       </c>
       <c r="H9" s="49">
@@ -4644,22 +4029,22 @@
       <c r="A10" s="50">
         <v>2013</v>
       </c>
-      <c r="B10" s="86">
+      <c r="B10" s="84">
         <v>42</v>
       </c>
-      <c r="C10" s="86">
+      <c r="C10" s="84">
         <v>50</v>
       </c>
-      <c r="D10" s="90">
+      <c r="D10" s="88">
         <v>46</v>
       </c>
-      <c r="E10" s="86">
+      <c r="E10" s="84">
         <v>33</v>
       </c>
-      <c r="F10" s="86">
+      <c r="F10" s="84">
         <v>40</v>
       </c>
-      <c r="G10" s="86">
+      <c r="G10" s="84">
         <v>37</v>
       </c>
       <c r="H10" s="49">
@@ -4676,22 +4061,22 @@
       <c r="A11" s="51">
         <v>2012</v>
       </c>
-      <c r="B11" s="86">
+      <c r="B11" s="84">
         <v>38</v>
       </c>
-      <c r="C11" s="86">
+      <c r="C11" s="84">
         <v>45</v>
       </c>
-      <c r="D11" s="90">
+      <c r="D11" s="88">
         <v>42</v>
       </c>
-      <c r="E11" s="86">
+      <c r="E11" s="84">
         <v>29</v>
       </c>
-      <c r="F11" s="86">
+      <c r="F11" s="84">
         <v>35</v>
       </c>
-      <c r="G11" s="86">
+      <c r="G11" s="84">
         <v>32</v>
       </c>
       <c r="H11" s="49">
@@ -4705,28 +4090,28 @@
       <c r="N11" s="21"/>
     </row>
     <row r="12" spans="1:14" s="56" customFormat="1">
-      <c r="A12" s="101">
+      <c r="A12" s="93">
         <v>2011</v>
       </c>
-      <c r="B12" s="102">
+      <c r="B12" s="94">
         <v>34</v>
       </c>
-      <c r="C12" s="102">
+      <c r="C12" s="94">
         <v>40</v>
       </c>
-      <c r="D12" s="103">
+      <c r="D12" s="95">
         <v>37</v>
       </c>
-      <c r="E12" s="102">
+      <c r="E12" s="94">
         <v>25</v>
       </c>
-      <c r="F12" s="102">
+      <c r="F12" s="94">
         <v>30</v>
       </c>
-      <c r="G12" s="102">
+      <c r="G12" s="94">
         <v>28</v>
       </c>
-      <c r="H12" s="104">
+      <c r="H12" s="96">
         <v>9</v>
       </c>
     </row>
@@ -4734,22 +4119,22 @@
       <c r="A13" s="51">
         <v>2010</v>
       </c>
-      <c r="B13" s="86">
+      <c r="B13" s="84">
         <v>30</v>
       </c>
-      <c r="C13" s="86">
+      <c r="C13" s="84">
         <v>36</v>
       </c>
-      <c r="D13" s="90">
+      <c r="D13" s="88">
         <v>33</v>
       </c>
-      <c r="E13" s="86">
+      <c r="E13" s="84">
         <v>21</v>
       </c>
-      <c r="F13" s="86">
+      <c r="F13" s="84">
         <v>26</v>
       </c>
-      <c r="G13" s="86">
+      <c r="G13" s="84">
         <v>24</v>
       </c>
       <c r="H13" s="49">
@@ -4766,22 +4151,22 @@
       <c r="A14" s="50">
         <v>2009</v>
       </c>
-      <c r="B14" s="86">
+      <c r="B14" s="84">
         <v>27</v>
       </c>
-      <c r="C14" s="86">
+      <c r="C14" s="84">
         <v>32</v>
       </c>
-      <c r="D14" s="90">
+      <c r="D14" s="88">
         <v>30</v>
       </c>
-      <c r="E14" s="86">
+      <c r="E14" s="84">
         <v>19</v>
       </c>
-      <c r="F14" s="86">
+      <c r="F14" s="84">
         <v>23</v>
       </c>
-      <c r="G14" s="86">
+      <c r="G14" s="84">
         <v>21</v>
       </c>
       <c r="H14" s="49">
@@ -4798,22 +4183,22 @@
       <c r="A15" s="51">
         <v>2008</v>
       </c>
-      <c r="B15" s="87">
+      <c r="B15" s="85">
         <v>25</v>
       </c>
-      <c r="C15" s="87">
+      <c r="C15" s="85">
         <v>30</v>
       </c>
-      <c r="D15" s="91">
+      <c r="D15" s="89">
         <v>28</v>
       </c>
-      <c r="E15" s="87">
+      <c r="E15" s="85">
         <v>17</v>
       </c>
-      <c r="F15" s="87">
+      <c r="F15" s="85">
         <v>21</v>
       </c>
-      <c r="G15" s="87">
+      <c r="G15" s="85">
         <v>19</v>
       </c>
       <c r="H15" s="49">
@@ -4830,22 +4215,22 @@
       <c r="A16" s="50">
         <v>2007</v>
       </c>
-      <c r="B16" s="88">
+      <c r="B16" s="86">
         <v>23</v>
       </c>
-      <c r="C16" s="87">
+      <c r="C16" s="85">
         <v>28</v>
       </c>
-      <c r="D16" s="91">
+      <c r="D16" s="89">
         <v>26</v>
       </c>
-      <c r="E16" s="87">
+      <c r="E16" s="85">
         <v>15</v>
       </c>
-      <c r="F16" s="87">
+      <c r="F16" s="85">
         <v>18</v>
       </c>
-      <c r="G16" s="87">
+      <c r="G16" s="85">
         <v>17</v>
       </c>
       <c r="H16" s="49">
@@ -4862,22 +4247,22 @@
       <c r="A17" s="51">
         <v>2006</v>
       </c>
-      <c r="B17" s="87">
+      <c r="B17" s="85">
         <v>22</v>
       </c>
-      <c r="C17" s="87">
+      <c r="C17" s="85">
         <v>26</v>
       </c>
-      <c r="D17" s="91">
+      <c r="D17" s="89">
         <v>24</v>
       </c>
-      <c r="E17" s="87">
+      <c r="E17" s="85">
         <v>15</v>
       </c>
-      <c r="F17" s="87">
+      <c r="F17" s="85">
         <v>16</v>
       </c>
-      <c r="G17" s="87">
+      <c r="G17" s="85">
         <v>17</v>
       </c>
       <c r="H17" s="49">
@@ -4894,22 +4279,22 @@
       <c r="A18" s="50">
         <v>2005</v>
       </c>
-      <c r="B18" s="87">
+      <c r="B18" s="85">
         <v>20</v>
       </c>
-      <c r="C18" s="87">
+      <c r="C18" s="85">
         <v>23</v>
       </c>
-      <c r="D18" s="91">
+      <c r="D18" s="89">
         <v>22</v>
       </c>
-      <c r="E18" s="87">
+      <c r="E18" s="85">
         <v>15</v>
       </c>
-      <c r="F18" s="87">
+      <c r="F18" s="85">
         <v>14</v>
       </c>
-      <c r="G18" s="87">
+      <c r="G18" s="85">
         <v>17</v>
       </c>
       <c r="H18" s="49">
@@ -4926,22 +4311,22 @@
       <c r="A19" s="51">
         <v>2004</v>
       </c>
-      <c r="B19" s="87">
+      <c r="B19" s="85">
         <v>18</v>
       </c>
-      <c r="C19" s="87">
+      <c r="C19" s="85">
         <v>21</v>
       </c>
-      <c r="D19" s="91">
+      <c r="D19" s="89">
         <v>20</v>
       </c>
-      <c r="E19" s="87">
+      <c r="E19" s="85">
         <v>15</v>
       </c>
-      <c r="F19" s="87">
+      <c r="F19" s="85">
         <v>14</v>
       </c>
-      <c r="G19" s="87">
+      <c r="G19" s="85">
         <v>17</v>
       </c>
       <c r="H19" s="49">
@@ -4958,22 +4343,22 @@
       <c r="A20" s="50">
         <v>2003</v>
       </c>
-      <c r="B20" s="87">
+      <c r="B20" s="85">
         <v>18</v>
       </c>
-      <c r="C20" s="87">
+      <c r="C20" s="85">
         <v>19</v>
       </c>
-      <c r="D20" s="91">
+      <c r="D20" s="89">
         <v>20</v>
       </c>
-      <c r="E20" s="87">
+      <c r="E20" s="85">
         <v>15</v>
       </c>
-      <c r="F20" s="87">
+      <c r="F20" s="85">
         <v>14</v>
       </c>
-      <c r="G20" s="87">
+      <c r="G20" s="85">
         <v>17</v>
       </c>
       <c r="H20" s="49">
@@ -4990,22 +4375,22 @@
       <c r="A21" s="51">
         <v>2002</v>
       </c>
-      <c r="B21" s="87">
+      <c r="B21" s="85">
         <v>18</v>
       </c>
-      <c r="C21" s="87">
+      <c r="C21" s="85">
         <v>17</v>
       </c>
-      <c r="D21" s="91">
+      <c r="D21" s="89">
         <v>20</v>
       </c>
-      <c r="E21" s="87">
+      <c r="E21" s="85">
         <v>15</v>
       </c>
-      <c r="F21" s="87">
+      <c r="F21" s="85">
         <v>14</v>
       </c>
-      <c r="G21" s="87">
+      <c r="G21" s="85">
         <v>17</v>
       </c>
       <c r="H21" s="49">
@@ -5022,22 +4407,22 @@
       <c r="A22" s="50">
         <v>2001</v>
       </c>
-      <c r="B22" s="87">
+      <c r="B22" s="85">
         <v>18</v>
       </c>
-      <c r="C22" s="87">
+      <c r="C22" s="85">
         <v>17</v>
       </c>
-      <c r="D22" s="91">
+      <c r="D22" s="89">
         <v>20</v>
       </c>
-      <c r="E22" s="87">
+      <c r="E22" s="85">
         <v>15</v>
       </c>
-      <c r="F22" s="87">
+      <c r="F22" s="85">
         <v>14</v>
       </c>
-      <c r="G22" s="87">
+      <c r="G22" s="85">
         <v>17</v>
       </c>
       <c r="H22" s="49">
@@ -5521,13 +4906,13 @@
       <c r="A3" s="53">
         <v>2019</v>
       </c>
-      <c r="B3" s="86">
+      <c r="B3" s="84">
         <v>74</v>
       </c>
-      <c r="C3" s="86">
+      <c r="C3" s="84">
         <v>91</v>
       </c>
-      <c r="D3" s="86">
+      <c r="D3" s="84">
         <v>83</v>
       </c>
       <c r="E3" s="53">
@@ -5541,13 +4926,13 @@
       <c r="A4" s="53">
         <v>2018</v>
       </c>
-      <c r="B4" s="86">
+      <c r="B4" s="84">
         <v>66</v>
       </c>
-      <c r="C4" s="86">
+      <c r="C4" s="84">
         <v>81</v>
       </c>
-      <c r="D4" s="86">
+      <c r="D4" s="84">
         <v>74</v>
       </c>
       <c r="E4" s="53">
@@ -5563,13 +4948,13 @@
       <c r="A5" s="53">
         <v>2017</v>
       </c>
-      <c r="B5" s="86">
+      <c r="B5" s="84">
         <v>60</v>
       </c>
-      <c r="C5" s="86">
+      <c r="C5" s="84">
         <v>74</v>
       </c>
-      <c r="D5" s="86">
+      <c r="D5" s="84">
         <v>67</v>
       </c>
       <c r="E5" s="53">
@@ -5585,13 +4970,13 @@
       <c r="A6" s="53">
         <v>2016</v>
       </c>
-      <c r="B6" s="86">
+      <c r="B6" s="84">
         <v>55</v>
       </c>
-      <c r="C6" s="86">
+      <c r="C6" s="84">
         <v>68</v>
       </c>
-      <c r="D6" s="86">
+      <c r="D6" s="84">
         <v>62</v>
       </c>
       <c r="E6" s="53">
@@ -5607,13 +4992,13 @@
       <c r="A7" s="53">
         <v>2015</v>
       </c>
-      <c r="B7" s="86">
+      <c r="B7" s="84">
         <v>51</v>
       </c>
-      <c r="C7" s="88">
+      <c r="C7" s="86">
         <v>62</v>
       </c>
-      <c r="D7" s="86">
+      <c r="D7" s="84">
         <v>57</v>
       </c>
       <c r="E7" s="53">
@@ -5629,13 +5014,13 @@
       <c r="A8" s="53">
         <v>2014</v>
       </c>
-      <c r="B8" s="86">
+      <c r="B8" s="84">
         <v>47</v>
       </c>
-      <c r="C8" s="86">
+      <c r="C8" s="84">
         <v>58</v>
       </c>
-      <c r="D8" s="86">
+      <c r="D8" s="84">
         <v>53</v>
       </c>
       <c r="E8" s="53">
@@ -5651,13 +5036,13 @@
       <c r="A9" s="53">
         <v>2013</v>
       </c>
-      <c r="B9" s="86">
+      <c r="B9" s="84">
         <v>42</v>
       </c>
-      <c r="C9" s="86">
+      <c r="C9" s="84">
         <v>52</v>
       </c>
-      <c r="D9" s="86">
+      <c r="D9" s="84">
         <v>47</v>
       </c>
       <c r="E9" s="53">
@@ -5673,13 +5058,13 @@
       <c r="A10" s="53">
         <v>2012</v>
       </c>
-      <c r="B10" s="86">
+      <c r="B10" s="84">
         <v>38</v>
       </c>
-      <c r="C10" s="86">
+      <c r="C10" s="84">
         <v>47</v>
       </c>
-      <c r="D10" s="86">
+      <c r="D10" s="84">
         <v>43</v>
       </c>
       <c r="E10" s="53">
@@ -5695,13 +5080,13 @@
       <c r="A11" s="53">
         <v>2011</v>
       </c>
-      <c r="B11" s="86">
+      <c r="B11" s="84">
         <v>35</v>
       </c>
-      <c r="C11" s="86">
+      <c r="C11" s="84">
         <v>43</v>
       </c>
-      <c r="D11" s="86">
+      <c r="D11" s="84">
         <v>39</v>
       </c>
       <c r="E11" s="53">
@@ -5717,13 +5102,13 @@
       <c r="A12" s="53">
         <v>2010</v>
       </c>
-      <c r="B12" s="86">
+      <c r="B12" s="84">
         <v>31</v>
       </c>
-      <c r="C12" s="86">
+      <c r="C12" s="84">
         <v>38</v>
       </c>
-      <c r="D12" s="86">
+      <c r="D12" s="84">
         <v>35</v>
       </c>
       <c r="E12" s="53">
@@ -5739,13 +5124,13 @@
       <c r="A13" s="53">
         <v>2009</v>
       </c>
-      <c r="B13" s="86">
+      <c r="B13" s="84">
         <v>28</v>
       </c>
-      <c r="C13" s="86">
+      <c r="C13" s="84">
         <v>34</v>
       </c>
-      <c r="D13" s="86">
+      <c r="D13" s="84">
         <v>31</v>
       </c>
       <c r="E13" s="53">
@@ -5761,13 +5146,13 @@
       <c r="A14" s="53">
         <v>2008</v>
       </c>
-      <c r="B14" s="86">
+      <c r="B14" s="84">
         <v>26</v>
       </c>
-      <c r="C14" s="86">
+      <c r="C14" s="84">
         <v>32</v>
       </c>
-      <c r="D14" s="86">
+      <c r="D14" s="84">
         <v>29</v>
       </c>
       <c r="E14" s="53">
@@ -5783,13 +5168,13 @@
       <c r="A15" s="53">
         <v>2007</v>
       </c>
-      <c r="B15" s="86">
+      <c r="B15" s="84">
         <v>24</v>
       </c>
-      <c r="C15" s="86">
+      <c r="C15" s="84">
         <v>29</v>
       </c>
-      <c r="D15" s="86">
+      <c r="D15" s="84">
         <v>27</v>
       </c>
       <c r="E15" s="53">
@@ -5805,13 +5190,13 @@
       <c r="A16" s="53">
         <v>2006</v>
       </c>
-      <c r="B16" s="86">
+      <c r="B16" s="84">
         <v>22</v>
       </c>
-      <c r="C16" s="86">
+      <c r="C16" s="84">
         <v>27</v>
       </c>
-      <c r="D16" s="86">
+      <c r="D16" s="84">
         <v>25</v>
       </c>
       <c r="E16" s="53">
@@ -5827,13 +5212,13 @@
       <c r="A17" s="53">
         <v>2005</v>
       </c>
-      <c r="B17" s="86">
+      <c r="B17" s="84">
         <v>20</v>
       </c>
-      <c r="C17" s="86">
+      <c r="C17" s="84">
         <v>25</v>
       </c>
-      <c r="D17" s="86">
+      <c r="D17" s="84">
         <v>23</v>
       </c>
       <c r="E17" s="53">
@@ -5844,13 +5229,13 @@
       <c r="A18" s="53">
         <v>2004</v>
       </c>
-      <c r="B18" s="86">
+      <c r="B18" s="84">
         <v>19</v>
       </c>
-      <c r="C18" s="86">
+      <c r="C18" s="84">
         <v>23</v>
       </c>
-      <c r="D18" s="86">
+      <c r="D18" s="84">
         <v>21</v>
       </c>
       <c r="E18" s="53">
@@ -5861,13 +5246,13 @@
       <c r="A19" s="53">
         <v>2003</v>
       </c>
-      <c r="B19" s="86">
+      <c r="B19" s="84">
         <v>16</v>
       </c>
-      <c r="C19" s="86">
+      <c r="C19" s="84">
         <v>20</v>
       </c>
-      <c r="D19" s="86">
+      <c r="D19" s="84">
         <v>18</v>
       </c>
       <c r="E19" s="53">
@@ -5878,13 +5263,13 @@
       <c r="A20" s="53">
         <v>2002</v>
       </c>
-      <c r="B20" s="86">
+      <c r="B20" s="84">
         <v>13</v>
       </c>
-      <c r="C20" s="86">
+      <c r="C20" s="84">
         <v>17</v>
       </c>
-      <c r="D20" s="86">
+      <c r="D20" s="84">
         <v>15</v>
       </c>
       <c r="E20" s="53">
@@ -5895,13 +5280,13 @@
       <c r="A21" s="53">
         <v>2001</v>
       </c>
-      <c r="B21" s="86">
+      <c r="B21" s="84">
         <v>12</v>
       </c>
-      <c r="C21" s="86">
+      <c r="C21" s="84">
         <v>13</v>
       </c>
-      <c r="D21" s="86">
+      <c r="D21" s="84">
         <v>13</v>
       </c>
       <c r="E21" s="53">
@@ -5912,13 +5297,13 @@
       <c r="A22" s="53">
         <v>2000</v>
       </c>
-      <c r="B22" s="86">
+      <c r="B22" s="84">
         <v>11</v>
       </c>
-      <c r="C22" s="86">
+      <c r="C22" s="84">
         <v>11</v>
       </c>
-      <c r="D22" s="86">
+      <c r="D22" s="84">
         <v>11</v>
       </c>
       <c r="E22" s="53">
@@ -5929,13 +5314,13 @@
       <c r="A23" s="53">
         <v>1999</v>
       </c>
-      <c r="B23" s="87">
+      <c r="B23" s="85">
         <v>11</v>
       </c>
-      <c r="C23" s="87">
+      <c r="C23" s="85">
         <v>9</v>
       </c>
-      <c r="D23" s="87">
+      <c r="D23" s="85">
         <v>11</v>
       </c>
       <c r="E23" s="54">
@@ -6527,7 +5912,7 @@
 IF(OR('M&amp;E Property Good Factor'!G3 &gt; 'Trends Settings '!$B$2,B3 &lt;=ROUND($H$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B3&gt;ROUND($H$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($H$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C4)*0.01,0),H2))</f>
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I3" s="37">
         <f ca="1">IF(OR(B3=1,'M&amp;E Property Good Factor'!H4&gt;'Trends Settings '!$B$2),
@@ -6537,7 +5922,7 @@
 IF(OR('M&amp;E Property Good Factor'!H3 &gt; 'Trends Settings '!$B$2,B3 &lt;=ROUND($I$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B3&gt;ROUND($I$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($I$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C4)*0.01,0),I2))</f>
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J3" s="37">
         <f ca="1">IF(OR(B3=1,'M&amp;E Property Good Factor'!I4&gt;'Trends Settings '!$B$2),
@@ -6557,7 +5942,7 @@
 IF(OR('M&amp;E Property Good Factor'!J3 &gt; 'Trends Settings '!$B$2,B3 &lt;=ROUND($K$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B3&gt;ROUND($K$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($K$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C4)*0.01,0),K2))</f>
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L3" s="37">
         <f ca="1">IF(OR(B3=1,'M&amp;E Property Good Factor'!K4&gt;'Trends Settings '!$B$2),
@@ -6577,7 +5962,7 @@
 IF(OR('M&amp;E Property Good Factor'!L3 &gt; 'Trends Settings '!$B$2,B3 &lt;=ROUND($M$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B3&gt;ROUND($M$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($M$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C4)*0.01,0),M2))</f>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N3" s="37">
         <f ca="1">IF(OR(B3=1,'M&amp;E Property Good Factor'!M4&gt;'Trends Settings '!$B$2),
@@ -6607,7 +5992,7 @@
 IF(OR('M&amp;E Property Good Factor'!O3 &gt; 'Trends Settings '!$B$2,B3 &lt;=ROUND($P$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B3&gt;ROUND($P$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($P$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C4)*0.01,0),P2))</f>
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q3" s="37">
         <f ca="1">IF(OR(B3=1,'M&amp;E Property Good Factor'!P4&gt;'Trends Settings '!$B$2),
@@ -6627,7 +6012,7 @@
 IF(OR('M&amp;E Property Good Factor'!Q3 &gt; 'Trends Settings '!$B$2,B3 &lt;=ROUND($R$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B3&gt;ROUND($R$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($R$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C4)*0.01,0),R2))</f>
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="S3" s="37">
         <f ca="1">IF(OR(B3=1,'M&amp;E Property Good Factor'!R4&gt;'Trends Settings '!$B$2),
@@ -6637,7 +6022,7 @@
 IF(OR('M&amp;E Property Good Factor'!R3 &gt; 'Trends Settings '!$B$2,B3 &lt;=ROUND($S$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B3&gt;ROUND($S$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($S$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C4)*0.01,0),S2))</f>
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="T3" s="37">
         <f ca="1">IF(OR(B3=1,'M&amp;E Property Good Factor'!S4&gt;'Trends Settings '!$B$2),
@@ -6647,7 +6032,7 @@
 IF(OR('M&amp;E Property Good Factor'!S3 &gt; 'Trends Settings '!$B$2,B3 &lt;=ROUND($T$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B3&gt;ROUND($T$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($T$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C4)*0.01,0),T2))</f>
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U3" s="37">
         <f ca="1">IF(OR(B3=1,'M&amp;E Property Good Factor'!T4&gt;'Trends Settings '!$B$2),
@@ -6719,7 +6104,7 @@
 IF(OR('M&amp;E Property Good Factor'!E4 &gt; 'Trends Settings '!$B$2,B4 &lt;=ROUND($F$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B4&gt;ROUND($F$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($F$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C5)*0.01,0),F3))</f>
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G4" s="37">
         <f ca="1">IF(OR(B4=1,'M&amp;E Property Good Factor'!F5&gt;'Trends Settings '!$B$2),
@@ -6849,7 +6234,7 @@
 IF(OR('M&amp;E Property Good Factor'!R4 &gt; 'Trends Settings '!$B$2,B4 &lt;=ROUND($S$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B4&gt;ROUND($S$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($S$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C5)*0.01,0),S3))</f>
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="T4" s="37">
         <f ca="1">IF(OR(B4=1,'M&amp;E Property Good Factor'!S5&gt;'Trends Settings '!$B$2),
@@ -6859,7 +6244,7 @@
 IF(OR('M&amp;E Property Good Factor'!S4 &gt; 'Trends Settings '!$B$2,B4 &lt;=ROUND($T$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B4&gt;ROUND($T$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($T$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C5)*0.01,0),T3))</f>
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U4" s="37">
         <f ca="1">IF(OR(B4=1,'M&amp;E Property Good Factor'!T5&gt;'Trends Settings '!$B$2),
@@ -6951,7 +6336,7 @@
 IF(OR('M&amp;E Property Good Factor'!G5 &gt; 'Trends Settings '!$B$2,B5 &lt;=ROUND($H$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B5&gt;ROUND($H$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($H$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C6)*0.01,0),H4))</f>
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I5" s="37">
         <f ca="1">IF(OR(B5=1,'M&amp;E Property Good Factor'!H6&gt;'Trends Settings '!$B$2),
@@ -6971,7 +6356,7 @@
 IF(OR('M&amp;E Property Good Factor'!I5 &gt; 'Trends Settings '!$B$2,B5 &lt;=ROUND($J$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B5&gt;ROUND($J$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($J$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C6)*0.01,0),J4))</f>
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K5" s="37">
         <f ca="1">IF(OR(B5=1,'M&amp;E Property Good Factor'!J6&gt;'Trends Settings '!$B$2),
@@ -7011,7 +6396,7 @@
 IF(OR('M&amp;E Property Good Factor'!M5 &gt; 'Trends Settings '!$B$2,B5 &lt;=ROUND($N$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B5&gt;ROUND($N$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($N$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C6)*0.01,0),N4))</f>
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O5" s="37">
         <f ca="1">IF(OR(B5=1,'M&amp;E Property Good Factor'!N6&gt;'Trends Settings '!$B$2),
@@ -7091,7 +6476,7 @@
 IF(OR('M&amp;E Property Good Factor'!U5 &gt; 'Trends Settings '!$B$2,B5 &lt;=ROUND($V$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B5&gt;ROUND($V$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($V$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C6)*0.01,0),V4))</f>
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="W5" s="37">
         <f ca="1">IF(OR(B5=1,'M&amp;E Property Good Factor'!V6&gt;'Trends Settings '!$B$2),
@@ -7153,7 +6538,7 @@
 IF(OR('M&amp;E Property Good Factor'!F6 &gt; 'Trends Settings '!$B$2,B6 &lt;=ROUND($G$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B6&gt;ROUND($G$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($G$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C7)*0.01,0),G5))</f>
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H6" s="37">
         <f ca="1">IF(OR(B6=1,'M&amp;E Property Good Factor'!G7&gt;'Trends Settings '!$B$2),
@@ -7173,7 +6558,7 @@
 IF(OR('M&amp;E Property Good Factor'!H6 &gt; 'Trends Settings '!$B$2,B6 &lt;=ROUND($I$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B6&gt;ROUND($I$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($I$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C7)*0.01,0),I5))</f>
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J6" s="37">
         <f ca="1">IF(OR(B6=1,'M&amp;E Property Good Factor'!I7&gt;'Trends Settings '!$B$2),
@@ -7183,7 +6568,7 @@
 IF(OR('M&amp;E Property Good Factor'!I6 &gt; 'Trends Settings '!$B$2,B6 &lt;=ROUND($J$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B6&gt;ROUND($J$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($J$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C7)*0.01,0),J5))</f>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K6" s="37">
         <f ca="1">IF(OR(B6=1,'M&amp;E Property Good Factor'!J7&gt;'Trends Settings '!$B$2),
@@ -7263,7 +6648,7 @@
 IF(OR('M&amp;E Property Good Factor'!Q6 &gt; 'Trends Settings '!$B$2,B6 &lt;=ROUND($R$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B6&gt;ROUND($R$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($R$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C7)*0.01,0),R5))</f>
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="S6" s="37">
         <f ca="1">IF(OR(B6=1,'M&amp;E Property Good Factor'!R7&gt;'Trends Settings '!$B$2),
@@ -7313,7 +6698,7 @@
 IF(OR('M&amp;E Property Good Factor'!V6 &gt; 'Trends Settings '!$B$2,B6 &lt;=ROUND($W$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B6&gt;ROUND($W$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($W$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C7)*0.01,0),W5))</f>
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="12.75" customHeight="1">
@@ -7355,7 +6740,7 @@
 IF(OR('M&amp;E Property Good Factor'!E7 &gt; 'Trends Settings '!$B$2,B7 &lt;=ROUND($F$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B7&gt;ROUND($F$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($F$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C8)*0.01,0),F6))</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G7" s="37">
         <f ca="1">IF(OR(B7=1,'M&amp;E Property Good Factor'!F8&gt;'Trends Settings '!$B$2),
@@ -7425,7 +6810,7 @@
 IF(OR('M&amp;E Property Good Factor'!L7 &gt; 'Trends Settings '!$B$2,B7 &lt;=ROUND($M$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B7&gt;ROUND($M$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($M$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C8)*0.01,0),M6))</f>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N7" s="37">
         <f ca="1">IF(OR(B7=1,'M&amp;E Property Good Factor'!M8&gt;'Trends Settings '!$B$2),
@@ -7525,7 +6910,7 @@
 IF(OR('M&amp;E Property Good Factor'!V7 &gt; 'Trends Settings '!$B$2,B7 &lt;=ROUND($W$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B7&gt;ROUND($W$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($W$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C8)*0.01,0),W6))</f>
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="12.75" customHeight="1">
@@ -7577,7 +6962,7 @@
 IF(OR('M&amp;E Property Good Factor'!F8 &gt; 'Trends Settings '!$B$2,B8 &lt;=ROUND($G$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B8&gt;ROUND($G$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($G$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C9)*0.01,0),G7))</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H8" s="37">
         <f ca="1">IF(OR(B8=1,'M&amp;E Property Good Factor'!G9&gt;'Trends Settings '!$B$2),
@@ -7597,7 +6982,7 @@
 IF(OR('M&amp;E Property Good Factor'!H8 &gt; 'Trends Settings '!$B$2,B8 &lt;=ROUND($I$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B8&gt;ROUND($I$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($I$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C9)*0.01,0),I7))</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J8" s="37">
         <f ca="1">IF(OR(B8=1,'M&amp;E Property Good Factor'!I9&gt;'Trends Settings '!$B$2),
@@ -7617,7 +7002,7 @@
 IF(OR('M&amp;E Property Good Factor'!J8 &gt; 'Trends Settings '!$B$2,B8 &lt;=ROUND($K$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B8&gt;ROUND($K$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($K$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C9)*0.01,0),K7))</f>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L8" s="37">
         <f ca="1">IF(OR(B8=1,'M&amp;E Property Good Factor'!K9&gt;'Trends Settings '!$B$2),
@@ -7687,7 +7072,7 @@
 IF(OR('M&amp;E Property Good Factor'!Q8 &gt; 'Trends Settings '!$B$2,B8 &lt;=ROUND($R$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B8&gt;ROUND($R$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($R$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C9)*0.01,0),R7))</f>
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="S8" s="37">
         <f ca="1">IF(OR(B8=1,'M&amp;E Property Good Factor'!R9&gt;'Trends Settings '!$B$2),
@@ -7809,7 +7194,7 @@
 IF(OR('M&amp;E Property Good Factor'!H9 &gt; 'Trends Settings '!$B$2,B9 &lt;=ROUND($I$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B9&gt;ROUND($I$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($I$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C10)*0.01,0),I8))</f>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J9" s="37">
         <f ca="1">IF(OR(B9=1,'M&amp;E Property Good Factor'!I10&gt;'Trends Settings '!$B$2),
@@ -7869,7 +7254,7 @@
 IF(OR('M&amp;E Property Good Factor'!N9 &gt; 'Trends Settings '!$B$2,B9 &lt;=ROUND($O$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B9&gt;ROUND($O$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($O$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C10)*0.01,0),O8))</f>
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P9" s="37">
         <f ca="1">IF(OR(B9=1,'M&amp;E Property Good Factor'!O10&gt;'Trends Settings '!$B$2),
@@ -7889,7 +7274,7 @@
 IF(OR('M&amp;E Property Good Factor'!P9 &gt; 'Trends Settings '!$B$2,B9 &lt;=ROUND($Q$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B9&gt;ROUND($Q$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($Q$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C10)*0.01,0),Q8))</f>
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="R9" s="37">
         <f ca="1">IF(OR(B9=1,'M&amp;E Property Good Factor'!Q10&gt;'Trends Settings '!$B$2),
@@ -7939,7 +7324,7 @@
 IF(OR('M&amp;E Property Good Factor'!U9 &gt; 'Trends Settings '!$B$2,B9 &lt;=ROUND($V$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B9&gt;ROUND($V$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($V$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C10)*0.01,0),V8))</f>
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="W9" s="37">
         <f ca="1">IF(OR(B9=1,'M&amp;E Property Good Factor'!V10&gt;'Trends Settings '!$B$2),
@@ -8011,7 +7396,7 @@
 IF(OR('M&amp;E Property Good Factor'!G10 &gt; 'Trends Settings '!$B$2,B10 &lt;=ROUND($H$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B10&gt;ROUND($H$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($H$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C11)*0.01,0),H9))</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I10" s="37">
         <f ca="1">IF(OR(B10=1,'M&amp;E Property Good Factor'!H11&gt;'Trends Settings '!$B$2),
@@ -8041,7 +7426,7 @@
 IF(OR('M&amp;E Property Good Factor'!J10 &gt; 'Trends Settings '!$B$2,B10 &lt;=ROUND($K$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B10&gt;ROUND($K$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($K$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C11)*0.01,0),K9))</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L10" s="37">
         <f ca="1">IF(OR(B10=1,'M&amp;E Property Good Factor'!K11&gt;'Trends Settings '!$B$2),
@@ -8051,7 +7436,7 @@
 IF(OR('M&amp;E Property Good Factor'!K10 &gt; 'Trends Settings '!$B$2,B10 &lt;=ROUND($L$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B10&gt;ROUND($L$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($L$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C11)*0.01,0),L9))</f>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M10" s="37">
         <f ca="1">IF(OR(B10=1,'M&amp;E Property Good Factor'!L11&gt;'Trends Settings '!$B$2),
@@ -8091,7 +7476,7 @@
 IF(OR('M&amp;E Property Good Factor'!O10 &gt; 'Trends Settings '!$B$2,B10 &lt;=ROUND($P$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B10&gt;ROUND($P$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($P$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C11)*0.01,0),P9))</f>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q10" s="37">
         <f ca="1">IF(OR(B10=1,'M&amp;E Property Good Factor'!P11&gt;'Trends Settings '!$B$2),
@@ -8121,7 +7506,7 @@
 IF(OR('M&amp;E Property Good Factor'!R10 &gt; 'Trends Settings '!$B$2,B10 &lt;=ROUND($S$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B10&gt;ROUND($S$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($S$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C11)*0.01,0),S9))</f>
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T10" s="37">
         <f ca="1">IF(OR(B10=1,'M&amp;E Property Good Factor'!S11&gt;'Trends Settings '!$B$2),
@@ -8243,7 +7628,7 @@
 IF(OR('M&amp;E Property Good Factor'!I11 &gt; 'Trends Settings '!$B$2,B11 &lt;=ROUND($J$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B11&gt;ROUND($J$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($J$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C12)*0.01,0),J10))</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K11" s="37">
         <f ca="1">IF(OR(B11=1,'M&amp;E Property Good Factor'!J12&gt;'Trends Settings '!$B$2),
@@ -8253,7 +7638,7 @@
 IF(OR('M&amp;E Property Good Factor'!J11 &gt; 'Trends Settings '!$B$2,B11 &lt;=ROUND($K$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B11&gt;ROUND($K$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($K$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C12)*0.01,0),K10))</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L11" s="37">
         <f ca="1">IF(OR(B11=1,'M&amp;E Property Good Factor'!K12&gt;'Trends Settings '!$B$2),
@@ -8263,7 +7648,7 @@
 IF(OR('M&amp;E Property Good Factor'!K11 &gt; 'Trends Settings '!$B$2,B11 &lt;=ROUND($L$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B11&gt;ROUND($L$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($L$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C12)*0.01,0),L10))</f>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M11" s="37">
         <f ca="1">IF(OR(B11=1,'M&amp;E Property Good Factor'!L12&gt;'Trends Settings '!$B$2),
@@ -8293,7 +7678,7 @@
 IF(OR('M&amp;E Property Good Factor'!N11 &gt; 'Trends Settings '!$B$2,B11 &lt;=ROUND($O$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B11&gt;ROUND($O$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($O$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C12)*0.01,0),O10))</f>
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P11" s="37">
         <f ca="1">IF(OR(B11=1,'M&amp;E Property Good Factor'!O12&gt;'Trends Settings '!$B$2),
@@ -8303,7 +7688,7 @@
 IF(OR('M&amp;E Property Good Factor'!O11 &gt; 'Trends Settings '!$B$2,B11 &lt;=ROUND($P$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B11&gt;ROUND($P$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($P$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C12)*0.01,0),P10))</f>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q11" s="37">
         <f ca="1">IF(OR(B11=1,'M&amp;E Property Good Factor'!P12&gt;'Trends Settings '!$B$2),
@@ -8333,7 +7718,7 @@
 IF(OR('M&amp;E Property Good Factor'!R11 &gt; 'Trends Settings '!$B$2,B11 &lt;=ROUND($S$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B11&gt;ROUND($S$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($S$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C12)*0.01,0),S10))</f>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T11" s="37">
         <f ca="1">IF(OR(B11=1,'M&amp;E Property Good Factor'!S12&gt;'Trends Settings '!$B$2),
@@ -8353,7 +7738,7 @@
 IF(OR('M&amp;E Property Good Factor'!T11 &gt; 'Trends Settings '!$B$2,B11 &lt;=ROUND($U$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B11&gt;ROUND($U$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($U$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C12)*0.01,0),U10))</f>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="V11" s="37">
         <f ca="1">IF(OR(B11=1,'M&amp;E Property Good Factor'!U12&gt;'Trends Settings '!$B$2),
@@ -8445,7 +7830,7 @@
 IF(OR('M&amp;E Property Good Factor'!H12 &gt; 'Trends Settings '!$B$2,B12 &lt;=ROUND($I$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B12&gt;ROUND($I$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($I$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C13)*0.01,0),I11))</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J12" s="37">
         <f ca="1">IF(OR(B12=1,'M&amp;E Property Good Factor'!I13&gt;'Trends Settings '!$B$2),
@@ -8475,7 +7860,7 @@
 IF(OR('M&amp;E Property Good Factor'!K12 &gt; 'Trends Settings '!$B$2,B12 &lt;=ROUND($L$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B12&gt;ROUND($L$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($L$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C13)*0.01,0),L11))</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M12" s="37">
         <f ca="1">IF(OR(B12=1,'M&amp;E Property Good Factor'!L13&gt;'Trends Settings '!$B$2),
@@ -8525,7 +7910,7 @@
 IF(OR('M&amp;E Property Good Factor'!P12 &gt; 'Trends Settings '!$B$2,B12 &lt;=ROUND($Q$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B12&gt;ROUND($Q$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($Q$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C13)*0.01,0),Q11))</f>
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R12" s="37">
         <f ca="1">IF(OR(B12=1,'M&amp;E Property Good Factor'!Q13&gt;'Trends Settings '!$B$2),
@@ -8667,7 +8052,7 @@
 IF(OR('M&amp;E Property Good Factor'!I13 &gt; 'Trends Settings '!$B$2,B13 &lt;=ROUND($J$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B13&gt;ROUND($J$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($J$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C14)*0.01,0),J12))</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K13" s="37">
         <f ca="1">IF(OR(B13=1,'M&amp;E Property Good Factor'!J14&gt;'Trends Settings '!$B$2),
@@ -8707,7 +8092,7 @@
 IF(OR('M&amp;E Property Good Factor'!M13 &gt; 'Trends Settings '!$B$2,B13 &lt;=ROUND($N$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B13&gt;ROUND($N$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($N$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C14)*0.01,0),N12))</f>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O13" s="37">
         <f ca="1">IF(OR(B13=1,'M&amp;E Property Good Factor'!N14&gt;'Trends Settings '!$B$2),
@@ -8747,7 +8132,7 @@
 IF(OR('M&amp;E Property Good Factor'!Q13 &gt; 'Trends Settings '!$B$2,B13 &lt;=ROUND($R$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B13&gt;ROUND($R$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($R$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C14)*0.01,0),R12))</f>
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S13" s="37">
         <f ca="1">IF(OR(B13=1,'M&amp;E Property Good Factor'!R14&gt;'Trends Settings '!$B$2),
@@ -8777,7 +8162,7 @@
 IF(OR('M&amp;E Property Good Factor'!T13 &gt; 'Trends Settings '!$B$2,B13 &lt;=ROUND($U$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B13&gt;ROUND($U$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($U$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C14)*0.01,0),U12))</f>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="V13" s="37">
         <f ca="1">IF(OR(B13=1,'M&amp;E Property Good Factor'!U14&gt;'Trends Settings '!$B$2),
@@ -8787,7 +8172,7 @@
 IF(OR('M&amp;E Property Good Factor'!U13 &gt; 'Trends Settings '!$B$2,B13 &lt;=ROUND($V$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B13&gt;ROUND($V$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($V$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C14)*0.01,0),V12))</f>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="W13" s="37">
         <f ca="1">IF(OR(B13=1,'M&amp;E Property Good Factor'!V14&gt;'Trends Settings '!$B$2),
@@ -8797,7 +8182,7 @@
 IF(OR('M&amp;E Property Good Factor'!V13 &gt; 'Trends Settings '!$B$2,B13 &lt;=ROUND($W$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B13&gt;ROUND($W$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($W$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C14)*0.01,0),W12))</f>
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="12.75" customHeight="1">
@@ -8889,7 +8274,7 @@
 IF(OR('M&amp;E Property Good Factor'!J14 &gt; 'Trends Settings '!$B$2,B14 &lt;=ROUND($K$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B14&gt;ROUND($K$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($K$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C15)*0.01,0),K13))</f>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L14" s="37">
         <f ca="1">IF(OR(B14=1,'M&amp;E Property Good Factor'!K15&gt;'Trends Settings '!$B$2),
@@ -8899,7 +8284,7 @@
 IF(OR('M&amp;E Property Good Factor'!K14 &gt; 'Trends Settings '!$B$2,B14 &lt;=ROUND($L$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B14&gt;ROUND($L$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($L$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C15)*0.01,0),L13))</f>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M14" s="37">
         <f ca="1">IF(OR(B14=1,'M&amp;E Property Good Factor'!L15&gt;'Trends Settings '!$B$2),
@@ -8939,7 +8324,7 @@
 IF(OR('M&amp;E Property Good Factor'!O14 &gt; 'Trends Settings '!$B$2,B14 &lt;=ROUND($P$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B14&gt;ROUND($P$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($P$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C15)*0.01,0),P13))</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q14" s="37">
         <f ca="1">IF(OR(B14=1,'M&amp;E Property Good Factor'!P15&gt;'Trends Settings '!$B$2),
@@ -8949,7 +8334,7 @@
 IF(OR('M&amp;E Property Good Factor'!P14 &gt; 'Trends Settings '!$B$2,B14 &lt;=ROUND($Q$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B14&gt;ROUND($Q$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($Q$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C15)*0.01,0),Q13))</f>
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R14" s="37">
         <f ca="1">IF(OR(B14=1,'M&amp;E Property Good Factor'!Q15&gt;'Trends Settings '!$B$2),
@@ -8979,7 +8364,7 @@
 IF(OR('M&amp;E Property Good Factor'!S14 &gt; 'Trends Settings '!$B$2,B14 &lt;=ROUND($T$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B14&gt;ROUND($T$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($T$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C15)*0.01,0),T13))</f>
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U14" s="37">
         <f ca="1">IF(OR(B14=1,'M&amp;E Property Good Factor'!T15&gt;'Trends Settings '!$B$2),
@@ -9171,7 +8556,7 @@
 IF(OR('M&amp;E Property Good Factor'!Q15 &gt; 'Trends Settings '!$B$2,B15 &lt;=ROUND($R$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B15&gt;ROUND($R$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($R$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C16)*0.01,0),R14))</f>
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S15" s="37">
         <f ca="1">IF(OR(B15=1,'M&amp;E Property Good Factor'!R16&gt;'Trends Settings '!$B$2),
@@ -9201,7 +8586,7 @@
 IF(OR('M&amp;E Property Good Factor'!T15 &gt; 'Trends Settings '!$B$2,B15 &lt;=ROUND($U$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B15&gt;ROUND($U$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($U$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C16)*0.01,0),U14))</f>
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V15" s="37">
         <f ca="1">IF(OR(B15=1,'M&amp;E Property Good Factor'!U16&gt;'Trends Settings '!$B$2),
@@ -9333,7 +8718,7 @@
 IF(OR('M&amp;E Property Good Factor'!L16 &gt; 'Trends Settings '!$B$2,B16 &lt;=ROUND($M$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B16&gt;ROUND($M$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($M$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C17)*0.01,0),M15))</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N16" s="37">
         <f ca="1">IF(OR(B16=1,'M&amp;E Property Good Factor'!M17&gt;'Trends Settings '!$B$2),
@@ -9343,7 +8728,7 @@
 IF(OR('M&amp;E Property Good Factor'!M16 &gt; 'Trends Settings '!$B$2,B16 &lt;=ROUND($N$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B16&gt;ROUND($N$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($N$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C17)*0.01,0),N15))</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O16" s="37">
         <f ca="1">IF(OR(B16=1,'M&amp;E Property Good Factor'!N17&gt;'Trends Settings '!$B$2),
@@ -9423,7 +8808,7 @@
 IF(OR('M&amp;E Property Good Factor'!U16 &gt; 'Trends Settings '!$B$2,B16 &lt;=ROUND($V$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B16&gt;ROUND($V$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($V$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C17)*0.01,0),V15))</f>
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W16" s="37">
         <f ca="1">IF(OR(B16=1,'M&amp;E Property Good Factor'!V17&gt;'Trends Settings '!$B$2),
@@ -9545,7 +8930,7 @@
 IF(OR('M&amp;E Property Good Factor'!L17 &gt; 'Trends Settings '!$B$2,B17 &lt;=ROUND($M$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B17&gt;ROUND($M$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($M$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C18)*0.01,0),M16))</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N17" s="37">
         <f ca="1">IF(OR(B17=1,'M&amp;E Property Good Factor'!M18&gt;'Trends Settings '!$B$2),
@@ -9575,7 +8960,7 @@
 IF(OR('M&amp;E Property Good Factor'!O17 &gt; 'Trends Settings '!$B$2,B17 &lt;=ROUND($P$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B17&gt;ROUND($P$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($P$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C18)*0.01,0),P16))</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q17" s="37">
         <f ca="1">IF(OR(B17=1,'M&amp;E Property Good Factor'!P18&gt;'Trends Settings '!$B$2),
@@ -9595,7 +8980,7 @@
 IF(OR('M&amp;E Property Good Factor'!Q17 &gt; 'Trends Settings '!$B$2,B17 &lt;=ROUND($R$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B17&gt;ROUND($R$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($R$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C18)*0.01,0),R16))</f>
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S17" s="37">
         <f ca="1">IF(OR(B17=1,'M&amp;E Property Good Factor'!R18&gt;'Trends Settings '!$B$2),
@@ -9605,7 +8990,7 @@
 IF(OR('M&amp;E Property Good Factor'!R17 &gt; 'Trends Settings '!$B$2,B17 &lt;=ROUND($S$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B17&gt;ROUND($S$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($S$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C18)*0.01,0),S16))</f>
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T17" s="37">
         <f ca="1">IF(OR(B17=1,'M&amp;E Property Good Factor'!S18&gt;'Trends Settings '!$B$2),
@@ -9635,7 +9020,7 @@
 IF(OR('M&amp;E Property Good Factor'!U17 &gt; 'Trends Settings '!$B$2,B17 &lt;=ROUND($V$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B17&gt;ROUND($V$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($V$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C18)*0.01,0),V16))</f>
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W17" s="37">
         <f ca="1">IF(OR(B17=1,'M&amp;E Property Good Factor'!V18&gt;'Trends Settings '!$B$2),
@@ -9645,7 +9030,7 @@
 IF(OR('M&amp;E Property Good Factor'!V17 &gt; 'Trends Settings '!$B$2,B17 &lt;=ROUND($W$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B17&gt;ROUND($W$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($W$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C18)*0.01,0),W16))</f>
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:23" ht="12.75" customHeight="1">
@@ -9827,7 +9212,7 @@
 IF(OR('M&amp;E Property Good Factor'!S18 &gt; 'Trends Settings '!$B$2,B18 &lt;=ROUND($T$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B18&gt;ROUND($T$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($T$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C19)*0.01,0),T17))</f>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U18" s="37">
         <f ca="1">IF(OR(B18=1,'M&amp;E Property Good Factor'!T19&gt;'Trends Settings '!$B$2),
@@ -9857,7 +9242,7 @@
 IF(OR('M&amp;E Property Good Factor'!V18 &gt; 'Trends Settings '!$B$2,B18 &lt;=ROUND($W$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B18&gt;ROUND($W$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($W$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C19)*0.01,0),W17))</f>
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:23" ht="12.75" customHeight="1">
@@ -9999,7 +9384,7 @@
 IF(OR('M&amp;E Property Good Factor'!O19 &gt; 'Trends Settings '!$B$2,B19 &lt;=ROUND($P$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B19&gt;ROUND($P$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($P$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C20)*0.01,0),P18))</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q19" s="37">
         <f ca="1">IF(OR(B19=1,'M&amp;E Property Good Factor'!P20&gt;'Trends Settings '!$B$2),
@@ -10019,7 +9404,7 @@
 IF(OR('M&amp;E Property Good Factor'!Q19 &gt; 'Trends Settings '!$B$2,B19 &lt;=ROUND($R$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B19&gt;ROUND($R$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($R$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C20)*0.01,0),R18))</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S19" s="37">
         <f ca="1">IF(OR(B19=1,'M&amp;E Property Good Factor'!R20&gt;'Trends Settings '!$B$2),
@@ -10039,7 +9424,7 @@
 IF(OR('M&amp;E Property Good Factor'!S19 &gt; 'Trends Settings '!$B$2,B19 &lt;=ROUND($T$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B19&gt;ROUND($T$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($T$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C20)*0.01,0),T18))</f>
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="U19" s="37">
         <f ca="1">IF(OR(B19=1,'M&amp;E Property Good Factor'!T20&gt;'Trends Settings '!$B$2),
@@ -10201,7 +9586,7 @@
 IF(OR('M&amp;E Property Good Factor'!N20 &gt; 'Trends Settings '!$B$2,B20 &lt;=ROUND($O$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B20&gt;ROUND($O$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($O$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C21)*0.01,0),O19))</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P20" s="37">
         <f ca="1">IF(OR(B20=1,'M&amp;E Property Good Factor'!O21&gt;'Trends Settings '!$B$2),
@@ -10261,7 +9646,7 @@
 IF(OR('M&amp;E Property Good Factor'!T20 &gt; 'Trends Settings '!$B$2,B20 &lt;=ROUND($U$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B20&gt;ROUND($U$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($U$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C21)*0.01,0),U19))</f>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V20" s="37">
         <f ca="1">IF(OR(B20=1,'M&amp;E Property Good Factor'!U21&gt;'Trends Settings '!$B$2),
@@ -10453,7 +9838,7 @@
 IF(OR('M&amp;E Property Good Factor'!R21 &gt; 'Trends Settings '!$B$2,B21 &lt;=ROUND($S$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B21&gt;ROUND($S$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($S$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C22)*0.01,0),S20))</f>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="T21" s="37">
         <f ca="1">IF(OR(B21=1,'M&amp;E Property Good Factor'!S22&gt;'Trends Settings '!$B$2),
@@ -10635,7 +10020,7 @@
 IF(OR('M&amp;E Property Good Factor'!O22 &gt; 'Trends Settings '!$B$2,B22 &lt;=ROUND($P$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B22&gt;ROUND($P$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($P$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C23)*0.01,0),P21))</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q22" s="37">
         <f ca="1">IF(OR(B22=1,'M&amp;E Property Good Factor'!P23&gt;'Trends Settings '!$B$2),
@@ -10645,7 +10030,7 @@
 IF(OR('M&amp;E Property Good Factor'!P22 &gt; 'Trends Settings '!$B$2,B22 &lt;=ROUND($Q$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B22&gt;ROUND($Q$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($Q$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C23)*0.01,0),Q21))</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R22" s="37">
         <f ca="1">IF(OR(B22=1,'M&amp;E Property Good Factor'!Q23&gt;'Trends Settings '!$B$2),
@@ -10685,7 +10070,7 @@
 IF(OR('M&amp;E Property Good Factor'!T22 &gt; 'Trends Settings '!$B$2,B22 &lt;=ROUND($U$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B22&gt;ROUND($U$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($U$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C23)*0.01,0),U21))</f>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="V22" s="37">
         <f ca="1">IF(OR(B22=1,'M&amp;E Property Good Factor'!U23&gt;'Trends Settings '!$B$2),
@@ -10877,7 +10262,7 @@
 IF(OR('M&amp;E Property Good Factor'!R23 &gt; 'Trends Settings '!$B$2,B23 &lt;=ROUND($S$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B23&gt;ROUND($S$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($S$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C24)*0.01,0),S22))</f>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T23" s="37">
         <f ca="1">IF(OR(B23=1,'M&amp;E Property Good Factor'!S24&gt;'Trends Settings '!$B$2),
@@ -11079,7 +10464,7 @@
 IF(OR('M&amp;E Property Good Factor'!Q24 &gt; 'Trends Settings '!$B$2,B24 &lt;=ROUND($R$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B24&gt;ROUND($R$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($R$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C25)*0.01,0),R23))</f>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S24" s="37">
         <f ca="1">IF(OR(B24=1,'M&amp;E Property Good Factor'!R25&gt;'Trends Settings '!$B$2),
@@ -11099,7 +10484,7 @@
 IF(OR('M&amp;E Property Good Factor'!S24 &gt; 'Trends Settings '!$B$2,B24 &lt;=ROUND($T$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B24&gt;ROUND($T$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($T$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C25)*0.01,0),T23))</f>
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U24" s="37">
         <f ca="1">IF(OR(B24=1,'M&amp;E Property Good Factor'!T25&gt;'Trends Settings '!$B$2),
@@ -11109,7 +10494,7 @@
 IF(OR('M&amp;E Property Good Factor'!T24 &gt; 'Trends Settings '!$B$2,B24 &lt;=ROUND($U$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B24&gt;ROUND($U$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($U$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C25)*0.01,0),U23))</f>
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V24" s="37">
         <f ca="1">IF(OR(B24=1,'M&amp;E Property Good Factor'!U25&gt;'Trends Settings '!$B$2),
@@ -11119,7 +10504,7 @@
 IF(OR('M&amp;E Property Good Factor'!U24 &gt; 'Trends Settings '!$B$2,B24 &lt;=ROUND($V$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B24&gt;ROUND($V$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($V$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C25)*0.01,0),V23))</f>
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="W24" s="37">
         <f ca="1">IF(OR(B24=1,'M&amp;E Property Good Factor'!V25&gt;'Trends Settings '!$B$2),
@@ -11129,7 +10514,7 @@
 IF(OR('M&amp;E Property Good Factor'!V24 &gt; 'Trends Settings '!$B$2,B24 &lt;=ROUND($W$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B24&gt;ROUND($W$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($W$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C25)*0.01,0),W23))</f>
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="12.75" customHeight="1">
@@ -11301,7 +10686,7 @@
 IF(OR('M&amp;E Property Good Factor'!R25 &gt; 'Trends Settings '!$B$2,B25 &lt;=ROUND($S$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B25&gt;ROUND($S$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($S$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C26)*0.01,0),S24))</f>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="T25" s="37">
         <f ca="1">IF(OR(B25=1,'M&amp;E Property Good Factor'!S26&gt;'Trends Settings '!$B$2),
@@ -11331,7 +10716,7 @@
 IF(OR('M&amp;E Property Good Factor'!U25 &gt; 'Trends Settings '!$B$2,B25 &lt;=ROUND($V$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B25&gt;ROUND($V$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($V$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C26)*0.01,0),V24))</f>
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="W25" s="37">
         <f ca="1">IF(OR(B25=1,'M&amp;E Property Good Factor'!V26&gt;'Trends Settings '!$B$2),
@@ -11341,7 +10726,7 @@
 IF(OR('M&amp;E Property Good Factor'!V25 &gt; 'Trends Settings '!$B$2,B25 &lt;=ROUND($W$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B25&gt;ROUND($W$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($W$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C26)*0.01,0),W24))</f>
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:23" ht="12.75" customHeight="1">
@@ -11503,7 +10888,7 @@
 IF(OR('M&amp;E Property Good Factor'!Q26 &gt; 'Trends Settings '!$B$2,B26 &lt;=ROUND($R$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B26&gt;ROUND($R$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($R$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C27)*0.01,0),R25))</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="S26" s="37">
         <f ca="1">IF(OR(B26=1,'M&amp;E Property Good Factor'!R27&gt;'Trends Settings '!$B$2),
@@ -11553,7 +10938,7 @@
 IF(OR('M&amp;E Property Good Factor'!V26 &gt; 'Trends Settings '!$B$2,B26 &lt;=ROUND($W$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B26&gt;ROUND($W$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($W$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C27)*0.01,0),W25))</f>
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:23" ht="12.75" customHeight="1">
@@ -11725,7 +11110,7 @@
 IF(OR('M&amp;E Property Good Factor'!R27 &gt; 'Trends Settings '!$B$2,B27 &lt;=ROUND($S$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B27&gt;ROUND($S$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($S$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C28)*0.01,0),S26))</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T27" s="37">
         <f ca="1">IF(OR(B27=1,'M&amp;E Property Good Factor'!S28&gt;'Trends Settings '!$B$2),
@@ -11735,7 +11120,7 @@
 IF(OR('M&amp;E Property Good Factor'!S27 &gt; 'Trends Settings '!$B$2,B27 &lt;=ROUND($T$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B27&gt;ROUND($T$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($T$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C28)*0.01,0),T26))</f>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U27" s="37">
         <f ca="1">IF(OR(B27=1,'M&amp;E Property Good Factor'!T28&gt;'Trends Settings '!$B$2),
@@ -11745,7 +11130,7 @@
 IF(OR('M&amp;E Property Good Factor'!T27 &gt; 'Trends Settings '!$B$2,B27 &lt;=ROUND($U$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B27&gt;ROUND($U$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($U$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C28)*0.01,0),U26))</f>
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V27" s="37">
         <f ca="1">IF(OR(B27=1,'M&amp;E Property Good Factor'!U28&gt;'Trends Settings '!$B$2),
@@ -11755,7 +11140,7 @@
 IF(OR('M&amp;E Property Good Factor'!U27 &gt; 'Trends Settings '!$B$2,B27 &lt;=ROUND($V$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B27&gt;ROUND($V$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($V$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C28)*0.01,0),V26))</f>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W27" s="37">
         <f ca="1">IF(OR(B27=1,'M&amp;E Property Good Factor'!V28&gt;'Trends Settings '!$B$2),
@@ -11957,7 +11342,7 @@
 IF(OR('M&amp;E Property Good Factor'!T28 &gt; 'Trends Settings '!$B$2,B28 &lt;=ROUND($U$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B28&gt;ROUND($U$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($U$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C29)*0.01,0),U27))</f>
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="V28" s="37">
         <f ca="1">IF(OR(B28=1,'M&amp;E Property Good Factor'!U29&gt;'Trends Settings '!$B$2),
@@ -11967,7 +11352,7 @@
 IF(OR('M&amp;E Property Good Factor'!U28 &gt; 'Trends Settings '!$B$2,B28 &lt;=ROUND($V$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B28&gt;ROUND($V$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($V$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C29)*0.01,0),V27))</f>
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W28" s="37">
         <f ca="1">IF(OR(B28=1,'M&amp;E Property Good Factor'!V29&gt;'Trends Settings '!$B$2),
@@ -12149,7 +11534,7 @@
 IF(OR('M&amp;E Property Good Factor'!R29 &gt; 'Trends Settings '!$B$2,B29 &lt;=ROUND($S$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B29&gt;ROUND($S$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($S$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C30)*0.01,0),S28))</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="T29" s="37">
         <f ca="1">IF(OR(B29=1,'M&amp;E Property Good Factor'!S30&gt;'Trends Settings '!$B$2),
@@ -12159,7 +11544,7 @@
 IF(OR('M&amp;E Property Good Factor'!S29 &gt; 'Trends Settings '!$B$2,B29 &lt;=ROUND($T$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B29&gt;ROUND($T$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($T$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C30)*0.01,0),T28))</f>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U29" s="37">
         <f ca="1">IF(OR(B29=1,'M&amp;E Property Good Factor'!T30&gt;'Trends Settings '!$B$2),
@@ -12169,7 +11554,7 @@
 IF(OR('M&amp;E Property Good Factor'!T29 &gt; 'Trends Settings '!$B$2,B29 &lt;=ROUND($U$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B29&gt;ROUND($U$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($U$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C30)*0.01,0),U28))</f>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="V29" s="37">
         <f ca="1">IF(OR(B29=1,'M&amp;E Property Good Factor'!U30&gt;'Trends Settings '!$B$2),
@@ -12361,7 +11746,7 @@
 IF(OR('M&amp;E Property Good Factor'!R30 &gt; 'Trends Settings '!$B$2,B30 &lt;=ROUND($S$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B30&gt;ROUND($S$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($S$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C31)*0.01,0),S29))</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="T30" s="37">
         <f ca="1">IF(OR(B30=1,'M&amp;E Property Good Factor'!S31&gt;'Trends Settings '!$B$2),
@@ -12391,7 +11776,7 @@
 IF(OR('M&amp;E Property Good Factor'!U30 &gt; 'Trends Settings '!$B$2,B30 &lt;=ROUND($V$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B30&gt;ROUND($V$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($V$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C31)*0.01,0),V29))</f>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="W30" s="37">
         <f ca="1">IF(OR(B30=1,'M&amp;E Property Good Factor'!V31&gt;'Trends Settings '!$B$2),
@@ -12401,7 +11786,7 @@
 IF(OR('M&amp;E Property Good Factor'!V30 &gt; 'Trends Settings '!$B$2,B30 &lt;=ROUND($W$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B30&gt;ROUND($W$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($W$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C31)*0.01,0),W29))</f>
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="12.75" customHeight="1">
@@ -12583,7 +11968,7 @@
 IF(OR('M&amp;E Property Good Factor'!S31 &gt; 'Trends Settings '!$B$2,B31 &lt;=ROUND($T$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B31&gt;ROUND($T$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($T$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C32)*0.01,0),T30))</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="U31" s="37">
         <f ca="1">IF(OR(B31=1,'M&amp;E Property Good Factor'!T32&gt;'Trends Settings '!$B$2),
@@ -12593,7 +11978,7 @@
 IF(OR('M&amp;E Property Good Factor'!T31 &gt; 'Trends Settings '!$B$2,B31 &lt;=ROUND($U$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B31&gt;ROUND($U$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($U$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C32)*0.01,0),U30))</f>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="V31" s="37">
         <f ca="1">IF(OR(B31=1,'M&amp;E Property Good Factor'!U32&gt;'Trends Settings '!$B$2),
@@ -12613,7 +11998,7 @@
 IF(OR('M&amp;E Property Good Factor'!V31 &gt; 'Trends Settings '!$B$2,B31 &lt;=ROUND($W$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B31&gt;ROUND($W$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($W$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C32)*0.01,0),W30))</f>
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="12.75" customHeight="1">
@@ -12795,7 +12180,7 @@
 IF(OR('M&amp;E Property Good Factor'!S32 &gt; 'Trends Settings '!$B$2,B32 &lt;=ROUND($T$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B32&gt;ROUND($T$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($T$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C33)*0.01,0),T31))</f>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U32" s="37">
         <f ca="1">IF(OR(B32=1,'M&amp;E Property Good Factor'!T33&gt;'Trends Settings '!$B$2),
@@ -12815,7 +12200,7 @@
 IF(OR('M&amp;E Property Good Factor'!U32 &gt; 'Trends Settings '!$B$2,B32 &lt;=ROUND($V$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B32&gt;ROUND($V$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($V$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C33)*0.01,0),V31))</f>
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="W32" s="37">
         <f ca="1">IF(OR(B32=1,'M&amp;E Property Good Factor'!V33&gt;'Trends Settings '!$B$2),
@@ -12825,7 +12210,7 @@
 IF(OR('M&amp;E Property Good Factor'!V32 &gt; 'Trends Settings '!$B$2,B32 &lt;=ROUND($W$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B32&gt;ROUND($W$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($W$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C33)*0.01,0),W31))</f>
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:23" ht="12.75" customHeight="1">
@@ -13007,7 +12392,7 @@
 IF(OR('M&amp;E Property Good Factor'!S33 &gt; 'Trends Settings '!$B$2,B33 &lt;=ROUND($T$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B33&gt;ROUND($T$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($T$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C34)*0.01,0),T32))</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="U33" s="37">
         <f ca="1">IF(OR(B33=1,'M&amp;E Property Good Factor'!T34&gt;'Trends Settings '!$B$2),
@@ -13037,7 +12422,7 @@
 IF(OR('M&amp;E Property Good Factor'!V33 &gt; 'Trends Settings '!$B$2,B33 &lt;=ROUND($W$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B33&gt;ROUND($W$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($W$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C34)*0.01,0),W32))</f>
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:23" ht="12.75" customHeight="1">
@@ -13219,7 +12604,7 @@
 IF(OR('M&amp;E Property Good Factor'!S34 &gt; 'Trends Settings '!$B$2,B34 &lt;=ROUND($T$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B34&gt;ROUND($T$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($T$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C35)*0.01,0),T33))</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U34" s="37">
         <f ca="1">IF(OR(B34=1,'M&amp;E Property Good Factor'!T35&gt;'Trends Settings '!$B$2),
@@ -13249,7 +12634,7 @@
 IF(OR('M&amp;E Property Good Factor'!V34 &gt; 'Trends Settings '!$B$2,B34 &lt;=ROUND($W$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B34&gt;ROUND($W$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($W$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C35)*0.01,0),W33))</f>
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="12.75" customHeight="1">
@@ -13431,7 +12816,7 @@
 IF(OR('M&amp;E Property Good Factor'!S35 &gt; 'Trends Settings '!$B$2,B35 &lt;=ROUND($T$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B35&gt;ROUND($T$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($T$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C36)*0.01,0),T34))</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U35" s="37">
         <f ca="1">IF(OR(B35=1,'M&amp;E Property Good Factor'!T36&gt;'Trends Settings '!$B$2),
@@ -13461,7 +12846,7 @@
 IF(OR('M&amp;E Property Good Factor'!V35 &gt; 'Trends Settings '!$B$2,B35 &lt;=ROUND($W$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B35&gt;ROUND($W$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($W$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C36)*0.01,0),W34))</f>
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="12.75" customHeight="1">
@@ -13663,7 +13048,7 @@
 IF(OR('M&amp;E Property Good Factor'!U36 &gt; 'Trends Settings '!$B$2,B36 &lt;=ROUND($V$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B36&gt;ROUND($V$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($V$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C37)*0.01,0),V35))</f>
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W36" s="37">
         <f ca="1">IF(OR(B36=1,'M&amp;E Property Good Factor'!V37&gt;'Trends Settings '!$B$2),
@@ -13673,7 +13058,7 @@
 IF(OR('M&amp;E Property Good Factor'!V36 &gt; 'Trends Settings '!$B$2,B36 &lt;=ROUND($W$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B36&gt;ROUND($W$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($W$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C37)*0.01,0),W35))</f>
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:23" ht="12.75" customHeight="1">
@@ -13875,7 +13260,7 @@
 IF(OR('M&amp;E Property Good Factor'!U37 &gt; 'Trends Settings '!$B$2,B37 &lt;=ROUND($V$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B37&gt;ROUND($V$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($V$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C38)*0.01,0),V36))</f>
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="W37" s="37">
         <f ca="1">IF(OR(B37=1,'M&amp;E Property Good Factor'!V38&gt;'Trends Settings '!$B$2),
@@ -13885,7 +13270,7 @@
 IF(OR('M&amp;E Property Good Factor'!V37 &gt; 'Trends Settings '!$B$2,B37 &lt;=ROUND($W$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B37&gt;ROUND($W$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($W$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C38)*0.01,0),W36))</f>
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="12.75" customHeight="1">
@@ -14087,7 +13472,7 @@
 IF(OR('M&amp;E Property Good Factor'!U38 &gt; 'Trends Settings '!$B$2,B38 &lt;=ROUND($V$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B38&gt;ROUND($V$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($V$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C39)*0.01,0),V37))</f>
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W38" s="37">
         <f ca="1">IF(OR(B38=1,'M&amp;E Property Good Factor'!V39&gt;'Trends Settings '!$B$2),
@@ -14501,7 +13886,7 @@
 IF(OR('M&amp;E Property Good Factor'!T40 &gt; 'Trends Settings '!$B$2,B40 &lt;=ROUND($U$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B40&gt;ROUND($U$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($U$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C41)*0.01,0),U39))</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="V40" s="37">
         <f ca="1">IF(OR(B40=1,'M&amp;E Property Good Factor'!U41&gt;'Trends Settings '!$B$2),
@@ -14511,7 +13896,7 @@
 IF(OR('M&amp;E Property Good Factor'!U40 &gt; 'Trends Settings '!$B$2,B40 &lt;=ROUND($V$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B40&gt;ROUND($V$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($V$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C41)*0.01,0),V39))</f>
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="W40" s="37">
         <f ca="1">IF(OR(B40=1,'M&amp;E Property Good Factor'!V41&gt;'Trends Settings '!$B$2),
@@ -14733,7 +14118,7 @@
 IF(OR('M&amp;E Property Good Factor'!V41 &gt; 'Trends Settings '!$B$2,B41 &lt;=ROUND($W$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$2*
 IF(B41&gt;ROUND($W$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!C"&amp;TEXT(ROUND(($W$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!C42)*0.01,0),W40))</f>
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -15091,7 +14476,7 @@
 IF(OR('M&amp;E Property Good Factor'!E3 &gt; 'Trends Settings '!$B$3,B3 &lt;=ROUND($F$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B3&gt;ROUND($F$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($F$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B4)*0.01,0),F2))</f>
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G3" s="37">
         <f ca="1">IF(OR(B3=1,'M&amp;E Property Good Factor'!F4&gt;'Trends Settings '!$B$3),
@@ -15121,7 +14506,7 @@
 IF(OR('M&amp;E Property Good Factor'!H3 &gt; 'Trends Settings '!$B$3,B3 &lt;=ROUND($I$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B3&gt;ROUND($I$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($I$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B4)*0.01,0),I2))</f>
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J3" s="37">
         <f ca="1">IF(OR(B3=1,'M&amp;E Property Good Factor'!I4&gt;'Trends Settings '!$B$3),
@@ -15151,7 +14536,7 @@
 IF(OR('M&amp;E Property Good Factor'!K3 &gt; 'Trends Settings '!$B$3,B3 &lt;=ROUND($L$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B3&gt;ROUND($L$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($L$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B4)*0.01,0),L2))</f>
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M3" s="37">
         <f ca="1">IF(OR(B3=1,'M&amp;E Property Good Factor'!L4&gt;'Trends Settings '!$B$3),
@@ -15171,7 +14556,7 @@
 IF(OR('M&amp;E Property Good Factor'!M3 &gt; 'Trends Settings '!$B$3,B3 &lt;=ROUND($N$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B3&gt;ROUND($N$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($N$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B4)*0.01,0),N2))</f>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O3" s="37">
         <f ca="1">IF(OR(B3=1,'M&amp;E Property Good Factor'!N4&gt;'Trends Settings '!$B$3),
@@ -15191,7 +14576,7 @@
 IF(OR('M&amp;E Property Good Factor'!O3 &gt; 'Trends Settings '!$B$3,B3 &lt;=ROUND($P$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B3&gt;ROUND($P$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($P$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B4)*0.01,0),P2))</f>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q3" s="37">
         <f ca="1">IF(OR(B3=1,'M&amp;E Property Good Factor'!P4&gt;'Trends Settings '!$B$3),
@@ -15211,7 +14596,7 @@
 IF(OR('M&amp;E Property Good Factor'!Q3 &gt; 'Trends Settings '!$B$3,B3 &lt;=ROUND($R$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B3&gt;ROUND($R$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($R$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B4)*0.01,0),R2))</f>
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="S3" s="37">
         <f ca="1">IF(OR(B3=1,'M&amp;E Property Good Factor'!R4&gt;'Trends Settings '!$B$3),
@@ -15221,7 +14606,7 @@
 IF(OR('M&amp;E Property Good Factor'!R3 &gt; 'Trends Settings '!$B$3,B3 &lt;=ROUND($S$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B3&gt;ROUND($S$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($S$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B4)*0.01,0),S2))</f>
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="T3" s="37">
         <f ca="1">IF(OR(B3=1,'M&amp;E Property Good Factor'!S4&gt;'Trends Settings '!$B$3),
@@ -15231,7 +14616,7 @@
 IF(OR('M&amp;E Property Good Factor'!S3 &gt; 'Trends Settings '!$B$3,B3 &lt;=ROUND($T$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B3&gt;ROUND($T$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($T$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B4)*0.01,0),T2))</f>
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="U3" s="37">
         <f ca="1">IF(OR(B3=1,'M&amp;E Property Good Factor'!T4&gt;'Trends Settings '!$B$3),
@@ -15323,7 +14708,7 @@
 IF(OR('M&amp;E Property Good Factor'!G4 &gt; 'Trends Settings '!$B$3,B4 &lt;=ROUND($H$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B4&gt;ROUND($H$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($H$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B5)*0.01,0),H3))</f>
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I4" s="37">
         <f ca="1">IF(OR(B4=1,'M&amp;E Property Good Factor'!H5&gt;'Trends Settings '!$B$3),
@@ -15353,7 +14738,7 @@
 IF(OR('M&amp;E Property Good Factor'!J4 &gt; 'Trends Settings '!$B$3,B4 &lt;=ROUND($K$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B4&gt;ROUND($K$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($K$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B5)*0.01,0),K3))</f>
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L4" s="37">
         <f ca="1">IF(OR(B4=1,'M&amp;E Property Good Factor'!K5&gt;'Trends Settings '!$B$3),
@@ -15383,7 +14768,7 @@
 IF(OR('M&amp;E Property Good Factor'!M4 &gt; 'Trends Settings '!$B$3,B4 &lt;=ROUND($N$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B4&gt;ROUND($N$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($N$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B5)*0.01,0),N3))</f>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O4" s="37">
         <f ca="1">IF(OR(B4=1,'M&amp;E Property Good Factor'!N5&gt;'Trends Settings '!$B$3),
@@ -15453,7 +14838,7 @@
 IF(OR('M&amp;E Property Good Factor'!T4 &gt; 'Trends Settings '!$B$3,B4 &lt;=ROUND($U$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B4&gt;ROUND($U$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($U$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B5)*0.01,0),U3))</f>
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="V4" s="37">
         <f ca="1">IF(OR(B4=1,'M&amp;E Property Good Factor'!U5&gt;'Trends Settings '!$B$3),
@@ -15515,7 +14900,7 @@
 IF(OR('M&amp;E Property Good Factor'!E5 &gt; 'Trends Settings '!$B$3,B5 &lt;=ROUND($F$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B5&gt;ROUND($F$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($F$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B6)*0.01,0),F4))</f>
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G5" s="37">
         <f ca="1">IF(OR(B5=1,'M&amp;E Property Good Factor'!F6&gt;'Trends Settings '!$B$3),
@@ -15535,7 +14920,7 @@
 IF(OR('M&amp;E Property Good Factor'!G5 &gt; 'Trends Settings '!$B$3,B5 &lt;=ROUND($H$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B5&gt;ROUND($H$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($H$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B6)*0.01,0),H4))</f>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I5" s="37">
         <f ca="1">IF(OR(B5=1,'M&amp;E Property Good Factor'!H6&gt;'Trends Settings '!$B$3),
@@ -15575,7 +14960,7 @@
 IF(OR('M&amp;E Property Good Factor'!K5 &gt; 'Trends Settings '!$B$3,B5 &lt;=ROUND($L$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B5&gt;ROUND($L$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($L$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B6)*0.01,0),L4))</f>
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M5" s="37">
         <f ca="1">IF(OR(B5=1,'M&amp;E Property Good Factor'!L6&gt;'Trends Settings '!$B$3),
@@ -15625,7 +15010,7 @@
 IF(OR('M&amp;E Property Good Factor'!P5 &gt; 'Trends Settings '!$B$3,B5 &lt;=ROUND($Q$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B5&gt;ROUND($Q$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($Q$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B6)*0.01,0),Q4))</f>
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="R5" s="37">
         <f ca="1">IF(OR(B5=1,'M&amp;E Property Good Factor'!Q6&gt;'Trends Settings '!$B$3),
@@ -15635,7 +15020,7 @@
 IF(OR('M&amp;E Property Good Factor'!Q5 &gt; 'Trends Settings '!$B$3,B5 &lt;=ROUND($R$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B5&gt;ROUND($R$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($R$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B6)*0.01,0),R4))</f>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="S5" s="37">
         <f ca="1">IF(OR(B5=1,'M&amp;E Property Good Factor'!R6&gt;'Trends Settings '!$B$3),
@@ -15645,7 +15030,7 @@
 IF(OR('M&amp;E Property Good Factor'!R5 &gt; 'Trends Settings '!$B$3,B5 &lt;=ROUND($S$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B5&gt;ROUND($S$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($S$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B6)*0.01,0),S4))</f>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="T5" s="37">
         <f ca="1">IF(OR(B5=1,'M&amp;E Property Good Factor'!S6&gt;'Trends Settings '!$B$3),
@@ -15717,7 +15102,7 @@
 IF(OR('M&amp;E Property Good Factor'!D6 &gt; 'Trends Settings '!$B$3,B6 &lt;=ROUND($E$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B6&gt;ROUND($E$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($E$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B7)*0.01,0),E5))</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F6" s="37">
         <f ca="1">IF(OR(B6=1,'M&amp;E Property Good Factor'!E7&gt;'Trends Settings '!$B$3),
@@ -15727,7 +15112,7 @@
 IF(OR('M&amp;E Property Good Factor'!E6 &gt; 'Trends Settings '!$B$3,B6 &lt;=ROUND($F$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B6&gt;ROUND($F$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($F$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B7)*0.01,0),F5))</f>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G6" s="37">
         <f ca="1">IF(OR(B6=1,'M&amp;E Property Good Factor'!F7&gt;'Trends Settings '!$B$3),
@@ -15737,7 +15122,7 @@
 IF(OR('M&amp;E Property Good Factor'!F6 &gt; 'Trends Settings '!$B$3,B6 &lt;=ROUND($G$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B6&gt;ROUND($G$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($G$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B7)*0.01,0),G5))</f>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H6" s="37">
         <f ca="1">IF(OR(B6=1,'M&amp;E Property Good Factor'!G7&gt;'Trends Settings '!$B$3),
@@ -15757,7 +15142,7 @@
 IF(OR('M&amp;E Property Good Factor'!H6 &gt; 'Trends Settings '!$B$3,B6 &lt;=ROUND($I$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B6&gt;ROUND($I$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($I$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B7)*0.01,0),I5))</f>
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J6" s="37">
         <f ca="1">IF(OR(B6=1,'M&amp;E Property Good Factor'!I7&gt;'Trends Settings '!$B$3),
@@ -15857,7 +15242,7 @@
 IF(OR('M&amp;E Property Good Factor'!R6 &gt; 'Trends Settings '!$B$3,B6 &lt;=ROUND($S$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B6&gt;ROUND($S$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($S$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B7)*0.01,0),S5))</f>
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="T6" s="37">
         <f ca="1">IF(OR(B6=1,'M&amp;E Property Good Factor'!S7&gt;'Trends Settings '!$B$3),
@@ -15959,7 +15344,7 @@
 IF(OR('M&amp;E Property Good Factor'!G7 &gt; 'Trends Settings '!$B$3,B7 &lt;=ROUND($H$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B7&gt;ROUND($H$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($H$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B8)*0.01,0),H6))</f>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I7" s="37">
         <f ca="1">IF(OR(B7=1,'M&amp;E Property Good Factor'!H8&gt;'Trends Settings '!$B$3),
@@ -15999,7 +15384,7 @@
 IF(OR('M&amp;E Property Good Factor'!K7 &gt; 'Trends Settings '!$B$3,B7 &lt;=ROUND($L$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B7&gt;ROUND($L$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($L$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B8)*0.01,0),L6))</f>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M7" s="37">
         <f ca="1">IF(OR(B7=1,'M&amp;E Property Good Factor'!L8&gt;'Trends Settings '!$B$3),
@@ -16009,7 +15394,7 @@
 IF(OR('M&amp;E Property Good Factor'!L7 &gt; 'Trends Settings '!$B$3,B7 &lt;=ROUND($M$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B7&gt;ROUND($M$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($M$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B8)*0.01,0),M6))</f>
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N7" s="37">
         <f ca="1">IF(OR(B7=1,'M&amp;E Property Good Factor'!M8&gt;'Trends Settings '!$B$3),
@@ -16029,7 +15414,7 @@
 IF(OR('M&amp;E Property Good Factor'!N7 &gt; 'Trends Settings '!$B$3,B7 &lt;=ROUND($O$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B7&gt;ROUND($O$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($O$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B8)*0.01,0),O6))</f>
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P7" s="37">
         <f ca="1">IF(OR(B7=1,'M&amp;E Property Good Factor'!O8&gt;'Trends Settings '!$B$3),
@@ -16059,7 +15444,7 @@
 IF(OR('M&amp;E Property Good Factor'!Q7 &gt; 'Trends Settings '!$B$3,B7 &lt;=ROUND($R$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B7&gt;ROUND($R$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($R$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B8)*0.01,0),R6))</f>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="S7" s="37">
         <f ca="1">IF(OR(B7=1,'M&amp;E Property Good Factor'!R8&gt;'Trends Settings '!$B$3),
@@ -16069,7 +15454,7 @@
 IF(OR('M&amp;E Property Good Factor'!R7 &gt; 'Trends Settings '!$B$3,B7 &lt;=ROUND($S$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B7&gt;ROUND($S$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($S$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B8)*0.01,0),S6))</f>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="T7" s="37">
         <f ca="1">IF(OR(B7=1,'M&amp;E Property Good Factor'!S8&gt;'Trends Settings '!$B$3),
@@ -16109,7 +15494,7 @@
 IF(OR('M&amp;E Property Good Factor'!V7 &gt; 'Trends Settings '!$B$3,B7 &lt;=ROUND($W$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B7&gt;ROUND($W$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($W$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B8)*0.01,0),W6))</f>
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="12.75" customHeight="1">
@@ -16151,7 +15536,7 @@
 IF(OR('M&amp;E Property Good Factor'!E8 &gt; 'Trends Settings '!$B$3,B8 &lt;=ROUND($F$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B8&gt;ROUND($F$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($F$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B9)*0.01,0),F7))</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G8" s="37">
         <f ca="1">IF(OR(B8=1,'M&amp;E Property Good Factor'!F9&gt;'Trends Settings '!$B$3),
@@ -16161,7 +15546,7 @@
 IF(OR('M&amp;E Property Good Factor'!F8 &gt; 'Trends Settings '!$B$3,B8 &lt;=ROUND($G$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B8&gt;ROUND($G$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($G$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B9)*0.01,0),G7))</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H8" s="37">
         <f ca="1">IF(OR(B8=1,'M&amp;E Property Good Factor'!G9&gt;'Trends Settings '!$B$3),
@@ -16171,7 +15556,7 @@
 IF(OR('M&amp;E Property Good Factor'!G8 &gt; 'Trends Settings '!$B$3,B8 &lt;=ROUND($H$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B8&gt;ROUND($H$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($H$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B9)*0.01,0),H7))</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I8" s="37">
         <f ca="1">IF(OR(B8=1,'M&amp;E Property Good Factor'!H9&gt;'Trends Settings '!$B$3),
@@ -16181,7 +15566,7 @@
 IF(OR('M&amp;E Property Good Factor'!H8 &gt; 'Trends Settings '!$B$3,B8 &lt;=ROUND($I$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B8&gt;ROUND($I$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($I$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B9)*0.01,0),I7))</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J8" s="37">
         <f ca="1">IF(OR(B8=1,'M&amp;E Property Good Factor'!I9&gt;'Trends Settings '!$B$3),
@@ -16201,7 +15586,7 @@
 IF(OR('M&amp;E Property Good Factor'!J8 &gt; 'Trends Settings '!$B$3,B8 &lt;=ROUND($K$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B8&gt;ROUND($K$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($K$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B9)*0.01,0),K7))</f>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L8" s="37">
         <f ca="1">IF(OR(B8=1,'M&amp;E Property Good Factor'!K9&gt;'Trends Settings '!$B$3),
@@ -16261,7 +15646,7 @@
 IF(OR('M&amp;E Property Good Factor'!P8 &gt; 'Trends Settings '!$B$3,B8 &lt;=ROUND($Q$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B8&gt;ROUND($Q$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($Q$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B9)*0.01,0),Q7))</f>
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R8" s="37">
         <f ca="1">IF(OR(B8=1,'M&amp;E Property Good Factor'!Q9&gt;'Trends Settings '!$B$3),
@@ -16403,7 +15788,7 @@
 IF(OR('M&amp;E Property Good Factor'!I9 &gt; 'Trends Settings '!$B$3,B9 &lt;=ROUND($J$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B9&gt;ROUND($J$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($J$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B10)*0.01,0),J8))</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K9" s="37">
         <f ca="1">IF(OR(B9=1,'M&amp;E Property Good Factor'!J10&gt;'Trends Settings '!$B$3),
@@ -16413,7 +15798,7 @@
 IF(OR('M&amp;E Property Good Factor'!J9 &gt; 'Trends Settings '!$B$3,B9 &lt;=ROUND($K$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B9&gt;ROUND($K$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($K$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B10)*0.01,0),K8))</f>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L9" s="37">
         <f ca="1">IF(OR(B9=1,'M&amp;E Property Good Factor'!K10&gt;'Trends Settings '!$B$3),
@@ -16453,7 +15838,7 @@
 IF(OR('M&amp;E Property Good Factor'!N9 &gt; 'Trends Settings '!$B$3,B9 &lt;=ROUND($O$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B9&gt;ROUND($O$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($O$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B10)*0.01,0),O8))</f>
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P9" s="37">
         <f ca="1">IF(OR(B9=1,'M&amp;E Property Good Factor'!O10&gt;'Trends Settings '!$B$3),
@@ -16625,7 +16010,7 @@
 IF(OR('M&amp;E Property Good Factor'!J10 &gt; 'Trends Settings '!$B$3,B10 &lt;=ROUND($K$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B10&gt;ROUND($K$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($K$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B11)*0.01,0),K9))</f>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L10" s="37">
         <f ca="1">IF(OR(B10=1,'M&amp;E Property Good Factor'!K11&gt;'Trends Settings '!$B$3),
@@ -16635,7 +16020,7 @@
 IF(OR('M&amp;E Property Good Factor'!K10 &gt; 'Trends Settings '!$B$3,B10 &lt;=ROUND($L$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B10&gt;ROUND($L$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($L$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B11)*0.01,0),L9))</f>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M10" s="37">
         <f ca="1">IF(OR(B10=1,'M&amp;E Property Good Factor'!L11&gt;'Trends Settings '!$B$3),
@@ -16655,7 +16040,7 @@
 IF(OR('M&amp;E Property Good Factor'!M10 &gt; 'Trends Settings '!$B$3,B10 &lt;=ROUND($N$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B10&gt;ROUND($N$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($N$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B11)*0.01,0),N9))</f>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O10" s="37">
         <f ca="1">IF(OR(B10=1,'M&amp;E Property Good Factor'!N11&gt;'Trends Settings '!$B$3),
@@ -16705,7 +16090,7 @@
 IF(OR('M&amp;E Property Good Factor'!R10 &gt; 'Trends Settings '!$B$3,B10 &lt;=ROUND($S$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B10&gt;ROUND($S$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($S$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B11)*0.01,0),S9))</f>
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T10" s="37">
         <f ca="1">IF(OR(B10=1,'M&amp;E Property Good Factor'!S11&gt;'Trends Settings '!$B$3),
@@ -16735,7 +16120,7 @@
 IF(OR('M&amp;E Property Good Factor'!U10 &gt; 'Trends Settings '!$B$3,B10 &lt;=ROUND($V$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B10&gt;ROUND($V$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($V$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B11)*0.01,0),V9))</f>
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W10" s="37">
         <f ca="1">IF(OR(B10=1,'M&amp;E Property Good Factor'!V11&gt;'Trends Settings '!$B$3),
@@ -16817,7 +16202,7 @@
 IF(OR('M&amp;E Property Good Factor'!H11 &gt; 'Trends Settings '!$B$3,B11 &lt;=ROUND($I$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B11&gt;ROUND($I$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($I$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B12)*0.01,0),I10))</f>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J11" s="37">
         <f ca="1">IF(OR(B11=1,'M&amp;E Property Good Factor'!I12&gt;'Trends Settings '!$B$3),
@@ -16827,7 +16212,7 @@
 IF(OR('M&amp;E Property Good Factor'!I11 &gt; 'Trends Settings '!$B$3,B11 &lt;=ROUND($J$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B11&gt;ROUND($J$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($J$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B12)*0.01,0),J10))</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K11" s="37">
         <f ca="1">IF(OR(B11=1,'M&amp;E Property Good Factor'!J12&gt;'Trends Settings '!$B$3),
@@ -16837,7 +16222,7 @@
 IF(OR('M&amp;E Property Good Factor'!J11 &gt; 'Trends Settings '!$B$3,B11 &lt;=ROUND($K$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B11&gt;ROUND($K$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($K$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B12)*0.01,0),K10))</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L11" s="37">
         <f ca="1">IF(OR(B11=1,'M&amp;E Property Good Factor'!K12&gt;'Trends Settings '!$B$3),
@@ -16857,7 +16242,7 @@
 IF(OR('M&amp;E Property Good Factor'!L11 &gt; 'Trends Settings '!$B$3,B11 &lt;=ROUND($M$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B11&gt;ROUND($M$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($M$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B12)*0.01,0),M10))</f>
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N11" s="37">
         <f ca="1">IF(OR(B11=1,'M&amp;E Property Good Factor'!M12&gt;'Trends Settings '!$B$3),
@@ -16887,7 +16272,7 @@
 IF(OR('M&amp;E Property Good Factor'!O11 &gt; 'Trends Settings '!$B$3,B11 &lt;=ROUND($P$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B11&gt;ROUND($P$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($P$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B12)*0.01,0),P10))</f>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q11" s="37">
         <f ca="1">IF(OR(B11=1,'M&amp;E Property Good Factor'!P12&gt;'Trends Settings '!$B$3),
@@ -16927,7 +16312,7 @@
 IF(OR('M&amp;E Property Good Factor'!S11 &gt; 'Trends Settings '!$B$3,B11 &lt;=ROUND($T$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B11&gt;ROUND($T$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($T$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B12)*0.01,0),T10))</f>
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U11" s="37">
         <f ca="1">IF(OR(B11=1,'M&amp;E Property Good Factor'!T12&gt;'Trends Settings '!$B$3),
@@ -16937,7 +16322,7 @@
 IF(OR('M&amp;E Property Good Factor'!T11 &gt; 'Trends Settings '!$B$3,B11 &lt;=ROUND($U$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B11&gt;ROUND($U$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($U$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B12)*0.01,0),U10))</f>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="V11" s="37">
         <f ca="1">IF(OR(B11=1,'M&amp;E Property Good Factor'!U12&gt;'Trends Settings '!$B$3),
@@ -16957,7 +16342,7 @@
 IF(OR('M&amp;E Property Good Factor'!V11 &gt; 'Trends Settings '!$B$3,B11 &lt;=ROUND($W$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B11&gt;ROUND($W$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($W$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B12)*0.01,0),W10))</f>
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="12.75" customHeight="1">
@@ -17159,7 +16544,7 @@
 IF(OR('M&amp;E Property Good Factor'!U12 &gt; 'Trends Settings '!$B$3,B12 &lt;=ROUND($V$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B12&gt;ROUND($V$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($V$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B13)*0.01,0),V11))</f>
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="W12" s="37">
         <f ca="1">IF(OR(B12=1,'M&amp;E Property Good Factor'!V13&gt;'Trends Settings '!$B$3),
@@ -17271,7 +16656,7 @@
 IF(OR('M&amp;E Property Good Factor'!K13 &gt; 'Trends Settings '!$B$3,B13 &lt;=ROUND($L$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B13&gt;ROUND($L$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($L$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B14)*0.01,0),L12))</f>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M13" s="37">
         <f ca="1">IF(OR(B13=1,'M&amp;E Property Good Factor'!L14&gt;'Trends Settings '!$B$3),
@@ -17291,7 +16676,7 @@
 IF(OR('M&amp;E Property Good Factor'!M13 &gt; 'Trends Settings '!$B$3,B13 &lt;=ROUND($N$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B13&gt;ROUND($N$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($N$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B14)*0.01,0),N12))</f>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O13" s="37">
         <f ca="1">IF(OR(B13=1,'M&amp;E Property Good Factor'!N14&gt;'Trends Settings '!$B$3),
@@ -17331,7 +16716,7 @@
 IF(OR('M&amp;E Property Good Factor'!Q13 &gt; 'Trends Settings '!$B$3,B13 &lt;=ROUND($R$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B13&gt;ROUND($R$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($R$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B14)*0.01,0),R12))</f>
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S13" s="37">
         <f ca="1">IF(OR(B13=1,'M&amp;E Property Good Factor'!R14&gt;'Trends Settings '!$B$3),
@@ -17381,7 +16766,7 @@
 IF(OR('M&amp;E Property Good Factor'!V13 &gt; 'Trends Settings '!$B$3,B13 &lt;=ROUND($W$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B13&gt;ROUND($W$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($W$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B14)*0.01,0),W12))</f>
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:23" ht="12.75" customHeight="1">
@@ -17513,7 +16898,7 @@
 IF(OR('M&amp;E Property Good Factor'!N14 &gt; 'Trends Settings '!$B$3,B14 &lt;=ROUND($O$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B14&gt;ROUND($O$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($O$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B15)*0.01,0),O13))</f>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P14" s="37">
         <f ca="1">IF(OR(B14=1,'M&amp;E Property Good Factor'!O15&gt;'Trends Settings '!$B$3),
@@ -17523,7 +16908,7 @@
 IF(OR('M&amp;E Property Good Factor'!O14 &gt; 'Trends Settings '!$B$3,B14 &lt;=ROUND($P$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B14&gt;ROUND($P$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($P$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B15)*0.01,0),P13))</f>
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q14" s="37">
         <f ca="1">IF(OR(B14=1,'M&amp;E Property Good Factor'!P15&gt;'Trends Settings '!$B$3),
@@ -17533,7 +16918,7 @@
 IF(OR('M&amp;E Property Good Factor'!P14 &gt; 'Trends Settings '!$B$3,B14 &lt;=ROUND($Q$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B14&gt;ROUND($Q$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($Q$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B15)*0.01,0),Q13))</f>
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R14" s="37">
         <f ca="1">IF(OR(B14=1,'M&amp;E Property Good Factor'!Q15&gt;'Trends Settings '!$B$3),
@@ -17543,7 +16928,7 @@
 IF(OR('M&amp;E Property Good Factor'!Q14 &gt; 'Trends Settings '!$B$3,B14 &lt;=ROUND($R$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B14&gt;ROUND($R$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($R$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B15)*0.01,0),R13))</f>
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S14" s="37">
         <f ca="1">IF(OR(B14=1,'M&amp;E Property Good Factor'!R15&gt;'Trends Settings '!$B$3),
@@ -17563,7 +16948,7 @@
 IF(OR('M&amp;E Property Good Factor'!S14 &gt; 'Trends Settings '!$B$3,B14 &lt;=ROUND($T$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B14&gt;ROUND($T$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($T$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B15)*0.01,0),T13))</f>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U14" s="37">
         <f ca="1">IF(OR(B14=1,'M&amp;E Property Good Factor'!T15&gt;'Trends Settings '!$B$3),
@@ -17715,7 +17100,7 @@
 IF(OR('M&amp;E Property Good Factor'!M15 &gt; 'Trends Settings '!$B$3,B15 &lt;=ROUND($N$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B15&gt;ROUND($N$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($N$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B16)*0.01,0),N14))</f>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O15" s="37">
         <f ca="1">IF(OR(B15=1,'M&amp;E Property Good Factor'!N16&gt;'Trends Settings '!$B$3),
@@ -17735,7 +17120,7 @@
 IF(OR('M&amp;E Property Good Factor'!O15 &gt; 'Trends Settings '!$B$3,B15 &lt;=ROUND($P$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B15&gt;ROUND($P$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($P$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B16)*0.01,0),P14))</f>
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q15" s="37">
         <f ca="1">IF(OR(B15=1,'M&amp;E Property Good Factor'!P16&gt;'Trends Settings '!$B$3),
@@ -17775,7 +17160,7 @@
 IF(OR('M&amp;E Property Good Factor'!S15 &gt; 'Trends Settings '!$B$3,B15 &lt;=ROUND($T$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B15&gt;ROUND($T$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($T$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B16)*0.01,0),T14))</f>
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U15" s="37">
         <f ca="1">IF(OR(B15=1,'M&amp;E Property Good Factor'!T16&gt;'Trends Settings '!$B$3),
@@ -17785,7 +17170,7 @@
 IF(OR('M&amp;E Property Good Factor'!T15 &gt; 'Trends Settings '!$B$3,B15 &lt;=ROUND($U$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B15&gt;ROUND($U$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($U$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B16)*0.01,0),U14))</f>
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V15" s="37">
         <f ca="1">IF(OR(B15=1,'M&amp;E Property Good Factor'!U16&gt;'Trends Settings '!$B$3),
@@ -17937,7 +17322,7 @@
 IF(OR('M&amp;E Property Good Factor'!N16 &gt; 'Trends Settings '!$B$3,B16 &lt;=ROUND($O$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B16&gt;ROUND($O$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($O$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B17)*0.01,0),O15))</f>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P16" s="37">
         <f ca="1">IF(OR(B16=1,'M&amp;E Property Good Factor'!O17&gt;'Trends Settings '!$B$3),
@@ -17947,7 +17332,7 @@
 IF(OR('M&amp;E Property Good Factor'!O16 &gt; 'Trends Settings '!$B$3,B16 &lt;=ROUND($P$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B16&gt;ROUND($P$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($P$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B17)*0.01,0),P15))</f>
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q16" s="37">
         <f ca="1">IF(OR(B16=1,'M&amp;E Property Good Factor'!P17&gt;'Trends Settings '!$B$3),
@@ -17967,7 +17352,7 @@
 IF(OR('M&amp;E Property Good Factor'!Q16 &gt; 'Trends Settings '!$B$3,B16 &lt;=ROUND($R$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B16&gt;ROUND($R$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($R$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B17)*0.01,0),R15))</f>
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S16" s="37">
         <f ca="1">IF(OR(B16=1,'M&amp;E Property Good Factor'!R17&gt;'Trends Settings '!$B$3),
@@ -18129,7 +17514,7 @@
 IF(OR('M&amp;E Property Good Factor'!L17 &gt; 'Trends Settings '!$B$3,B17 &lt;=ROUND($M$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B17&gt;ROUND($M$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($M$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B18)*0.01,0),M16))</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N17" s="37">
         <f ca="1">IF(OR(B17=1,'M&amp;E Property Good Factor'!M18&gt;'Trends Settings '!$B$3),
@@ -18139,7 +17524,7 @@
 IF(OR('M&amp;E Property Good Factor'!M17 &gt; 'Trends Settings '!$B$3,B17 &lt;=ROUND($N$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B17&gt;ROUND($N$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($N$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B18)*0.01,0),N16))</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O17" s="37">
         <f ca="1">IF(OR(B17=1,'M&amp;E Property Good Factor'!N18&gt;'Trends Settings '!$B$3),
@@ -18159,7 +17544,7 @@
 IF(OR('M&amp;E Property Good Factor'!O17 &gt; 'Trends Settings '!$B$3,B17 &lt;=ROUND($P$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B17&gt;ROUND($P$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($P$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B18)*0.01,0),P16))</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q17" s="37">
         <f ca="1">IF(OR(B17=1,'M&amp;E Property Good Factor'!P18&gt;'Trends Settings '!$B$3),
@@ -18179,7 +17564,7 @@
 IF(OR('M&amp;E Property Good Factor'!Q17 &gt; 'Trends Settings '!$B$3,B17 &lt;=ROUND($R$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B17&gt;ROUND($R$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($R$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B18)*0.01,0),R16))</f>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="S17" s="37">
         <f ca="1">IF(OR(B17=1,'M&amp;E Property Good Factor'!R18&gt;'Trends Settings '!$B$3),
@@ -18381,7 +17766,7 @@
 IF(OR('M&amp;E Property Good Factor'!P18 &gt; 'Trends Settings '!$B$3,B18 &lt;=ROUND($Q$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B18&gt;ROUND($Q$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($Q$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B19)*0.01,0),Q17))</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R18" s="37">
         <f ca="1">IF(OR(B18=1,'M&amp;E Property Good Factor'!Q19&gt;'Trends Settings '!$B$3),
@@ -18401,7 +17786,7 @@
 IF(OR('M&amp;E Property Good Factor'!R18 &gt; 'Trends Settings '!$B$3,B18 &lt;=ROUND($S$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B18&gt;ROUND($S$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($S$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B19)*0.01,0),S17))</f>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="T18" s="37">
         <f ca="1">IF(OR(B18=1,'M&amp;E Property Good Factor'!S19&gt;'Trends Settings '!$B$3),
@@ -18421,7 +17806,7 @@
 IF(OR('M&amp;E Property Good Factor'!T18 &gt; 'Trends Settings '!$B$3,B18 &lt;=ROUND($U$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B18&gt;ROUND($U$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($U$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B19)*0.01,0),U17))</f>
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="V18" s="37">
         <f ca="1">IF(OR(B18=1,'M&amp;E Property Good Factor'!U19&gt;'Trends Settings '!$B$3),
@@ -18583,7 +17968,7 @@
 IF(OR('M&amp;E Property Good Factor'!O19 &gt; 'Trends Settings '!$B$3,B19 &lt;=ROUND($P$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B19&gt;ROUND($P$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($P$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B20)*0.01,0),P18))</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q19" s="37">
         <f ca="1">IF(OR(B19=1,'M&amp;E Property Good Factor'!P20&gt;'Trends Settings '!$B$3),
@@ -18593,7 +17978,7 @@
 IF(OR('M&amp;E Property Good Factor'!P19 &gt; 'Trends Settings '!$B$3,B19 &lt;=ROUND($Q$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B19&gt;ROUND($Q$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($Q$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B20)*0.01,0),Q18))</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R19" s="37">
         <f ca="1">IF(OR(B19=1,'M&amp;E Property Good Factor'!Q20&gt;'Trends Settings '!$B$3),
@@ -18603,7 +17988,7 @@
 IF(OR('M&amp;E Property Good Factor'!Q19 &gt; 'Trends Settings '!$B$3,B19 &lt;=ROUND($R$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B19&gt;ROUND($R$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($R$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B20)*0.01,0),R18))</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S19" s="37">
         <f ca="1">IF(OR(B19=1,'M&amp;E Property Good Factor'!R20&gt;'Trends Settings '!$B$3),
@@ -18633,7 +18018,7 @@
 IF(OR('M&amp;E Property Good Factor'!T19 &gt; 'Trends Settings '!$B$3,B19 &lt;=ROUND($U$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B19&gt;ROUND($U$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($U$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B20)*0.01,0),U18))</f>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="V19" s="37">
         <f ca="1">IF(OR(B19=1,'M&amp;E Property Good Factor'!U20&gt;'Trends Settings '!$B$3),
@@ -18795,7 +18180,7 @@
 IF(OR('M&amp;E Property Good Factor'!O20 &gt; 'Trends Settings '!$B$3,B20 &lt;=ROUND($P$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B20&gt;ROUND($P$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($P$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B21)*0.01,0),P19))</f>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q20" s="37">
         <f ca="1">IF(OR(B20=1,'M&amp;E Property Good Factor'!P21&gt;'Trends Settings '!$B$3),
@@ -18805,7 +18190,7 @@
 IF(OR('M&amp;E Property Good Factor'!P20 &gt; 'Trends Settings '!$B$3,B20 &lt;=ROUND($Q$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B20&gt;ROUND($Q$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($Q$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B21)*0.01,0),Q19))</f>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R20" s="37">
         <f ca="1">IF(OR(B20=1,'M&amp;E Property Good Factor'!Q21&gt;'Trends Settings '!$B$3),
@@ -18825,7 +18210,7 @@
 IF(OR('M&amp;E Property Good Factor'!R20 &gt; 'Trends Settings '!$B$3,B20 &lt;=ROUND($S$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B20&gt;ROUND($S$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($S$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B21)*0.01,0),S19))</f>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T20" s="37">
         <f ca="1">IF(OR(B20=1,'M&amp;E Property Good Factor'!S21&gt;'Trends Settings '!$B$3),
@@ -19027,7 +18412,7 @@
 IF(OR('M&amp;E Property Good Factor'!Q21 &gt; 'Trends Settings '!$B$3,B21 &lt;=ROUND($R$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B21&gt;ROUND($R$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($R$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B22)*0.01,0),R20))</f>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S21" s="37">
         <f ca="1">IF(OR(B21=1,'M&amp;E Property Good Factor'!R22&gt;'Trends Settings '!$B$3),
@@ -19067,7 +18452,7 @@
 IF(OR('M&amp;E Property Good Factor'!U21 &gt; 'Trends Settings '!$B$3,B21 &lt;=ROUND($V$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B21&gt;ROUND($V$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($V$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B22)*0.01,0),V20))</f>
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="W21" s="37">
         <f ca="1">IF(OR(B21=1,'M&amp;E Property Good Factor'!V22&gt;'Trends Settings '!$B$3),
@@ -19219,7 +18604,7 @@
 IF(OR('M&amp;E Property Good Factor'!O22 &gt; 'Trends Settings '!$B$3,B22 &lt;=ROUND($P$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B22&gt;ROUND($P$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($P$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B23)*0.01,0),P21))</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q22" s="37">
         <f ca="1">IF(OR(B22=1,'M&amp;E Property Good Factor'!P23&gt;'Trends Settings '!$B$3),
@@ -19239,7 +18624,7 @@
 IF(OR('M&amp;E Property Good Factor'!Q22 &gt; 'Trends Settings '!$B$3,B22 &lt;=ROUND($R$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B22&gt;ROUND($R$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($R$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B23)*0.01,0),R21))</f>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S22" s="37">
         <f ca="1">IF(OR(B22=1,'M&amp;E Property Good Factor'!R23&gt;'Trends Settings '!$B$3),
@@ -19269,7 +18654,7 @@
 IF(OR('M&amp;E Property Good Factor'!T22 &gt; 'Trends Settings '!$B$3,B22 &lt;=ROUND($U$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B22&gt;ROUND($U$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($U$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B23)*0.01,0),U21))</f>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V22" s="37">
         <f ca="1">IF(OR(B22=1,'M&amp;E Property Good Factor'!U23&gt;'Trends Settings '!$B$3),
@@ -19451,7 +18836,7 @@
 IF(OR('M&amp;E Property Good Factor'!Q23 &gt; 'Trends Settings '!$B$3,B23 &lt;=ROUND($R$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B23&gt;ROUND($R$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($R$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B24)*0.01,0),R22))</f>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S23" s="37">
         <f ca="1">IF(OR(B23=1,'M&amp;E Property Good Factor'!R24&gt;'Trends Settings '!$B$3),
@@ -19491,7 +18876,7 @@
 IF(OR('M&amp;E Property Good Factor'!U23 &gt; 'Trends Settings '!$B$3,B23 &lt;=ROUND($V$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B23&gt;ROUND($V$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($V$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B24)*0.01,0),V22))</f>
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="W23" s="37">
         <f ca="1">IF(OR(B23=1,'M&amp;E Property Good Factor'!V24&gt;'Trends Settings '!$B$3),
@@ -19501,7 +18886,7 @@
 IF(OR('M&amp;E Property Good Factor'!V23 &gt; 'Trends Settings '!$B$3,B23 &lt;=ROUND($W$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B23&gt;ROUND($W$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($W$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B24)*0.01,0),W22))</f>
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:23" ht="12.75" customHeight="1">
@@ -19673,7 +19058,7 @@
 IF(OR('M&amp;E Property Good Factor'!R24 &gt; 'Trends Settings '!$B$3,B24 &lt;=ROUND($S$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B24&gt;ROUND($S$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($S$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B25)*0.01,0),S23))</f>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T24" s="37">
         <f ca="1">IF(OR(B24=1,'M&amp;E Property Good Factor'!S25&gt;'Trends Settings '!$B$3),
@@ -19683,7 +19068,7 @@
 IF(OR('M&amp;E Property Good Factor'!S24 &gt; 'Trends Settings '!$B$3,B24 &lt;=ROUND($T$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B24&gt;ROUND($T$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($T$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B25)*0.01,0),T23))</f>
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U24" s="37">
         <f ca="1">IF(OR(B24=1,'M&amp;E Property Good Factor'!T25&gt;'Trends Settings '!$B$3),
@@ -19703,7 +19088,7 @@
 IF(OR('M&amp;E Property Good Factor'!U24 &gt; 'Trends Settings '!$B$3,B24 &lt;=ROUND($V$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B24&gt;ROUND($V$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($V$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B25)*0.01,0),V23))</f>
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W24" s="37">
         <f ca="1">IF(OR(B24=1,'M&amp;E Property Good Factor'!V25&gt;'Trends Settings '!$B$3),
@@ -19713,7 +19098,7 @@
 IF(OR('M&amp;E Property Good Factor'!V24 &gt; 'Trends Settings '!$B$3,B24 &lt;=ROUND($W$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B24&gt;ROUND($W$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($W$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B25)*0.01,0),W23))</f>
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="12.75" customHeight="1">
@@ -19875,7 +19260,7 @@
 IF(OR('M&amp;E Property Good Factor'!Q25 &gt; 'Trends Settings '!$B$3,B25 &lt;=ROUND($R$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B25&gt;ROUND($R$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($R$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B26)*0.01,0),R24))</f>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S25" s="37">
         <f ca="1">IF(OR(B25=1,'M&amp;E Property Good Factor'!R26&gt;'Trends Settings '!$B$3),
@@ -19885,7 +19270,7 @@
 IF(OR('M&amp;E Property Good Factor'!R25 &gt; 'Trends Settings '!$B$3,B25 &lt;=ROUND($S$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B25&gt;ROUND($S$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($S$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B26)*0.01,0),S24))</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T25" s="37">
         <f ca="1">IF(OR(B25=1,'M&amp;E Property Good Factor'!S26&gt;'Trends Settings '!$B$3),
@@ -19905,7 +19290,7 @@
 IF(OR('M&amp;E Property Good Factor'!T25 &gt; 'Trends Settings '!$B$3,B25 &lt;=ROUND($U$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B25&gt;ROUND($U$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($U$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B26)*0.01,0),U24))</f>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="V25" s="37">
         <f ca="1">IF(OR(B25=1,'M&amp;E Property Good Factor'!U26&gt;'Trends Settings '!$B$3),
@@ -19925,7 +19310,7 @@
 IF(OR('M&amp;E Property Good Factor'!V25 &gt; 'Trends Settings '!$B$3,B25 &lt;=ROUND($W$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B25&gt;ROUND($W$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($W$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B26)*0.01,0),W24))</f>
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:23" ht="12.75" customHeight="1">
@@ -20087,7 +19472,7 @@
 IF(OR('M&amp;E Property Good Factor'!Q26 &gt; 'Trends Settings '!$B$3,B26 &lt;=ROUND($R$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B26&gt;ROUND($R$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($R$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B27)*0.01,0),R25))</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="S26" s="37">
         <f ca="1">IF(OR(B26=1,'M&amp;E Property Good Factor'!R27&gt;'Trends Settings '!$B$3),
@@ -20127,7 +19512,7 @@
 IF(OR('M&amp;E Property Good Factor'!U26 &gt; 'Trends Settings '!$B$3,B26 &lt;=ROUND($V$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B26&gt;ROUND($V$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($V$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B27)*0.01,0),V25))</f>
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W26" s="37">
         <f ca="1">IF(OR(B26=1,'M&amp;E Property Good Factor'!V27&gt;'Trends Settings '!$B$3),
@@ -20137,7 +19522,7 @@
 IF(OR('M&amp;E Property Good Factor'!V26 &gt; 'Trends Settings '!$B$3,B26 &lt;=ROUND($W$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B26&gt;ROUND($W$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($W$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B27)*0.01,0),W25))</f>
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:23" ht="12.75" customHeight="1">
@@ -20309,7 +19694,7 @@
 IF(OR('M&amp;E Property Good Factor'!R27 &gt; 'Trends Settings '!$B$3,B27 &lt;=ROUND($S$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B27&gt;ROUND($S$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($S$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B28)*0.01,0),S26))</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="T27" s="37">
         <f ca="1">IF(OR(B27=1,'M&amp;E Property Good Factor'!S28&gt;'Trends Settings '!$B$3),
@@ -20339,7 +19724,7 @@
 IF(OR('M&amp;E Property Good Factor'!U27 &gt; 'Trends Settings '!$B$3,B27 &lt;=ROUND($V$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B27&gt;ROUND($V$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($V$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B28)*0.01,0),V26))</f>
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W27" s="37">
         <f ca="1">IF(OR(B27=1,'M&amp;E Property Good Factor'!V28&gt;'Trends Settings '!$B$3),
@@ -20521,7 +19906,7 @@
 IF(OR('M&amp;E Property Good Factor'!R28 &gt; 'Trends Settings '!$B$3,B28 &lt;=ROUND($S$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B28&gt;ROUND($S$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($S$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B29)*0.01,0),S27))</f>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="T28" s="37">
         <f ca="1">IF(OR(B28=1,'M&amp;E Property Good Factor'!S29&gt;'Trends Settings '!$B$3),
@@ -20551,7 +19936,7 @@
 IF(OR('M&amp;E Property Good Factor'!U28 &gt; 'Trends Settings '!$B$3,B28 &lt;=ROUND($V$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B28&gt;ROUND($V$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($V$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B29)*0.01,0),V27))</f>
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="W28" s="37">
         <f ca="1">IF(OR(B28=1,'M&amp;E Property Good Factor'!V29&gt;'Trends Settings '!$B$3),
@@ -20561,7 +19946,7 @@
 IF(OR('M&amp;E Property Good Factor'!V28 &gt; 'Trends Settings '!$B$3,B28 &lt;=ROUND($W$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B28&gt;ROUND($W$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($W$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B29)*0.01,0),W27))</f>
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:23" ht="12.75" customHeight="1">
@@ -20743,7 +20128,7 @@
 IF(OR('M&amp;E Property Good Factor'!S29 &gt; 'Trends Settings '!$B$3,B29 &lt;=ROUND($T$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B29&gt;ROUND($T$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($T$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B30)*0.01,0),T28))</f>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U29" s="37">
         <f ca="1">IF(OR(B29=1,'M&amp;E Property Good Factor'!T30&gt;'Trends Settings '!$B$3),
@@ -20753,7 +20138,7 @@
 IF(OR('M&amp;E Property Good Factor'!T29 &gt; 'Trends Settings '!$B$3,B29 &lt;=ROUND($U$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B29&gt;ROUND($U$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($U$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B30)*0.01,0),U28))</f>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V29" s="37">
         <f ca="1">IF(OR(B29=1,'M&amp;E Property Good Factor'!U30&gt;'Trends Settings '!$B$3),
@@ -20773,7 +20158,7 @@
 IF(OR('M&amp;E Property Good Factor'!V29 &gt; 'Trends Settings '!$B$3,B29 &lt;=ROUND($W$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B29&gt;ROUND($W$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($W$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B30)*0.01,0),W28))</f>
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:23" ht="12.75" customHeight="1">
@@ -20955,7 +20340,7 @@
 IF(OR('M&amp;E Property Good Factor'!S30 &gt; 'Trends Settings '!$B$3,B30 &lt;=ROUND($T$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B30&gt;ROUND($T$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($T$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B31)*0.01,0),T29))</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U30" s="37">
         <f ca="1">IF(OR(B30=1,'M&amp;E Property Good Factor'!T31&gt;'Trends Settings '!$B$3),
@@ -20975,7 +20360,7 @@
 IF(OR('M&amp;E Property Good Factor'!U30 &gt; 'Trends Settings '!$B$3,B30 &lt;=ROUND($V$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B30&gt;ROUND($V$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($V$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B31)*0.01,0),V29))</f>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W30" s="37">
         <f ca="1">IF(OR(B30=1,'M&amp;E Property Good Factor'!V31&gt;'Trends Settings '!$B$3),
@@ -20985,7 +20370,7 @@
 IF(OR('M&amp;E Property Good Factor'!V30 &gt; 'Trends Settings '!$B$3,B30 &lt;=ROUND($W$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B30&gt;ROUND($W$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($W$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B31)*0.01,0),W29))</f>
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="12.75" customHeight="1">
@@ -21177,7 +20562,7 @@
 IF(OR('M&amp;E Property Good Factor'!T31 &gt; 'Trends Settings '!$B$3,B31 &lt;=ROUND($U$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B31&gt;ROUND($U$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($U$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B32)*0.01,0),U30))</f>
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="V31" s="37">
         <f ca="1">IF(OR(B31=1,'M&amp;E Property Good Factor'!U32&gt;'Trends Settings '!$B$3),
@@ -21197,7 +20582,7 @@
 IF(OR('M&amp;E Property Good Factor'!V31 &gt; 'Trends Settings '!$B$3,B31 &lt;=ROUND($W$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B31&gt;ROUND($W$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($W$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B32)*0.01,0),W30))</f>
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="12.75" customHeight="1">
@@ -21379,7 +20764,7 @@
 IF(OR('M&amp;E Property Good Factor'!S32 &gt; 'Trends Settings '!$B$3,B32 &lt;=ROUND($T$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B32&gt;ROUND($T$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($T$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B33)*0.01,0),T31))</f>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="U32" s="37">
         <f ca="1">IF(OR(B32=1,'M&amp;E Property Good Factor'!T33&gt;'Trends Settings '!$B$3),
@@ -21621,7 +21006,7 @@
 IF(OR('M&amp;E Property Good Factor'!V33 &gt; 'Trends Settings '!$B$3,B33 &lt;=ROUND($W$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B33&gt;ROUND($W$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($W$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B34)*0.01,0),W32))</f>
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:23" ht="12.75" customHeight="1">
@@ -21813,7 +21198,7 @@
 IF(OR('M&amp;E Property Good Factor'!T34 &gt; 'Trends Settings '!$B$3,B34 &lt;=ROUND($U$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B34&gt;ROUND($U$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($U$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B35)*0.01,0),U33))</f>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="V34" s="37">
         <f ca="1">IF(OR(B34=1,'M&amp;E Property Good Factor'!U35&gt;'Trends Settings '!$B$3),
@@ -21833,7 +21218,7 @@
 IF(OR('M&amp;E Property Good Factor'!V34 &gt; 'Trends Settings '!$B$3,B34 &lt;=ROUND($W$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B34&gt;ROUND($W$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($W$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B35)*0.01,0),W33))</f>
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="12.75" customHeight="1">
@@ -22035,7 +21420,7 @@
 IF(OR('M&amp;E Property Good Factor'!U35 &gt; 'Trends Settings '!$B$3,B35 &lt;=ROUND($V$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B35&gt;ROUND($V$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($V$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B36)*0.01,0),V34))</f>
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="W35" s="37">
         <f ca="1">IF(OR(B35=1,'M&amp;E Property Good Factor'!V36&gt;'Trends Settings '!$B$3),
@@ -22045,7 +21430,7 @@
 IF(OR('M&amp;E Property Good Factor'!V35 &gt; 'Trends Settings '!$B$3,B35 &lt;=ROUND($W$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B35&gt;ROUND($W$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($W$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B36)*0.01,0),W34))</f>
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="12.75" customHeight="1">
@@ -22247,7 +21632,7 @@
 IF(OR('M&amp;E Property Good Factor'!U36 &gt; 'Trends Settings '!$B$3,B36 &lt;=ROUND($V$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B36&gt;ROUND($V$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($V$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B37)*0.01,0),V35))</f>
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W36" s="37">
         <f ca="1">IF(OR(B36=1,'M&amp;E Property Good Factor'!V37&gt;'Trends Settings '!$B$3),
@@ -22257,7 +21642,7 @@
 IF(OR('M&amp;E Property Good Factor'!V36 &gt; 'Trends Settings '!$B$3,B36 &lt;=ROUND($W$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B36&gt;ROUND($W$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($W$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B37)*0.01,0),W35))</f>
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:23" ht="12.75" customHeight="1">
@@ -22469,7 +21854,7 @@
 IF(OR('M&amp;E Property Good Factor'!V37 &gt; 'Trends Settings '!$B$3,B37 &lt;=ROUND($W$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B37&gt;ROUND($W$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($W$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B38)*0.01,0),W36))</f>
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="12.75" customHeight="1">
@@ -22661,7 +22046,7 @@
 IF(OR('M&amp;E Property Good Factor'!T38 &gt; 'Trends Settings '!$B$3,B38 &lt;=ROUND($U$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B38&gt;ROUND($U$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($U$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B39)*0.01,0),U37))</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V38" s="37">
         <f ca="1">IF(OR(B38=1,'M&amp;E Property Good Factor'!U39&gt;'Trends Settings '!$B$3),
@@ -22671,7 +22056,7 @@
 IF(OR('M&amp;E Property Good Factor'!U38 &gt; 'Trends Settings '!$B$3,B38 &lt;=ROUND($V$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B38&gt;ROUND($V$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($V$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B39)*0.01,0),V37))</f>
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W38" s="37">
         <f ca="1">IF(OR(B38=1,'M&amp;E Property Good Factor'!V39&gt;'Trends Settings '!$B$3),
@@ -22681,7 +22066,7 @@
 IF(OR('M&amp;E Property Good Factor'!V38 &gt; 'Trends Settings '!$B$3,B38 &lt;=ROUND($W$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B38&gt;ROUND($W$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($W$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B39)*0.01,0),W37))</f>
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:23" ht="12.75" customHeight="1">
@@ -23085,7 +22470,7 @@
 IF(OR('M&amp;E Property Good Factor'!T40 &gt; 'Trends Settings '!$B$3,B40 &lt;=ROUND($U$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B40&gt;ROUND($U$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($U$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B41)*0.01,0),U39))</f>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="V40" s="37">
         <f ca="1">IF(OR(B40=1,'M&amp;E Property Good Factor'!U41&gt;'Trends Settings '!$B$3),
@@ -23095,7 +22480,7 @@
 IF(OR('M&amp;E Property Good Factor'!U40 &gt; 'Trends Settings '!$B$3,B40 &lt;=ROUND($V$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B40&gt;ROUND($V$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($V$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B41)*0.01,0),V39))</f>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="W40" s="37">
         <f ca="1">IF(OR(B40=1,'M&amp;E Property Good Factor'!V41&gt;'Trends Settings '!$B$3),
@@ -23297,7 +22682,7 @@
 IF(OR('M&amp;E Property Good Factor'!T41 &gt; 'Trends Settings '!$B$3,B41 &lt;=ROUND($U$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B41&gt;ROUND($U$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($U$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B42)*0.01,0),U40))</f>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="V41" s="37">
         <f ca="1">IF(OR(B41=1,'M&amp;E Property Good Factor'!U42&gt;'Trends Settings '!$B$3),
@@ -23317,7 +22702,7 @@
 IF(OR('M&amp;E Property Good Factor'!V41 &gt; 'Trends Settings '!$B$3,B41 &lt;=ROUND($W$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$3*
 IF(B41&gt;ROUND($W$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!B"&amp;TEXT(ROUND(($W$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!B42)*0.01,0),W40))</f>
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -23333,7 +22718,7 @@
   </sheetPr>
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -23410,7 +22795,7 @@
 IF(OR('M&amp;E Property Good Factor'!S3 &gt; 'Trends Settings '!$B$4,B3 &lt;=ROUND($D$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$4*
 IF(B3&gt;ROUND($D$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!D"&amp;TEXT(ROUND(($D$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!D4)*0.01,0),D2))</f>
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -23438,7 +22823,7 @@
 IF(OR('M&amp;E Property Good Factor'!S4 &gt; 'Trends Settings '!$B$4,B4 &lt;=ROUND($D$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$4*
 IF(B4&gt;ROUND($D$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!D"&amp;TEXT(ROUND(($D$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!D5)*0.01,0),D3))</f>
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -23456,7 +22841,7 @@
 IF(OR('M&amp;E Property Good Factor'!N5 &gt; 'Trends Settings '!$B$4,B5 &lt;=ROUND($C$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$4*
 IF(B5&gt;ROUND($C$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!D"&amp;TEXT(ROUND(($C$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!D6)*0.01,0),C4))</f>
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D5" s="37">
         <f ca="1">IF(OR(B5=1,'M&amp;E Property Good Factor'!S6&gt;'Trends Settings '!$B$3),
@@ -23582,13 +22967,13 @@
       </c>
     </row>
     <row r="10" spans="1:7" s="56" customFormat="1">
-      <c r="A10" s="105">
+      <c r="A10" s="97">
         <v>2011</v>
       </c>
-      <c r="B10" s="106">
+      <c r="B10" s="98">
         <v>9</v>
       </c>
-      <c r="C10" s="107">
+      <c r="C10" s="99">
         <f ca="1">IF(OR(B10=1,'M&amp;E Property Good Factor'!N11&gt;'Trends Settings '!$B$4),
 ROUND('M&amp;E Property Good Factor'!N11*IF(B10&gt;ROUND($C$1*'Trends Settings '!$B$1,0),
 INDIRECT("'2019 Equip Index Factors'!D"&amp;TEXT(ROUND(($C$1*'Trends Settings '!$B$1),0)+2,"0")),
@@ -23598,7 +22983,7 @@
 IF(B10&gt;ROUND($C$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!D"&amp;TEXT(ROUND(($C$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!D11)*0.01,0),C9))</f>
         <v>55</v>
       </c>
-      <c r="D10" s="107">
+      <c r="D10" s="99">
         <f ca="1">IF(OR(B10=1,'M&amp;E Property Good Factor'!S11&gt;'Trends Settings '!$B$3),
 ROUND('M&amp;E Property Good Factor'!S11*IF(B10&gt;ROUND($D$1*'Trends Settings '!$B$1,0),
 INDIRECT("'2019 Equip Index Factors'!D"&amp;TEXT(ROUND(($D$1*'Trends Settings '!$B$1),0)+2,"0")),
@@ -23606,9 +22991,9 @@
 IF(OR('M&amp;E Property Good Factor'!S10 &gt; 'Trends Settings '!$B$4,B10 &lt;=ROUND($D$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$4*
 IF(B10&gt;ROUND($D$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!D"&amp;TEXT(ROUND(($D$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!D11)*0.01,0),D9))</f>
-        <v>83</v>
-      </c>
-      <c r="G10" s="107">
+        <v>84</v>
+      </c>
+      <c r="G10" s="99">
         <v>83</v>
       </c>
     </row>
@@ -23627,7 +23012,7 @@
 IF(OR('M&amp;E Property Good Factor'!N11 &gt; 'Trends Settings '!$B$4,B11 &lt;=ROUND($C$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$4*
 IF(B11&gt;ROUND($C$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!D"&amp;TEXT(ROUND(($C$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!D12)*0.01,0),C10))</f>
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D11" s="37">
         <f ca="1">IF(OR(B11=1,'M&amp;E Property Good Factor'!S12&gt;'Trends Settings '!$B$3),
@@ -23721,7 +23106,7 @@
 IF(OR('M&amp;E Property Good Factor'!S14 &gt; 'Trends Settings '!$B$4,B14 &lt;=ROUND($D$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$4*
 IF(B14&gt;ROUND($D$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!D"&amp;TEXT(ROUND(($D$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!D15)*0.01,0),D13))</f>
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -23767,7 +23152,7 @@
 IF(OR('M&amp;E Property Good Factor'!N16 &gt; 'Trends Settings '!$B$4,B16 &lt;=ROUND($C$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$4*
 IF(B16&gt;ROUND($C$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!D"&amp;TEXT(ROUND(($C$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!D17)*0.01,0),C15))</f>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D16" s="37">
         <f ca="1">IF(OR(B16=1,'M&amp;E Property Good Factor'!S17&gt;'Trends Settings '!$B$3),
@@ -23777,7 +23162,7 @@
 IF(OR('M&amp;E Property Good Factor'!S16 &gt; 'Trends Settings '!$B$4,B16 &lt;=ROUND($D$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$4*
 IF(B16&gt;ROUND($D$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!D"&amp;TEXT(ROUND(($D$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!D17)*0.01,0),D15))</f>
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -23833,7 +23218,7 @@
 IF(OR('M&amp;E Property Good Factor'!S18 &gt; 'Trends Settings '!$B$4,B18 &lt;=ROUND($D$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$4*
 IF(B18&gt;ROUND($D$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!D"&amp;TEXT(ROUND(($D$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!D19)*0.01,0),D17))</f>
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -23861,7 +23246,7 @@
 IF(OR('M&amp;E Property Good Factor'!S19 &gt; 'Trends Settings '!$B$4,B19 &lt;=ROUND($D$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$4*
 IF(B19&gt;ROUND($D$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!D"&amp;TEXT(ROUND(($D$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!D20)*0.01,0),D18))</f>
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -23889,7 +23274,7 @@
 IF(OR('M&amp;E Property Good Factor'!S20 &gt; 'Trends Settings '!$B$4,B20 &lt;=ROUND($D$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$4*
 IF(B20&gt;ROUND($D$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!D"&amp;TEXT(ROUND(($D$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!D21)*0.01,0),D19))</f>
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -24001,7 +23386,7 @@
 IF(OR('M&amp;E Property Good Factor'!S24 &gt; 'Trends Settings '!$B$4,B24 &lt;=ROUND($D$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$4*
 IF(B24&gt;ROUND($D$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!D"&amp;TEXT(ROUND(($D$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!D25)*0.01,0),D23))</f>
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -24029,7 +23414,7 @@
 IF(OR('M&amp;E Property Good Factor'!S25 &gt; 'Trends Settings '!$B$4,B25 &lt;=ROUND($D$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$4*
 IF(B25&gt;ROUND($D$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!D"&amp;TEXT(ROUND(($D$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!D26)*0.01,0),D24))</f>
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -24085,7 +23470,7 @@
 IF(OR('M&amp;E Property Good Factor'!S27 &gt; 'Trends Settings '!$B$4,B27 &lt;=ROUND($D$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$4*
 IF(B27&gt;ROUND($D$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!D"&amp;TEXT(ROUND(($D$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!D28)*0.01,0),D26))</f>
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -24169,7 +23554,7 @@
 IF(OR('M&amp;E Property Good Factor'!S30 &gt; 'Trends Settings '!$B$4,B30 &lt;=ROUND($D$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$4*
 IF(B30&gt;ROUND($D$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!D"&amp;TEXT(ROUND(($D$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!D31)*0.01,0),D29))</f>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -24225,7 +23610,7 @@
 IF(OR('M&amp;E Property Good Factor'!S32 &gt; 'Trends Settings '!$B$4,B32 &lt;=ROUND($D$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$4*
 IF(B32&gt;ROUND($D$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!D"&amp;TEXT(ROUND(($D$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!D33)*0.01,0),D31))</f>
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -24546,7 +23931,7 @@
 IF(OR('M&amp;E Property Good Factor'!K3 &gt; 'Trends Settings '!$B$5,B3 &lt;=ROUND($C$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$5*
 IF(B3&gt;ROUND($C$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!E"&amp;TEXT(ROUND(($C$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!E4)*0.01,0),C2))</f>
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -24582,7 +23967,7 @@
 IF(OR('M&amp;E Property Good Factor'!K5 &gt; 'Trends Settings '!$B$5,B5 &lt;=ROUND($C$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$5*
 IF(B5&gt;ROUND($C$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!E"&amp;TEXT(ROUND(($C$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!E6)*0.01,0),C4))</f>
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -24636,7 +24021,7 @@
 IF(OR('M&amp;E Property Good Factor'!K8 &gt; 'Trends Settings '!$B$5,B8 &lt;=ROUND($C$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$5*
 IF(B8&gt;ROUND($C$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!E"&amp;TEXT(ROUND(($C$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!E9)*0.01,0),C7))</f>
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -24672,7 +24057,7 @@
 IF(OR('M&amp;E Property Good Factor'!K10 &gt; 'Trends Settings '!$B$5,B10 &lt;=ROUND($C$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$5*
 IF(B10&gt;ROUND($C$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!E"&amp;TEXT(ROUND(($C$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!E11)*0.01,0),C9))</f>
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -24690,7 +24075,7 @@
 IF(OR('M&amp;E Property Good Factor'!K11 &gt; 'Trends Settings '!$B$5,B11 &lt;=ROUND($C$1*'Trends Settings '!$B$1,0)),
 ROUND('Trends Settings '!$B$5*
 IF(B11&gt;ROUND($C$1*'Trends Settings '!$B$1,0),INDIRECT("'2019 Equip Index Factors'!E"&amp;TEXT(ROUND(($C$1*'Trends Settings '!$B$1),0)+2,"0")),'2019 Equip Index Factors'!E12)*0.01,0),C10))</f>
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -25245,7 +24630,9 @@
   </sheetPr>
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
@@ -25256,16 +24643,16 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="63"/>
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="95" t="s">
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="96"/>
-      <c r="G1" s="97"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="109"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="67" t="s">
@@ -27183,7 +26570,9 @@
   </sheetPr>
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
   <cols>
@@ -28488,7 +27877,7 @@
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="84" t="s">
+      <c r="A41" s="82" t="s">
         <v>57</v>
       </c>
       <c r="B41" s="27">
@@ -28568,43 +27957,43 @@
       <c r="A3" s="46">
         <v>2019</v>
       </c>
-      <c r="B3" s="81">
+      <c r="B3" s="79">
         <v>100</v>
       </c>
-      <c r="C3" s="85">
+      <c r="C3" s="83">
         <v>100</v>
       </c>
-      <c r="D3" s="83">
+      <c r="D3" s="81">
         <v>100</v>
       </c>
-      <c r="E3" s="93">
+      <c r="E3" s="91">
         <v>100</v>
       </c>
       <c r="F3" s="45">
         <v>1</v>
       </c>
-      <c r="H3" s="98" t="s">
+      <c r="H3" s="110" t="s">
         <v>62</v>
       </c>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="98"/>
-      <c r="L3" s="98"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="110"/>
+      <c r="L3" s="110"/>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="9">
         <v>2018</v>
       </c>
-      <c r="B4" s="82">
+      <c r="B4" s="80">
         <v>104</v>
       </c>
-      <c r="C4" s="85">
+      <c r="C4" s="83">
         <v>103</v>
       </c>
-      <c r="D4" s="83">
+      <c r="D4" s="81">
         <v>103</v>
       </c>
-      <c r="E4" s="94">
+      <c r="E4" s="92">
         <v>105</v>
       </c>
       <c r="F4" s="14">
@@ -28634,16 +28023,16 @@
       <c r="A5" s="46">
         <v>2017</v>
       </c>
-      <c r="B5" s="83">
+      <c r="B5" s="81">
         <v>107</v>
       </c>
-      <c r="C5" s="85">
+      <c r="C5" s="83">
         <v>106</v>
       </c>
-      <c r="D5" s="83">
+      <c r="D5" s="81">
         <v>105</v>
       </c>
-      <c r="E5" s="94">
+      <c r="E5" s="92">
         <v>105</v>
       </c>
       <c r="F5" s="45">
@@ -28676,16 +28065,16 @@
       <c r="A6" s="9">
         <v>2016</v>
       </c>
-      <c r="B6" s="92">
+      <c r="B6" s="90">
         <v>109</v>
       </c>
-      <c r="C6" s="85">
+      <c r="C6" s="83">
         <v>107</v>
       </c>
-      <c r="D6" s="83">
+      <c r="D6" s="81">
         <v>106</v>
       </c>
-      <c r="E6" s="94">
+      <c r="E6" s="92">
         <v>106</v>
       </c>
       <c r="F6" s="14">
@@ -28718,16 +28107,16 @@
       <c r="A7" s="46">
         <v>2015</v>
       </c>
-      <c r="B7" s="83">
+      <c r="B7" s="81">
         <v>109</v>
       </c>
-      <c r="C7" s="85">
+      <c r="C7" s="83">
         <v>107</v>
       </c>
-      <c r="D7" s="83">
+      <c r="D7" s="81">
         <v>107</v>
       </c>
-      <c r="E7" s="94">
+      <c r="E7" s="92">
         <v>107</v>
       </c>
       <c r="F7" s="45">
@@ -28760,16 +28149,16 @@
       <c r="A8" s="9">
         <v>2014</v>
       </c>
-      <c r="B8" s="83">
+      <c r="B8" s="81">
         <v>110</v>
       </c>
-      <c r="C8" s="85">
+      <c r="C8" s="83">
         <v>108</v>
       </c>
-      <c r="D8" s="83">
+      <c r="D8" s="81">
         <v>108</v>
       </c>
-      <c r="E8" s="94">
+      <c r="E8" s="92">
         <v>109</v>
       </c>
       <c r="F8" s="14">
@@ -28802,16 +28191,16 @@
       <c r="A9" s="46">
         <v>2013</v>
       </c>
-      <c r="B9" s="83">
+      <c r="B9" s="81">
         <v>111</v>
       </c>
-      <c r="C9" s="85">
+      <c r="C9" s="83">
         <v>109</v>
       </c>
-      <c r="D9" s="83">
+      <c r="D9" s="81">
         <v>110</v>
       </c>
-      <c r="E9" s="94">
+      <c r="E9" s="92">
         <v>110</v>
       </c>
       <c r="F9" s="45">
@@ -28844,16 +28233,16 @@
       <c r="A10" s="9">
         <v>2012</v>
       </c>
-      <c r="B10" s="83">
+      <c r="B10" s="81">
         <v>112</v>
       </c>
-      <c r="C10" s="85">
+      <c r="C10" s="83">
         <v>110</v>
       </c>
-      <c r="D10" s="83">
+      <c r="D10" s="81">
         <v>111</v>
       </c>
-      <c r="E10" s="94">
+      <c r="E10" s="92">
         <v>113</v>
       </c>
       <c r="F10" s="14">
@@ -28886,16 +28275,16 @@
       <c r="A11" s="46">
         <v>2011</v>
       </c>
-      <c r="B11" s="83">
+      <c r="B11" s="81">
         <v>115</v>
       </c>
-      <c r="C11" s="85">
+      <c r="C11" s="83">
         <v>112</v>
       </c>
-      <c r="D11" s="83">
+      <c r="D11" s="81">
         <v>113</v>
       </c>
-      <c r="E11" s="94">
+      <c r="E11" s="92">
         <v>118</v>
       </c>
       <c r="F11" s="45">
@@ -28928,16 +28317,16 @@
       <c r="A12" s="9">
         <v>2010</v>
       </c>
-      <c r="B12" s="83">
+      <c r="B12" s="81">
         <v>119</v>
       </c>
-      <c r="C12" s="85">
+      <c r="C12" s="83">
         <v>115</v>
       </c>
-      <c r="D12" s="83">
+      <c r="D12" s="81">
         <v>117</v>
       </c>
-      <c r="E12" s="94">
+      <c r="E12" s="92">
         <v>122</v>
       </c>
       <c r="F12" s="14">
@@ -28970,16 +28359,16 @@
       <c r="A13" s="46">
         <v>2009</v>
       </c>
-      <c r="B13" s="83">
+      <c r="B13" s="81">
         <v>118</v>
       </c>
-      <c r="C13" s="85">
+      <c r="C13" s="83">
         <v>115</v>
       </c>
-      <c r="D13" s="83">
+      <c r="D13" s="81">
         <v>119</v>
       </c>
-      <c r="E13" s="94">
+      <c r="E13" s="92">
         <v>122</v>
       </c>
       <c r="F13" s="45">
@@ -29012,16 +28401,16 @@
       <c r="A14" s="9">
         <v>2008</v>
       </c>
-      <c r="B14" s="83">
+      <c r="B14" s="81">
         <v>122</v>
       </c>
-      <c r="C14" s="85">
+      <c r="C14" s="83">
         <v>116</v>
       </c>
-      <c r="D14" s="83">
+      <c r="D14" s="81">
         <v>123</v>
       </c>
-      <c r="E14" s="94">
+      <c r="E14" s="92">
         <v>126</v>
       </c>
       <c r="F14" s="14">
@@ -29054,16 +28443,16 @@
       <c r="A15" s="46">
         <v>2007</v>
       </c>
-      <c r="B15" s="83">
+      <c r="B15" s="81">
         <v>126</v>
       </c>
-      <c r="C15" s="85">
+      <c r="C15" s="83">
         <v>121</v>
       </c>
-      <c r="D15" s="83">
+      <c r="D15" s="81">
         <v>129</v>
       </c>
-      <c r="E15" s="94">
+      <c r="E15" s="92">
         <v>130</v>
       </c>
       <c r="F15" s="45">
@@ -29096,16 +28485,16 @@
       <c r="A16" s="9">
         <v>2006</v>
       </c>
-      <c r="B16" s="83">
+      <c r="B16" s="81">
         <v>132</v>
       </c>
-      <c r="C16" s="85">
+      <c r="C16" s="83">
         <v>124</v>
       </c>
-      <c r="D16" s="83">
+      <c r="D16" s="81">
         <v>133</v>
       </c>
-      <c r="E16" s="94">
+      <c r="E16" s="92">
         <v>133</v>
       </c>
       <c r="F16" s="14">
@@ -29138,16 +28527,16 @@
       <c r="A17" s="46">
         <v>2005</v>
       </c>
-      <c r="B17" s="83">
+      <c r="B17" s="81">
         <v>137</v>
       </c>
-      <c r="C17" s="85">
+      <c r="C17" s="83">
         <v>128</v>
       </c>
-      <c r="D17" s="83">
+      <c r="D17" s="81">
         <v>136</v>
       </c>
-      <c r="E17" s="94">
+      <c r="E17" s="92">
         <v>138</v>
       </c>
       <c r="F17" s="45">
@@ -29180,16 +28569,16 @@
       <c r="A18" s="9">
         <v>2004</v>
       </c>
-      <c r="B18" s="83">
+      <c r="B18" s="81">
         <v>147</v>
       </c>
-      <c r="C18" s="85">
+      <c r="C18" s="83">
         <v>132</v>
       </c>
-      <c r="D18" s="83">
+      <c r="D18" s="81">
         <v>143</v>
       </c>
-      <c r="E18" s="94">
+      <c r="E18" s="92">
         <v>147</v>
       </c>
       <c r="F18" s="14">
@@ -29222,16 +28611,16 @@
       <c r="A19" s="46">
         <v>2003</v>
       </c>
-      <c r="B19" s="83">
+      <c r="B19" s="81">
         <v>151</v>
       </c>
-      <c r="C19" s="85">
+      <c r="C19" s="83">
         <v>137</v>
       </c>
-      <c r="D19" s="83">
+      <c r="D19" s="81">
         <v>148</v>
       </c>
-      <c r="E19" s="94">
+      <c r="E19" s="92">
         <v>152</v>
       </c>
       <c r="F19" s="45">
@@ -29264,16 +28653,16 @@
       <c r="A20" s="9">
         <v>2002</v>
       </c>
-      <c r="B20" s="83">
+      <c r="B20" s="81">
         <v>154</v>
       </c>
-      <c r="C20" s="85">
+      <c r="C20" s="83">
         <v>137</v>
       </c>
-      <c r="D20" s="83">
+      <c r="D20" s="81">
         <v>150</v>
       </c>
-      <c r="E20" s="94">
+      <c r="E20" s="92">
         <v>154</v>
       </c>
       <c r="F20" s="14">
@@ -29306,16 +28695,16 @@
       <c r="A21" s="46">
         <v>2001</v>
       </c>
-      <c r="B21" s="83">
+      <c r="B21" s="81">
         <v>155</v>
       </c>
-      <c r="C21" s="85">
+      <c r="C21" s="83">
         <v>138</v>
       </c>
-      <c r="D21" s="83">
+      <c r="D21" s="81">
         <v>152</v>
       </c>
-      <c r="E21" s="94">
+      <c r="E21" s="92">
         <v>156</v>
       </c>
       <c r="F21" s="45">
@@ -29348,16 +28737,16 @@
       <c r="A22" s="9">
         <v>2000</v>
       </c>
-      <c r="B22" s="83">
+      <c r="B22" s="81">
         <v>156</v>
       </c>
-      <c r="C22" s="85">
+      <c r="C22" s="83">
         <v>139</v>
       </c>
-      <c r="D22" s="83">
+      <c r="D22" s="81">
         <v>155</v>
       </c>
-      <c r="E22" s="94">
+      <c r="E22" s="92">
         <v>157</v>
       </c>
       <c r="F22" s="14">
@@ -29390,16 +28779,16 @@
       <c r="A23" s="46">
         <v>1999</v>
       </c>
-      <c r="B23" s="83">
+      <c r="B23" s="81">
         <v>159</v>
       </c>
-      <c r="C23" s="85">
+      <c r="C23" s="83">
         <v>140</v>
       </c>
-      <c r="D23" s="83">
+      <c r="D23" s="81">
         <v>156</v>
       </c>
-      <c r="E23" s="94">
+      <c r="E23" s="92">
         <v>158</v>
       </c>
       <c r="F23" s="45">
@@ -29432,16 +28821,16 @@
       <c r="A24" s="9">
         <v>1998</v>
       </c>
-      <c r="B24" s="83">
+      <c r="B24" s="81">
         <v>159</v>
       </c>
-      <c r="C24" s="85">
+      <c r="C24" s="83">
         <v>141</v>
       </c>
-      <c r="D24" s="83">
+      <c r="D24" s="81">
         <v>158</v>
       </c>
-      <c r="E24" s="94">
+      <c r="E24" s="92">
         <v>160</v>
       </c>
       <c r="F24" s="14">
@@ -29474,16 +28863,16 @@
       <c r="A25" s="46">
         <v>1997</v>
       </c>
-      <c r="B25" s="83">
+      <c r="B25" s="81">
         <v>160</v>
       </c>
-      <c r="C25" s="85">
+      <c r="C25" s="83">
         <v>143</v>
       </c>
-      <c r="D25" s="83">
+      <c r="D25" s="81">
         <v>160</v>
       </c>
-      <c r="E25" s="94">
+      <c r="E25" s="92">
         <v>164</v>
       </c>
       <c r="F25" s="45">
@@ -29516,16 +28905,16 @@
       <c r="A26" s="9">
         <v>1996</v>
       </c>
-      <c r="B26" s="83">
+      <c r="B26" s="81">
         <v>163</v>
       </c>
-      <c r="C26" s="85">
+      <c r="C26" s="83">
         <v>145</v>
       </c>
-      <c r="D26" s="83">
+      <c r="D26" s="81">
         <v>162</v>
       </c>
-      <c r="E26" s="94">
+      <c r="E26" s="92">
         <v>166</v>
       </c>
       <c r="F26" s="70">
@@ -29545,16 +28934,16 @@
       <c r="A27" s="46">
         <v>1995</v>
       </c>
-      <c r="B27" s="83">
+      <c r="B27" s="81">
         <v>165</v>
       </c>
-      <c r="C27" s="85">
+      <c r="C27" s="83">
         <v>148</v>
       </c>
-      <c r="D27" s="83">
+      <c r="D27" s="81">
         <v>166</v>
       </c>
-      <c r="E27" s="94">
+      <c r="E27" s="92">
         <v>170</v>
       </c>
       <c r="F27" s="45">
@@ -29576,16 +28965,16 @@
       <c r="A28" s="9">
         <v>1994</v>
       </c>
-      <c r="B28" s="83">
+      <c r="B28" s="81">
         <v>171</v>
       </c>
-      <c r="C28" s="85">
+      <c r="C28" s="83">
         <v>152</v>
       </c>
-      <c r="D28" s="83">
+      <c r="D28" s="81">
         <v>174</v>
       </c>
-      <c r="E28" s="94">
+      <c r="E28" s="92">
         <v>174</v>
       </c>
       <c r="F28" s="14">
@@ -29607,16 +28996,16 @@
       <c r="A29" s="46">
         <v>1993</v>
       </c>
-      <c r="B29" s="83">
+      <c r="B29" s="81">
         <v>176</v>
       </c>
-      <c r="C29" s="85">
+      <c r="C29" s="83">
         <v>156</v>
       </c>
-      <c r="D29" s="83">
+      <c r="D29" s="81">
         <v>178</v>
       </c>
-      <c r="E29" s="94">
+      <c r="E29" s="92">
         <v>176</v>
       </c>
       <c r="F29" s="45">
@@ -29638,16 +29027,16 @@
       <c r="A30" s="9">
         <v>1992</v>
       </c>
-      <c r="B30" s="83">
+      <c r="B30" s="81">
         <v>180</v>
       </c>
-      <c r="C30" s="85">
+      <c r="C30" s="83">
         <v>158</v>
       </c>
-      <c r="D30" s="83">
+      <c r="D30" s="81">
         <v>184</v>
       </c>
-      <c r="E30" s="94">
+      <c r="E30" s="92">
         <v>181</v>
       </c>
       <c r="F30" s="14">
@@ -29669,16 +29058,16 @@
       <c r="A31" s="46">
         <v>1991</v>
       </c>
-      <c r="B31" s="83">
+      <c r="B31" s="81">
         <v>182</v>
       </c>
-      <c r="C31" s="85">
+      <c r="C31" s="83">
         <v>161</v>
       </c>
-      <c r="D31" s="83">
+      <c r="D31" s="81">
         <v>189</v>
       </c>
-      <c r="E31" s="94">
+      <c r="E31" s="92">
         <v>186</v>
       </c>
       <c r="F31" s="45">
@@ -29700,16 +29089,16 @@
       <c r="A32" s="9">
         <v>1990</v>
       </c>
-      <c r="B32" s="83">
+      <c r="B32" s="81">
         <v>186</v>
       </c>
-      <c r="C32" s="85">
+      <c r="C32" s="83">
         <v>165</v>
       </c>
-      <c r="D32" s="83">
+      <c r="D32" s="81">
         <v>195</v>
       </c>
-      <c r="E32" s="94">
+      <c r="E32" s="92">
         <v>191</v>
       </c>
       <c r="F32" s="14">
@@ -29731,16 +29120,16 @@
       <c r="A33" s="46">
         <v>1989</v>
       </c>
-      <c r="B33" s="83">
+      <c r="B33" s="81">
         <v>191</v>
       </c>
-      <c r="C33" s="85">
+      <c r="C33" s="83">
         <v>170</v>
       </c>
-      <c r="D33" s="83">
+      <c r="D33" s="81">
         <v>202</v>
       </c>
-      <c r="E33" s="94">
+      <c r="E33" s="92">
         <v>198</v>
       </c>
       <c r="F33" s="45">
@@ -29762,16 +29151,16 @@
       <c r="A34" s="9">
         <v>1988</v>
       </c>
-      <c r="B34" s="83">
+      <c r="B34" s="81">
         <v>200</v>
       </c>
-      <c r="C34" s="85">
+      <c r="C34" s="83">
         <v>178</v>
       </c>
-      <c r="D34" s="83">
+      <c r="D34" s="81">
         <v>211</v>
       </c>
-      <c r="E34" s="94">
+      <c r="E34" s="92">
         <v>208</v>
       </c>
       <c r="F34" s="14">
@@ -29793,16 +29182,16 @@
       <c r="A35" s="46">
         <v>1987</v>
       </c>
-      <c r="B35" s="83">
+      <c r="B35" s="81">
         <v>209</v>
       </c>
-      <c r="C35" s="85">
+      <c r="C35" s="83">
         <v>186</v>
       </c>
-      <c r="D35" s="83">
+      <c r="D35" s="81">
         <v>217</v>
       </c>
-      <c r="E35" s="94">
+      <c r="E35" s="92">
         <v>214</v>
       </c>
       <c r="F35" s="45">
@@ -29824,16 +29213,16 @@
       <c r="A36" s="9">
         <v>1986</v>
       </c>
-      <c r="B36" s="83">
+      <c r="B36" s="81">
         <v>213</v>
       </c>
-      <c r="C36" s="85">
+      <c r="C36" s="83">
         <v>189</v>
       </c>
-      <c r="D36" s="83">
+      <c r="D36" s="81">
         <v>218</v>
       </c>
-      <c r="E36" s="94">
+      <c r="E36" s="92">
         <v>218</v>
       </c>
       <c r="F36" s="14">
@@ -29855,16 +29244,16 @@
       <c r="A37" s="46">
         <v>1985</v>
       </c>
-      <c r="B37" s="83">
+      <c r="B37" s="81">
         <v>215</v>
       </c>
-      <c r="C37" s="85">
+      <c r="C37" s="83">
         <v>192</v>
       </c>
-      <c r="D37" s="83">
+      <c r="D37" s="81">
         <v>219</v>
       </c>
-      <c r="E37" s="94">
+      <c r="E37" s="92">
         <v>221</v>
       </c>
       <c r="F37" s="45">
@@ -29886,16 +29275,16 @@
       <c r="A38" s="9">
         <v>1984</v>
       </c>
-      <c r="B38" s="83">
+      <c r="B38" s="81">
         <v>218</v>
       </c>
-      <c r="C38" s="85">
+      <c r="C38" s="83">
         <v>197</v>
       </c>
-      <c r="D38" s="83">
+      <c r="D38" s="81">
         <v>220</v>
       </c>
-      <c r="E38" s="94">
+      <c r="E38" s="92">
         <v>224</v>
       </c>
       <c r="F38" s="14">
@@ -29917,16 +29306,16 @@
       <c r="A39" s="46">
         <v>1983</v>
       </c>
-      <c r="B39" s="83">
+      <c r="B39" s="81">
         <v>225</v>
       </c>
-      <c r="C39" s="85">
+      <c r="C39" s="83">
         <v>201</v>
       </c>
-      <c r="D39" s="83">
+      <c r="D39" s="81">
         <v>227</v>
       </c>
-      <c r="E39" s="94">
+      <c r="E39" s="92">
         <v>227</v>
       </c>
       <c r="F39" s="45">
@@ -29948,16 +29337,16 @@
       <c r="A40" s="9">
         <v>1982</v>
       </c>
-      <c r="B40" s="83">
+      <c r="B40" s="81">
         <v>230</v>
       </c>
-      <c r="C40" s="85">
+      <c r="C40" s="83">
         <v>205</v>
       </c>
-      <c r="D40" s="83">
+      <c r="D40" s="81">
         <v>238</v>
       </c>
-      <c r="E40" s="94">
+      <c r="E40" s="92">
         <v>233</v>
       </c>
       <c r="F40" s="14">
@@ -29979,16 +29368,16 @@
       <c r="A41" s="46">
         <v>1981</v>
       </c>
-      <c r="B41" s="83">
+      <c r="B41" s="81">
         <v>240</v>
       </c>
-      <c r="C41" s="85">
+      <c r="C41" s="83">
         <v>216</v>
       </c>
-      <c r="D41" s="83">
+      <c r="D41" s="81">
         <v>257</v>
       </c>
-      <c r="E41" s="94">
+      <c r="E41" s="92">
         <v>249</v>
       </c>
       <c r="F41" s="45">
@@ -30010,16 +29399,16 @@
       <c r="A42" s="9">
         <v>1980</v>
       </c>
-      <c r="B42" s="83">
+      <c r="B42" s="81">
         <v>263</v>
       </c>
-      <c r="C42" s="85">
+      <c r="C42" s="83">
         <v>238</v>
       </c>
-      <c r="D42" s="83">
+      <c r="D42" s="81">
         <v>285</v>
       </c>
-      <c r="E42" s="94">
+      <c r="E42" s="92">
         <v>276</v>
       </c>
       <c r="F42" s="14">
@@ -30239,6 +29628,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010011DC045639EA034996508D08AC8F77A4" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7dbf7a819558f3aedc25624ce3a3d643">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="928b0ed4-59de-4866-ab39-c285c276cabe" xmlns:ns3="10427840-475b-49c9-8fdb-b62ed56f40ff" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="999177114d252612893f88a2cdbefd84" ns2:_="" ns3:_="">
     <xsd:import namespace="928b0ed4-59de-4866-ab39-c285c276cabe"/>
@@ -30455,12 +29850,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -30471,6 +29860,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F3C6BE0-5695-470E-A59E-7BDCB6BB12DD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD3C18A0-7822-4254-9424-9F0FB7ED5054}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -30489,15 +29887,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F3C6BE0-5695-470E-A59E-7BDCB6BB12DD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F2DE4A6-F91E-4F6B-8A6E-62E71A187416}">
   <ds:schemaRefs>

--- a/data/BppTrend/Valid_Import_Files/2020_Trend_Factors_Calculator.xlsx
+++ b/data/BppTrend/Valid_Import_Files/2020_Trend_Factors_Calculator.xlsx
@@ -26568,10 +26568,10 @@
     <tabColor rgb="FF92D050"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
@@ -27890,6 +27890,9 @@
         <v>1</v>
       </c>
     </row>
+    <row r="43" spans="1:4">
+      <c r="D43" s="82"/>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="1" right="0" top="1" bottom="0.5" header="0.3" footer="0.3"/>
@@ -29628,12 +29631,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010011DC045639EA034996508D08AC8F77A4" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7dbf7a819558f3aedc25624ce3a3d643">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="928b0ed4-59de-4866-ab39-c285c276cabe" xmlns:ns3="10427840-475b-49c9-8fdb-b62ed56f40ff" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="999177114d252612893f88a2cdbefd84" ns2:_="" ns3:_="">
     <xsd:import namespace="928b0ed4-59de-4866-ab39-c285c276cabe"/>
@@ -29850,6 +29847,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -29860,15 +29863,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F3C6BE0-5695-470E-A59E-7BDCB6BB12DD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD3C18A0-7822-4254-9424-9F0FB7ED5054}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -29887,6 +29881,15 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F3C6BE0-5695-470E-A59E-7BDCB6BB12DD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F2DE4A6-F91E-4F6B-8A6E-62E71A187416}">
   <ds:schemaRefs>

--- a/data/BppTrend/Valid_Import_Files/2020_Trend_Factors_Calculator.xlsx
+++ b/data/BppTrend/Valid_Import_Files/2020_Trend_Factors_Calculator.xlsx
@@ -26570,9 +26570,7 @@
   </sheetPr>
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
   <cols>

--- a/data/BppTrend/Valid_Import_Files/2020_Trend_Factors_Calculator.xlsx
+++ b/data/BppTrend/Valid_Import_Files/2020_Trend_Factors_Calculator.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sikbhamb\Project\APAS_Automation\qa_automation\data\BppTrend\Valid_Import_Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deedeepi1\Automation\qa_automation\data\BppTrend\Valid_Import_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14420" tabRatio="920" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14415" tabRatio="920" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Trends Settings " sheetId="21" r:id="rId1"/>
@@ -979,6 +979,2051 @@
 </styleSheet>
 </file>
 
+<file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX10.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX11.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX12.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX13.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX14.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX15.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX16.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX17.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX18.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX19.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX20.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX21.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX22.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX23.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX24.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX25.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX26.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX27.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX28.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX29.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX30.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX31.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX32.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX33.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX34.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX35.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX36.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX37.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX38.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX39.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX40.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX6.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX7.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX8.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX9.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9217" name="Control 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9217"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9218" name="Control 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9218"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9219" name="Control 3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9219"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9220" name="Control 4" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9220"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9221" name="Control 5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9221"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9222" name="Control 6" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9222"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9223" name="Control 7" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9223"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9224" name="Control 8" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9224"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9225" name="Control 9" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9225"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9226" name="Control 10" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9226"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9227" name="Control 11" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9227"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9228" name="Control 12" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9228"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9229" name="Control 13" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9229"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9230" name="Control 14" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9230"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9231" name="Control 15" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9231"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9232" name="Control 16" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9232"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9233" name="Control 17" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9233"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9234" name="Control 18" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9234"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9235" name="Control 19" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9235"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9236" name="Control 20" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9236"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9237" name="Control 21" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9237"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9238" name="Control 22" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9238"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9239" name="Control 23" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9239"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9240" name="Control 24" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9240"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>27</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9241" name="Control 25" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9241"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>28</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9242" name="Control 26" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9242"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>29</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9243" name="Control 27" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9243"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>30</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9244" name="Control 28" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9244"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>31</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>32</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9245" name="Control 29" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9245"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>32</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>33</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9246" name="Control 30" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9246"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>33</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>34</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9247" name="Control 31" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9247"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>34</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>35</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9248" name="Control 32" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9248"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>35</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>36</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9249" name="Control 33" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9249"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>36</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>37</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9250" name="Control 34" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9250"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>37</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>38</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9251" name="Control 35" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9251"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>38</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>39</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9252" name="Control 36" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9252"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>39</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>40</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9253" name="Control 37" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9253"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>40</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>41</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9254" name="Control 38" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9254"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>41</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>42</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9255" name="Control 39" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9255"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>42</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>257175</xdr:colOff>
+          <xdr:row>43</xdr:row>
+          <xdr:rowOff>85725</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9256" name="Control 40" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9256"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -1285,12 +3330,12 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="55.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="55.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1346,14 +3391,14 @@
   </sheetPr>
   <dimension ref="A1:AH44"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="23" width="5.7265625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="23" width="5.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34">
@@ -3785,7 +5830,7 @@
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="1:14">
       <c r="A2" s="17"/>
@@ -4878,7 +6923,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="1:10">
       <c r="A2" s="41" t="s">
@@ -5558,19 +7603,19 @@
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.7265625" style="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.1796875" style="21" collapsed="1"/>
-    <col min="3" max="11" width="6.453125" style="21" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="6.453125" style="22" customWidth="1" collapsed="1"/>
-    <col min="13" max="14" width="6.453125" style="21" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="6.453125" style="22" customWidth="1" collapsed="1"/>
-    <col min="16" max="23" width="6.453125" style="21" customWidth="1" collapsed="1"/>
-    <col min="24" max="16384" width="9.1796875" style="21" collapsed="1"/>
+    <col min="1" max="1" width="14.7109375" style="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.140625" style="21" collapsed="1"/>
+    <col min="3" max="11" width="6.42578125" style="21" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="6.42578125" style="22" customWidth="1" collapsed="1"/>
+    <col min="13" max="14" width="6.42578125" style="21" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="6.42578125" style="22" customWidth="1" collapsed="1"/>
+    <col min="16" max="23" width="6.42578125" style="21" customWidth="1" collapsed="1"/>
+    <col min="24" max="16384" width="9.140625" style="21" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="31" customFormat="1" ht="14">
+    <row r="1" spans="1:23" s="31" customFormat="1" ht="14.25">
       <c r="A1" s="64" t="s">
         <v>5</v>
       </c>
@@ -14139,22 +16184,22 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.26953125" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="6.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.1796875" style="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="6.26953125" style="21" collapsed="1"/>
-    <col min="3" max="3" width="6.26953125" style="22" customWidth="1" collapsed="1"/>
-    <col min="4" max="11" width="6.26953125" style="21" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="6.26953125" style="56" customWidth="1" collapsed="1"/>
-    <col min="13" max="14" width="6.26953125" style="21" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="13.1796875" style="56" customWidth="1" collapsed="1"/>
-    <col min="16" max="19" width="6.26953125" style="21" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="6.26953125" style="66" collapsed="1"/>
-    <col min="21" max="23" width="6.26953125" style="21" customWidth="1" collapsed="1"/>
-    <col min="24" max="16384" width="6.26953125" style="21" collapsed="1"/>
+    <col min="1" max="1" width="14.140625" style="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="6.28515625" style="21" collapsed="1"/>
+    <col min="3" max="3" width="6.28515625" style="22" customWidth="1" collapsed="1"/>
+    <col min="4" max="11" width="6.28515625" style="21" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="6.28515625" style="56" customWidth="1" collapsed="1"/>
+    <col min="13" max="14" width="6.28515625" style="21" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="13.140625" style="56" customWidth="1" collapsed="1"/>
+    <col min="16" max="19" width="6.28515625" style="21" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="6.28515625" style="66" collapsed="1"/>
+    <col min="21" max="23" width="6.28515625" style="21" customWidth="1" collapsed="1"/>
+    <col min="24" max="16384" width="6.28515625" style="21" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="32.15" customHeight="1">
+    <row r="1" spans="1:23" ht="32.1" customHeight="1">
       <c r="A1" s="64" t="s">
         <v>7</v>
       </c>
@@ -22719,13 +24764,13 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="8.81640625" style="21" collapsed="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="8.85546875" style="21" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -23878,13 +25923,13 @@
   </sheetPr>
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A25" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.453125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="14.453125" style="21" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.453125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="14.42578125" style="21" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="38" customFormat="1">
@@ -24634,11 +26679,11 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.1796875" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="7" width="10.1796875" style="21" customWidth="1" collapsed="1"/>
-    <col min="8" max="16384" width="9.1796875" style="21" collapsed="1"/>
+    <col min="1" max="1" width="14.140625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="7" width="10.140625" style="21" customWidth="1" collapsed="1"/>
+    <col min="8" max="16384" width="9.140625" style="21" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -25856,10 +27901,10 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="15.1796875" style="5" customWidth="1" collapsed="1"/>
-    <col min="5" max="16384" width="9.1796875" style="21" collapsed="1"/>
+    <col min="1" max="4" width="15.140625" style="5" customWidth="1" collapsed="1"/>
+    <col min="5" max="16384" width="9.140625" style="21" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -26563,716 +28608,720 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1">
     <tabColor rgb="FF92D050"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="18.1796875" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.453125" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.453125" style="29" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.81640625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="222" width="9.1796875" style="26" collapsed="1"/>
-    <col min="223" max="223" width="18.1796875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="224" max="224" width="12.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="225" max="225" width="11.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="226" max="226" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="227" max="227" width="3.453125" style="26" customWidth="1" collapsed="1"/>
-    <col min="228" max="228" width="17.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="229" max="229" width="9.1796875" style="26" collapsed="1"/>
-    <col min="230" max="230" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="231" max="232" width="9.1796875" style="26" collapsed="1"/>
-    <col min="233" max="233" width="8.81640625" style="26" customWidth="1" collapsed="1"/>
-    <col min="234" max="478" width="9.1796875" style="26" collapsed="1"/>
-    <col min="479" max="479" width="18.1796875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="480" max="480" width="12.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="481" max="481" width="11.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="482" max="482" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="483" max="483" width="3.453125" style="26" customWidth="1" collapsed="1"/>
-    <col min="484" max="484" width="17.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="485" max="485" width="9.1796875" style="26" collapsed="1"/>
-    <col min="486" max="486" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="487" max="488" width="9.1796875" style="26" collapsed="1"/>
-    <col min="489" max="489" width="8.81640625" style="26" customWidth="1" collapsed="1"/>
-    <col min="490" max="734" width="9.1796875" style="26" collapsed="1"/>
-    <col min="735" max="735" width="18.1796875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="736" max="736" width="12.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="737" max="737" width="11.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="738" max="738" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="739" max="739" width="3.453125" style="26" customWidth="1" collapsed="1"/>
-    <col min="740" max="740" width="17.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="741" max="741" width="9.1796875" style="26" collapsed="1"/>
-    <col min="742" max="742" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="743" max="744" width="9.1796875" style="26" collapsed="1"/>
-    <col min="745" max="745" width="8.81640625" style="26" customWidth="1" collapsed="1"/>
-    <col min="746" max="990" width="9.1796875" style="26" collapsed="1"/>
-    <col min="991" max="991" width="18.1796875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="992" max="992" width="12.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="993" max="993" width="11.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="994" max="994" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="995" max="995" width="3.453125" style="26" customWidth="1" collapsed="1"/>
-    <col min="996" max="996" width="17.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="997" max="997" width="9.1796875" style="26" collapsed="1"/>
-    <col min="998" max="998" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="999" max="1000" width="9.1796875" style="26" collapsed="1"/>
-    <col min="1001" max="1001" width="8.81640625" style="26" customWidth="1" collapsed="1"/>
-    <col min="1002" max="1246" width="9.1796875" style="26" collapsed="1"/>
-    <col min="1247" max="1247" width="18.1796875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="1248" max="1248" width="12.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="1249" max="1249" width="11.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="1250" max="1250" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="1251" max="1251" width="3.453125" style="26" customWidth="1" collapsed="1"/>
-    <col min="1252" max="1252" width="17.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="1253" max="1253" width="9.1796875" style="26" collapsed="1"/>
-    <col min="1254" max="1254" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="1255" max="1256" width="9.1796875" style="26" collapsed="1"/>
-    <col min="1257" max="1257" width="8.81640625" style="26" customWidth="1" collapsed="1"/>
-    <col min="1258" max="1502" width="9.1796875" style="26" collapsed="1"/>
-    <col min="1503" max="1503" width="18.1796875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="1504" max="1504" width="12.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="1505" max="1505" width="11.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="1506" max="1506" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="1507" max="1507" width="3.453125" style="26" customWidth="1" collapsed="1"/>
-    <col min="1508" max="1508" width="17.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="1509" max="1509" width="9.1796875" style="26" collapsed="1"/>
-    <col min="1510" max="1510" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="1511" max="1512" width="9.1796875" style="26" collapsed="1"/>
-    <col min="1513" max="1513" width="8.81640625" style="26" customWidth="1" collapsed="1"/>
-    <col min="1514" max="1758" width="9.1796875" style="26" collapsed="1"/>
-    <col min="1759" max="1759" width="18.1796875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="1760" max="1760" width="12.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="1761" max="1761" width="11.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="1762" max="1762" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="1763" max="1763" width="3.453125" style="26" customWidth="1" collapsed="1"/>
-    <col min="1764" max="1764" width="17.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="1765" max="1765" width="9.1796875" style="26" collapsed="1"/>
-    <col min="1766" max="1766" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="1767" max="1768" width="9.1796875" style="26" collapsed="1"/>
-    <col min="1769" max="1769" width="8.81640625" style="26" customWidth="1" collapsed="1"/>
-    <col min="1770" max="2014" width="9.1796875" style="26" collapsed="1"/>
-    <col min="2015" max="2015" width="18.1796875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2016" max="2016" width="12.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2017" max="2017" width="11.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2018" max="2018" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2019" max="2019" width="3.453125" style="26" customWidth="1" collapsed="1"/>
-    <col min="2020" max="2020" width="17.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2021" max="2021" width="9.1796875" style="26" collapsed="1"/>
-    <col min="2022" max="2022" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2023" max="2024" width="9.1796875" style="26" collapsed="1"/>
-    <col min="2025" max="2025" width="8.81640625" style="26" customWidth="1" collapsed="1"/>
-    <col min="2026" max="2270" width="9.1796875" style="26" collapsed="1"/>
-    <col min="2271" max="2271" width="18.1796875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2272" max="2272" width="12.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2273" max="2273" width="11.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2274" max="2274" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2275" max="2275" width="3.453125" style="26" customWidth="1" collapsed="1"/>
-    <col min="2276" max="2276" width="17.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2277" max="2277" width="9.1796875" style="26" collapsed="1"/>
-    <col min="2278" max="2278" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2279" max="2280" width="9.1796875" style="26" collapsed="1"/>
-    <col min="2281" max="2281" width="8.81640625" style="26" customWidth="1" collapsed="1"/>
-    <col min="2282" max="2526" width="9.1796875" style="26" collapsed="1"/>
-    <col min="2527" max="2527" width="18.1796875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2528" max="2528" width="12.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2529" max="2529" width="11.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2530" max="2530" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2531" max="2531" width="3.453125" style="26" customWidth="1" collapsed="1"/>
-    <col min="2532" max="2532" width="17.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2533" max="2533" width="9.1796875" style="26" collapsed="1"/>
-    <col min="2534" max="2534" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2535" max="2536" width="9.1796875" style="26" collapsed="1"/>
-    <col min="2537" max="2537" width="8.81640625" style="26" customWidth="1" collapsed="1"/>
-    <col min="2538" max="2782" width="9.1796875" style="26" collapsed="1"/>
-    <col min="2783" max="2783" width="18.1796875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2784" max="2784" width="12.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2785" max="2785" width="11.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2786" max="2786" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2787" max="2787" width="3.453125" style="26" customWidth="1" collapsed="1"/>
-    <col min="2788" max="2788" width="17.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2789" max="2789" width="9.1796875" style="26" collapsed="1"/>
-    <col min="2790" max="2790" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2791" max="2792" width="9.1796875" style="26" collapsed="1"/>
-    <col min="2793" max="2793" width="8.81640625" style="26" customWidth="1" collapsed="1"/>
-    <col min="2794" max="3038" width="9.1796875" style="26" collapsed="1"/>
-    <col min="3039" max="3039" width="18.1796875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3040" max="3040" width="12.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3041" max="3041" width="11.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3042" max="3042" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3043" max="3043" width="3.453125" style="26" customWidth="1" collapsed="1"/>
-    <col min="3044" max="3044" width="17.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3045" max="3045" width="9.1796875" style="26" collapsed="1"/>
-    <col min="3046" max="3046" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3047" max="3048" width="9.1796875" style="26" collapsed="1"/>
-    <col min="3049" max="3049" width="8.81640625" style="26" customWidth="1" collapsed="1"/>
-    <col min="3050" max="3294" width="9.1796875" style="26" collapsed="1"/>
-    <col min="3295" max="3295" width="18.1796875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3296" max="3296" width="12.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3297" max="3297" width="11.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3298" max="3298" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3299" max="3299" width="3.453125" style="26" customWidth="1" collapsed="1"/>
-    <col min="3300" max="3300" width="17.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3301" max="3301" width="9.1796875" style="26" collapsed="1"/>
-    <col min="3302" max="3302" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3303" max="3304" width="9.1796875" style="26" collapsed="1"/>
-    <col min="3305" max="3305" width="8.81640625" style="26" customWidth="1" collapsed="1"/>
-    <col min="3306" max="3550" width="9.1796875" style="26" collapsed="1"/>
-    <col min="3551" max="3551" width="18.1796875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3552" max="3552" width="12.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3553" max="3553" width="11.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3554" max="3554" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3555" max="3555" width="3.453125" style="26" customWidth="1" collapsed="1"/>
-    <col min="3556" max="3556" width="17.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3557" max="3557" width="9.1796875" style="26" collapsed="1"/>
-    <col min="3558" max="3558" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3559" max="3560" width="9.1796875" style="26" collapsed="1"/>
-    <col min="3561" max="3561" width="8.81640625" style="26" customWidth="1" collapsed="1"/>
-    <col min="3562" max="3806" width="9.1796875" style="26" collapsed="1"/>
-    <col min="3807" max="3807" width="18.1796875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3808" max="3808" width="12.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3809" max="3809" width="11.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3810" max="3810" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3811" max="3811" width="3.453125" style="26" customWidth="1" collapsed="1"/>
-    <col min="3812" max="3812" width="17.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3813" max="3813" width="9.1796875" style="26" collapsed="1"/>
-    <col min="3814" max="3814" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3815" max="3816" width="9.1796875" style="26" collapsed="1"/>
-    <col min="3817" max="3817" width="8.81640625" style="26" customWidth="1" collapsed="1"/>
-    <col min="3818" max="4062" width="9.1796875" style="26" collapsed="1"/>
-    <col min="4063" max="4063" width="18.1796875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4064" max="4064" width="12.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4065" max="4065" width="11.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4066" max="4066" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4067" max="4067" width="3.453125" style="26" customWidth="1" collapsed="1"/>
-    <col min="4068" max="4068" width="17.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4069" max="4069" width="9.1796875" style="26" collapsed="1"/>
-    <col min="4070" max="4070" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4071" max="4072" width="9.1796875" style="26" collapsed="1"/>
-    <col min="4073" max="4073" width="8.81640625" style="26" customWidth="1" collapsed="1"/>
-    <col min="4074" max="4318" width="9.1796875" style="26" collapsed="1"/>
-    <col min="4319" max="4319" width="18.1796875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4320" max="4320" width="12.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4321" max="4321" width="11.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4322" max="4322" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4323" max="4323" width="3.453125" style="26" customWidth="1" collapsed="1"/>
-    <col min="4324" max="4324" width="17.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4325" max="4325" width="9.1796875" style="26" collapsed="1"/>
-    <col min="4326" max="4326" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4327" max="4328" width="9.1796875" style="26" collapsed="1"/>
-    <col min="4329" max="4329" width="8.81640625" style="26" customWidth="1" collapsed="1"/>
-    <col min="4330" max="4574" width="9.1796875" style="26" collapsed="1"/>
-    <col min="4575" max="4575" width="18.1796875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4576" max="4576" width="12.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4577" max="4577" width="11.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4578" max="4578" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4579" max="4579" width="3.453125" style="26" customWidth="1" collapsed="1"/>
-    <col min="4580" max="4580" width="17.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4581" max="4581" width="9.1796875" style="26" collapsed="1"/>
-    <col min="4582" max="4582" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4583" max="4584" width="9.1796875" style="26" collapsed="1"/>
-    <col min="4585" max="4585" width="8.81640625" style="26" customWidth="1" collapsed="1"/>
-    <col min="4586" max="4830" width="9.1796875" style="26" collapsed="1"/>
-    <col min="4831" max="4831" width="18.1796875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4832" max="4832" width="12.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4833" max="4833" width="11.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4834" max="4834" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4835" max="4835" width="3.453125" style="26" customWidth="1" collapsed="1"/>
-    <col min="4836" max="4836" width="17.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4837" max="4837" width="9.1796875" style="26" collapsed="1"/>
-    <col min="4838" max="4838" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4839" max="4840" width="9.1796875" style="26" collapsed="1"/>
-    <col min="4841" max="4841" width="8.81640625" style="26" customWidth="1" collapsed="1"/>
-    <col min="4842" max="5086" width="9.1796875" style="26" collapsed="1"/>
-    <col min="5087" max="5087" width="18.1796875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5088" max="5088" width="12.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5089" max="5089" width="11.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5090" max="5090" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5091" max="5091" width="3.453125" style="26" customWidth="1" collapsed="1"/>
-    <col min="5092" max="5092" width="17.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5093" max="5093" width="9.1796875" style="26" collapsed="1"/>
-    <col min="5094" max="5094" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5095" max="5096" width="9.1796875" style="26" collapsed="1"/>
-    <col min="5097" max="5097" width="8.81640625" style="26" customWidth="1" collapsed="1"/>
-    <col min="5098" max="5342" width="9.1796875" style="26" collapsed="1"/>
-    <col min="5343" max="5343" width="18.1796875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5344" max="5344" width="12.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5345" max="5345" width="11.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5346" max="5346" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5347" max="5347" width="3.453125" style="26" customWidth="1" collapsed="1"/>
-    <col min="5348" max="5348" width="17.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5349" max="5349" width="9.1796875" style="26" collapsed="1"/>
-    <col min="5350" max="5350" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5351" max="5352" width="9.1796875" style="26" collapsed="1"/>
-    <col min="5353" max="5353" width="8.81640625" style="26" customWidth="1" collapsed="1"/>
-    <col min="5354" max="5598" width="9.1796875" style="26" collapsed="1"/>
-    <col min="5599" max="5599" width="18.1796875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5600" max="5600" width="12.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5601" max="5601" width="11.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5602" max="5602" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5603" max="5603" width="3.453125" style="26" customWidth="1" collapsed="1"/>
-    <col min="5604" max="5604" width="17.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5605" max="5605" width="9.1796875" style="26" collapsed="1"/>
-    <col min="5606" max="5606" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5607" max="5608" width="9.1796875" style="26" collapsed="1"/>
-    <col min="5609" max="5609" width="8.81640625" style="26" customWidth="1" collapsed="1"/>
-    <col min="5610" max="5854" width="9.1796875" style="26" collapsed="1"/>
-    <col min="5855" max="5855" width="18.1796875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5856" max="5856" width="12.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5857" max="5857" width="11.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5858" max="5858" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5859" max="5859" width="3.453125" style="26" customWidth="1" collapsed="1"/>
-    <col min="5860" max="5860" width="17.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5861" max="5861" width="9.1796875" style="26" collapsed="1"/>
-    <col min="5862" max="5862" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5863" max="5864" width="9.1796875" style="26" collapsed="1"/>
-    <col min="5865" max="5865" width="8.81640625" style="26" customWidth="1" collapsed="1"/>
-    <col min="5866" max="6110" width="9.1796875" style="26" collapsed="1"/>
-    <col min="6111" max="6111" width="18.1796875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6112" max="6112" width="12.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6113" max="6113" width="11.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6114" max="6114" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6115" max="6115" width="3.453125" style="26" customWidth="1" collapsed="1"/>
-    <col min="6116" max="6116" width="17.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6117" max="6117" width="9.1796875" style="26" collapsed="1"/>
-    <col min="6118" max="6118" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6119" max="6120" width="9.1796875" style="26" collapsed="1"/>
-    <col min="6121" max="6121" width="8.81640625" style="26" customWidth="1" collapsed="1"/>
-    <col min="6122" max="6366" width="9.1796875" style="26" collapsed="1"/>
-    <col min="6367" max="6367" width="18.1796875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6368" max="6368" width="12.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6369" max="6369" width="11.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6370" max="6370" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6371" max="6371" width="3.453125" style="26" customWidth="1" collapsed="1"/>
-    <col min="6372" max="6372" width="17.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6373" max="6373" width="9.1796875" style="26" collapsed="1"/>
-    <col min="6374" max="6374" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6375" max="6376" width="9.1796875" style="26" collapsed="1"/>
-    <col min="6377" max="6377" width="8.81640625" style="26" customWidth="1" collapsed="1"/>
-    <col min="6378" max="6622" width="9.1796875" style="26" collapsed="1"/>
-    <col min="6623" max="6623" width="18.1796875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6624" max="6624" width="12.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6625" max="6625" width="11.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6626" max="6626" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6627" max="6627" width="3.453125" style="26" customWidth="1" collapsed="1"/>
-    <col min="6628" max="6628" width="17.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6629" max="6629" width="9.1796875" style="26" collapsed="1"/>
-    <col min="6630" max="6630" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6631" max="6632" width="9.1796875" style="26" collapsed="1"/>
-    <col min="6633" max="6633" width="8.81640625" style="26" customWidth="1" collapsed="1"/>
-    <col min="6634" max="6878" width="9.1796875" style="26" collapsed="1"/>
-    <col min="6879" max="6879" width="18.1796875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6880" max="6880" width="12.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6881" max="6881" width="11.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6882" max="6882" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6883" max="6883" width="3.453125" style="26" customWidth="1" collapsed="1"/>
-    <col min="6884" max="6884" width="17.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6885" max="6885" width="9.1796875" style="26" collapsed="1"/>
-    <col min="6886" max="6886" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6887" max="6888" width="9.1796875" style="26" collapsed="1"/>
-    <col min="6889" max="6889" width="8.81640625" style="26" customWidth="1" collapsed="1"/>
-    <col min="6890" max="7134" width="9.1796875" style="26" collapsed="1"/>
-    <col min="7135" max="7135" width="18.1796875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7136" max="7136" width="12.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7137" max="7137" width="11.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7138" max="7138" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7139" max="7139" width="3.453125" style="26" customWidth="1" collapsed="1"/>
-    <col min="7140" max="7140" width="17.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7141" max="7141" width="9.1796875" style="26" collapsed="1"/>
-    <col min="7142" max="7142" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7143" max="7144" width="9.1796875" style="26" collapsed="1"/>
-    <col min="7145" max="7145" width="8.81640625" style="26" customWidth="1" collapsed="1"/>
-    <col min="7146" max="7390" width="9.1796875" style="26" collapsed="1"/>
-    <col min="7391" max="7391" width="18.1796875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7392" max="7392" width="12.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7393" max="7393" width="11.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7394" max="7394" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7395" max="7395" width="3.453125" style="26" customWidth="1" collapsed="1"/>
-    <col min="7396" max="7396" width="17.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7397" max="7397" width="9.1796875" style="26" collapsed="1"/>
-    <col min="7398" max="7398" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7399" max="7400" width="9.1796875" style="26" collapsed="1"/>
-    <col min="7401" max="7401" width="8.81640625" style="26" customWidth="1" collapsed="1"/>
-    <col min="7402" max="7646" width="9.1796875" style="26" collapsed="1"/>
-    <col min="7647" max="7647" width="18.1796875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7648" max="7648" width="12.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7649" max="7649" width="11.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7650" max="7650" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7651" max="7651" width="3.453125" style="26" customWidth="1" collapsed="1"/>
-    <col min="7652" max="7652" width="17.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7653" max="7653" width="9.1796875" style="26" collapsed="1"/>
-    <col min="7654" max="7654" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7655" max="7656" width="9.1796875" style="26" collapsed="1"/>
-    <col min="7657" max="7657" width="8.81640625" style="26" customWidth="1" collapsed="1"/>
-    <col min="7658" max="7902" width="9.1796875" style="26" collapsed="1"/>
-    <col min="7903" max="7903" width="18.1796875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7904" max="7904" width="12.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7905" max="7905" width="11.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7906" max="7906" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7907" max="7907" width="3.453125" style="26" customWidth="1" collapsed="1"/>
-    <col min="7908" max="7908" width="17.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7909" max="7909" width="9.1796875" style="26" collapsed="1"/>
-    <col min="7910" max="7910" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7911" max="7912" width="9.1796875" style="26" collapsed="1"/>
-    <col min="7913" max="7913" width="8.81640625" style="26" customWidth="1" collapsed="1"/>
-    <col min="7914" max="8158" width="9.1796875" style="26" collapsed="1"/>
-    <col min="8159" max="8159" width="18.1796875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8160" max="8160" width="12.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8161" max="8161" width="11.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8162" max="8162" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8163" max="8163" width="3.453125" style="26" customWidth="1" collapsed="1"/>
-    <col min="8164" max="8164" width="17.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8165" max="8165" width="9.1796875" style="26" collapsed="1"/>
-    <col min="8166" max="8166" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8167" max="8168" width="9.1796875" style="26" collapsed="1"/>
-    <col min="8169" max="8169" width="8.81640625" style="26" customWidth="1" collapsed="1"/>
-    <col min="8170" max="8414" width="9.1796875" style="26" collapsed="1"/>
-    <col min="8415" max="8415" width="18.1796875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8416" max="8416" width="12.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8417" max="8417" width="11.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8418" max="8418" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8419" max="8419" width="3.453125" style="26" customWidth="1" collapsed="1"/>
-    <col min="8420" max="8420" width="17.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8421" max="8421" width="9.1796875" style="26" collapsed="1"/>
-    <col min="8422" max="8422" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8423" max="8424" width="9.1796875" style="26" collapsed="1"/>
-    <col min="8425" max="8425" width="8.81640625" style="26" customWidth="1" collapsed="1"/>
-    <col min="8426" max="8670" width="9.1796875" style="26" collapsed="1"/>
-    <col min="8671" max="8671" width="18.1796875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8672" max="8672" width="12.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8673" max="8673" width="11.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8674" max="8674" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8675" max="8675" width="3.453125" style="26" customWidth="1" collapsed="1"/>
-    <col min="8676" max="8676" width="17.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8677" max="8677" width="9.1796875" style="26" collapsed="1"/>
-    <col min="8678" max="8678" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8679" max="8680" width="9.1796875" style="26" collapsed="1"/>
-    <col min="8681" max="8681" width="8.81640625" style="26" customWidth="1" collapsed="1"/>
-    <col min="8682" max="8926" width="9.1796875" style="26" collapsed="1"/>
-    <col min="8927" max="8927" width="18.1796875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8928" max="8928" width="12.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8929" max="8929" width="11.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8930" max="8930" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8931" max="8931" width="3.453125" style="26" customWidth="1" collapsed="1"/>
-    <col min="8932" max="8932" width="17.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8933" max="8933" width="9.1796875" style="26" collapsed="1"/>
-    <col min="8934" max="8934" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8935" max="8936" width="9.1796875" style="26" collapsed="1"/>
-    <col min="8937" max="8937" width="8.81640625" style="26" customWidth="1" collapsed="1"/>
-    <col min="8938" max="9182" width="9.1796875" style="26" collapsed="1"/>
-    <col min="9183" max="9183" width="18.1796875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9184" max="9184" width="12.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9185" max="9185" width="11.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9186" max="9186" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9187" max="9187" width="3.453125" style="26" customWidth="1" collapsed="1"/>
-    <col min="9188" max="9188" width="17.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9189" max="9189" width="9.1796875" style="26" collapsed="1"/>
-    <col min="9190" max="9190" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9191" max="9192" width="9.1796875" style="26" collapsed="1"/>
-    <col min="9193" max="9193" width="8.81640625" style="26" customWidth="1" collapsed="1"/>
-    <col min="9194" max="9438" width="9.1796875" style="26" collapsed="1"/>
-    <col min="9439" max="9439" width="18.1796875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9440" max="9440" width="12.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9441" max="9441" width="11.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9442" max="9442" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9443" max="9443" width="3.453125" style="26" customWidth="1" collapsed="1"/>
-    <col min="9444" max="9444" width="17.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9445" max="9445" width="9.1796875" style="26" collapsed="1"/>
-    <col min="9446" max="9446" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9447" max="9448" width="9.1796875" style="26" collapsed="1"/>
-    <col min="9449" max="9449" width="8.81640625" style="26" customWidth="1" collapsed="1"/>
-    <col min="9450" max="9694" width="9.1796875" style="26" collapsed="1"/>
-    <col min="9695" max="9695" width="18.1796875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9696" max="9696" width="12.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9697" max="9697" width="11.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9698" max="9698" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9699" max="9699" width="3.453125" style="26" customWidth="1" collapsed="1"/>
-    <col min="9700" max="9700" width="17.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9701" max="9701" width="9.1796875" style="26" collapsed="1"/>
-    <col min="9702" max="9702" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9703" max="9704" width="9.1796875" style="26" collapsed="1"/>
-    <col min="9705" max="9705" width="8.81640625" style="26" customWidth="1" collapsed="1"/>
-    <col min="9706" max="9950" width="9.1796875" style="26" collapsed="1"/>
-    <col min="9951" max="9951" width="18.1796875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9952" max="9952" width="12.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9953" max="9953" width="11.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9954" max="9954" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9955" max="9955" width="3.453125" style="26" customWidth="1" collapsed="1"/>
-    <col min="9956" max="9956" width="17.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9957" max="9957" width="9.1796875" style="26" collapsed="1"/>
-    <col min="9958" max="9958" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9959" max="9960" width="9.1796875" style="26" collapsed="1"/>
-    <col min="9961" max="9961" width="8.81640625" style="26" customWidth="1" collapsed="1"/>
-    <col min="9962" max="10206" width="9.1796875" style="26" collapsed="1"/>
-    <col min="10207" max="10207" width="18.1796875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10208" max="10208" width="12.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10209" max="10209" width="11.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10210" max="10210" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10211" max="10211" width="3.453125" style="26" customWidth="1" collapsed="1"/>
-    <col min="10212" max="10212" width="17.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10213" max="10213" width="9.1796875" style="26" collapsed="1"/>
-    <col min="10214" max="10214" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10215" max="10216" width="9.1796875" style="26" collapsed="1"/>
-    <col min="10217" max="10217" width="8.81640625" style="26" customWidth="1" collapsed="1"/>
-    <col min="10218" max="10462" width="9.1796875" style="26" collapsed="1"/>
-    <col min="10463" max="10463" width="18.1796875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10464" max="10464" width="12.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10465" max="10465" width="11.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10466" max="10466" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10467" max="10467" width="3.453125" style="26" customWidth="1" collapsed="1"/>
-    <col min="10468" max="10468" width="17.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10469" max="10469" width="9.1796875" style="26" collapsed="1"/>
-    <col min="10470" max="10470" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10471" max="10472" width="9.1796875" style="26" collapsed="1"/>
-    <col min="10473" max="10473" width="8.81640625" style="26" customWidth="1" collapsed="1"/>
-    <col min="10474" max="10718" width="9.1796875" style="26" collapsed="1"/>
-    <col min="10719" max="10719" width="18.1796875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10720" max="10720" width="12.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10721" max="10721" width="11.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10722" max="10722" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10723" max="10723" width="3.453125" style="26" customWidth="1" collapsed="1"/>
-    <col min="10724" max="10724" width="17.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10725" max="10725" width="9.1796875" style="26" collapsed="1"/>
-    <col min="10726" max="10726" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10727" max="10728" width="9.1796875" style="26" collapsed="1"/>
-    <col min="10729" max="10729" width="8.81640625" style="26" customWidth="1" collapsed="1"/>
-    <col min="10730" max="10974" width="9.1796875" style="26" collapsed="1"/>
-    <col min="10975" max="10975" width="18.1796875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10976" max="10976" width="12.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10977" max="10977" width="11.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10978" max="10978" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10979" max="10979" width="3.453125" style="26" customWidth="1" collapsed="1"/>
-    <col min="10980" max="10980" width="17.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10981" max="10981" width="9.1796875" style="26" collapsed="1"/>
-    <col min="10982" max="10982" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10983" max="10984" width="9.1796875" style="26" collapsed="1"/>
-    <col min="10985" max="10985" width="8.81640625" style="26" customWidth="1" collapsed="1"/>
-    <col min="10986" max="11230" width="9.1796875" style="26" collapsed="1"/>
-    <col min="11231" max="11231" width="18.1796875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11232" max="11232" width="12.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11233" max="11233" width="11.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11234" max="11234" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11235" max="11235" width="3.453125" style="26" customWidth="1" collapsed="1"/>
-    <col min="11236" max="11236" width="17.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11237" max="11237" width="9.1796875" style="26" collapsed="1"/>
-    <col min="11238" max="11238" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11239" max="11240" width="9.1796875" style="26" collapsed="1"/>
-    <col min="11241" max="11241" width="8.81640625" style="26" customWidth="1" collapsed="1"/>
-    <col min="11242" max="11486" width="9.1796875" style="26" collapsed="1"/>
-    <col min="11487" max="11487" width="18.1796875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11488" max="11488" width="12.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11489" max="11489" width="11.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11490" max="11490" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11491" max="11491" width="3.453125" style="26" customWidth="1" collapsed="1"/>
-    <col min="11492" max="11492" width="17.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11493" max="11493" width="9.1796875" style="26" collapsed="1"/>
-    <col min="11494" max="11494" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11495" max="11496" width="9.1796875" style="26" collapsed="1"/>
-    <col min="11497" max="11497" width="8.81640625" style="26" customWidth="1" collapsed="1"/>
-    <col min="11498" max="11742" width="9.1796875" style="26" collapsed="1"/>
-    <col min="11743" max="11743" width="18.1796875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11744" max="11744" width="12.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11745" max="11745" width="11.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11746" max="11746" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11747" max="11747" width="3.453125" style="26" customWidth="1" collapsed="1"/>
-    <col min="11748" max="11748" width="17.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11749" max="11749" width="9.1796875" style="26" collapsed="1"/>
-    <col min="11750" max="11750" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11751" max="11752" width="9.1796875" style="26" collapsed="1"/>
-    <col min="11753" max="11753" width="8.81640625" style="26" customWidth="1" collapsed="1"/>
-    <col min="11754" max="11998" width="9.1796875" style="26" collapsed="1"/>
-    <col min="11999" max="11999" width="18.1796875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12000" max="12000" width="12.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12001" max="12001" width="11.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12002" max="12002" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12003" max="12003" width="3.453125" style="26" customWidth="1" collapsed="1"/>
-    <col min="12004" max="12004" width="17.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12005" max="12005" width="9.1796875" style="26" collapsed="1"/>
-    <col min="12006" max="12006" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12007" max="12008" width="9.1796875" style="26" collapsed="1"/>
-    <col min="12009" max="12009" width="8.81640625" style="26" customWidth="1" collapsed="1"/>
-    <col min="12010" max="12254" width="9.1796875" style="26" collapsed="1"/>
-    <col min="12255" max="12255" width="18.1796875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12256" max="12256" width="12.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12257" max="12257" width="11.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12258" max="12258" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12259" max="12259" width="3.453125" style="26" customWidth="1" collapsed="1"/>
-    <col min="12260" max="12260" width="17.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12261" max="12261" width="9.1796875" style="26" collapsed="1"/>
-    <col min="12262" max="12262" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12263" max="12264" width="9.1796875" style="26" collapsed="1"/>
-    <col min="12265" max="12265" width="8.81640625" style="26" customWidth="1" collapsed="1"/>
-    <col min="12266" max="12510" width="9.1796875" style="26" collapsed="1"/>
-    <col min="12511" max="12511" width="18.1796875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12512" max="12512" width="12.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12513" max="12513" width="11.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12514" max="12514" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12515" max="12515" width="3.453125" style="26" customWidth="1" collapsed="1"/>
-    <col min="12516" max="12516" width="17.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12517" max="12517" width="9.1796875" style="26" collapsed="1"/>
-    <col min="12518" max="12518" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12519" max="12520" width="9.1796875" style="26" collapsed="1"/>
-    <col min="12521" max="12521" width="8.81640625" style="26" customWidth="1" collapsed="1"/>
-    <col min="12522" max="12766" width="9.1796875" style="26" collapsed="1"/>
-    <col min="12767" max="12767" width="18.1796875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12768" max="12768" width="12.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12769" max="12769" width="11.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12770" max="12770" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12771" max="12771" width="3.453125" style="26" customWidth="1" collapsed="1"/>
-    <col min="12772" max="12772" width="17.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12773" max="12773" width="9.1796875" style="26" collapsed="1"/>
-    <col min="12774" max="12774" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12775" max="12776" width="9.1796875" style="26" collapsed="1"/>
-    <col min="12777" max="12777" width="8.81640625" style="26" customWidth="1" collapsed="1"/>
-    <col min="12778" max="13022" width="9.1796875" style="26" collapsed="1"/>
-    <col min="13023" max="13023" width="18.1796875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13024" max="13024" width="12.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13025" max="13025" width="11.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13026" max="13026" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13027" max="13027" width="3.453125" style="26" customWidth="1" collapsed="1"/>
-    <col min="13028" max="13028" width="17.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13029" max="13029" width="9.1796875" style="26" collapsed="1"/>
-    <col min="13030" max="13030" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13031" max="13032" width="9.1796875" style="26" collapsed="1"/>
-    <col min="13033" max="13033" width="8.81640625" style="26" customWidth="1" collapsed="1"/>
-    <col min="13034" max="13278" width="9.1796875" style="26" collapsed="1"/>
-    <col min="13279" max="13279" width="18.1796875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13280" max="13280" width="12.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13281" max="13281" width="11.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13282" max="13282" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13283" max="13283" width="3.453125" style="26" customWidth="1" collapsed="1"/>
-    <col min="13284" max="13284" width="17.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13285" max="13285" width="9.1796875" style="26" collapsed="1"/>
-    <col min="13286" max="13286" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13287" max="13288" width="9.1796875" style="26" collapsed="1"/>
-    <col min="13289" max="13289" width="8.81640625" style="26" customWidth="1" collapsed="1"/>
-    <col min="13290" max="13534" width="9.1796875" style="26" collapsed="1"/>
-    <col min="13535" max="13535" width="18.1796875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13536" max="13536" width="12.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13537" max="13537" width="11.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13538" max="13538" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13539" max="13539" width="3.453125" style="26" customWidth="1" collapsed="1"/>
-    <col min="13540" max="13540" width="17.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13541" max="13541" width="9.1796875" style="26" collapsed="1"/>
-    <col min="13542" max="13542" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13543" max="13544" width="9.1796875" style="26" collapsed="1"/>
-    <col min="13545" max="13545" width="8.81640625" style="26" customWidth="1" collapsed="1"/>
-    <col min="13546" max="13790" width="9.1796875" style="26" collapsed="1"/>
-    <col min="13791" max="13791" width="18.1796875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13792" max="13792" width="12.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13793" max="13793" width="11.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13794" max="13794" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13795" max="13795" width="3.453125" style="26" customWidth="1" collapsed="1"/>
-    <col min="13796" max="13796" width="17.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13797" max="13797" width="9.1796875" style="26" collapsed="1"/>
-    <col min="13798" max="13798" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13799" max="13800" width="9.1796875" style="26" collapsed="1"/>
-    <col min="13801" max="13801" width="8.81640625" style="26" customWidth="1" collapsed="1"/>
-    <col min="13802" max="14046" width="9.1796875" style="26" collapsed="1"/>
-    <col min="14047" max="14047" width="18.1796875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14048" max="14048" width="12.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14049" max="14049" width="11.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14050" max="14050" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14051" max="14051" width="3.453125" style="26" customWidth="1" collapsed="1"/>
-    <col min="14052" max="14052" width="17.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14053" max="14053" width="9.1796875" style="26" collapsed="1"/>
-    <col min="14054" max="14054" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14055" max="14056" width="9.1796875" style="26" collapsed="1"/>
-    <col min="14057" max="14057" width="8.81640625" style="26" customWidth="1" collapsed="1"/>
-    <col min="14058" max="14302" width="9.1796875" style="26" collapsed="1"/>
-    <col min="14303" max="14303" width="18.1796875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14304" max="14304" width="12.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14305" max="14305" width="11.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14306" max="14306" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14307" max="14307" width="3.453125" style="26" customWidth="1" collapsed="1"/>
-    <col min="14308" max="14308" width="17.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14309" max="14309" width="9.1796875" style="26" collapsed="1"/>
-    <col min="14310" max="14310" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14311" max="14312" width="9.1796875" style="26" collapsed="1"/>
-    <col min="14313" max="14313" width="8.81640625" style="26" customWidth="1" collapsed="1"/>
-    <col min="14314" max="14558" width="9.1796875" style="26" collapsed="1"/>
-    <col min="14559" max="14559" width="18.1796875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14560" max="14560" width="12.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14561" max="14561" width="11.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14562" max="14562" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14563" max="14563" width="3.453125" style="26" customWidth="1" collapsed="1"/>
-    <col min="14564" max="14564" width="17.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14565" max="14565" width="9.1796875" style="26" collapsed="1"/>
-    <col min="14566" max="14566" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14567" max="14568" width="9.1796875" style="26" collapsed="1"/>
-    <col min="14569" max="14569" width="8.81640625" style="26" customWidth="1" collapsed="1"/>
-    <col min="14570" max="14814" width="9.1796875" style="26" collapsed="1"/>
-    <col min="14815" max="14815" width="18.1796875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14816" max="14816" width="12.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14817" max="14817" width="11.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14818" max="14818" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14819" max="14819" width="3.453125" style="26" customWidth="1" collapsed="1"/>
-    <col min="14820" max="14820" width="17.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14821" max="14821" width="9.1796875" style="26" collapsed="1"/>
-    <col min="14822" max="14822" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14823" max="14824" width="9.1796875" style="26" collapsed="1"/>
-    <col min="14825" max="14825" width="8.81640625" style="26" customWidth="1" collapsed="1"/>
-    <col min="14826" max="15070" width="9.1796875" style="26" collapsed="1"/>
-    <col min="15071" max="15071" width="18.1796875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15072" max="15072" width="12.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15073" max="15073" width="11.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15074" max="15074" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15075" max="15075" width="3.453125" style="26" customWidth="1" collapsed="1"/>
-    <col min="15076" max="15076" width="17.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15077" max="15077" width="9.1796875" style="26" collapsed="1"/>
-    <col min="15078" max="15078" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15079" max="15080" width="9.1796875" style="26" collapsed="1"/>
-    <col min="15081" max="15081" width="8.81640625" style="26" customWidth="1" collapsed="1"/>
-    <col min="15082" max="15326" width="9.1796875" style="26" collapsed="1"/>
-    <col min="15327" max="15327" width="18.1796875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15328" max="15328" width="12.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15329" max="15329" width="11.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15330" max="15330" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15331" max="15331" width="3.453125" style="26" customWidth="1" collapsed="1"/>
-    <col min="15332" max="15332" width="17.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15333" max="15333" width="9.1796875" style="26" collapsed="1"/>
-    <col min="15334" max="15334" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15335" max="15336" width="9.1796875" style="26" collapsed="1"/>
-    <col min="15337" max="15337" width="8.81640625" style="26" customWidth="1" collapsed="1"/>
-    <col min="15338" max="15582" width="9.1796875" style="26" collapsed="1"/>
-    <col min="15583" max="15583" width="18.1796875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15584" max="15584" width="12.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15585" max="15585" width="11.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15586" max="15586" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15587" max="15587" width="3.453125" style="26" customWidth="1" collapsed="1"/>
-    <col min="15588" max="15588" width="17.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15589" max="15589" width="9.1796875" style="26" collapsed="1"/>
-    <col min="15590" max="15590" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15591" max="15592" width="9.1796875" style="26" collapsed="1"/>
-    <col min="15593" max="15593" width="8.81640625" style="26" customWidth="1" collapsed="1"/>
-    <col min="15594" max="15838" width="9.1796875" style="26" collapsed="1"/>
-    <col min="15839" max="15839" width="18.1796875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15840" max="15840" width="12.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15841" max="15841" width="11.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15842" max="15842" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15843" max="15843" width="3.453125" style="26" customWidth="1" collapsed="1"/>
-    <col min="15844" max="15844" width="17.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15845" max="15845" width="9.1796875" style="26" collapsed="1"/>
-    <col min="15846" max="15846" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15847" max="15848" width="9.1796875" style="26" collapsed="1"/>
-    <col min="15849" max="15849" width="8.81640625" style="26" customWidth="1" collapsed="1"/>
-    <col min="15850" max="16094" width="9.1796875" style="26" collapsed="1"/>
-    <col min="16095" max="16095" width="18.1796875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16096" max="16096" width="12.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16097" max="16097" width="11.453125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16098" max="16098" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16099" max="16099" width="3.453125" style="26" customWidth="1" collapsed="1"/>
-    <col min="16100" max="16100" width="17.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16101" max="16101" width="9.1796875" style="26" collapsed="1"/>
-    <col min="16102" max="16102" width="14.81640625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16103" max="16104" width="9.1796875" style="26" collapsed="1"/>
-    <col min="16105" max="16105" width="8.81640625" style="26" customWidth="1" collapsed="1"/>
-    <col min="16106" max="16369" width="9.1796875" style="26" collapsed="1"/>
-    <col min="16370" max="16384" width="9.1796875" style="26" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="18.140625" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.42578125" style="27" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.42578125" style="29" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.42578125" style="27" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.85546875" style="26" customWidth="1"/>
+    <col min="6" max="13" width="9.140625" style="26"/>
+    <col min="14" max="212" width="9.140625" style="26" collapsed="1"/>
+    <col min="213" max="213" width="18.140625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="214" max="214" width="12.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="215" max="215" width="11.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="216" max="216" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="217" max="217" width="3.42578125" style="26" customWidth="1" collapsed="1"/>
+    <col min="218" max="218" width="17.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="219" max="219" width="9.140625" style="26" collapsed="1"/>
+    <col min="220" max="220" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="221" max="222" width="9.140625" style="26" collapsed="1"/>
+    <col min="223" max="223" width="8.85546875" style="26" customWidth="1" collapsed="1"/>
+    <col min="224" max="468" width="9.140625" style="26" collapsed="1"/>
+    <col min="469" max="469" width="18.140625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="470" max="470" width="12.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="471" max="471" width="11.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="472" max="472" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="473" max="473" width="3.42578125" style="26" customWidth="1" collapsed="1"/>
+    <col min="474" max="474" width="17.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="475" max="475" width="9.140625" style="26" collapsed="1"/>
+    <col min="476" max="476" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="477" max="478" width="9.140625" style="26" collapsed="1"/>
+    <col min="479" max="479" width="8.85546875" style="26" customWidth="1" collapsed="1"/>
+    <col min="480" max="724" width="9.140625" style="26" collapsed="1"/>
+    <col min="725" max="725" width="18.140625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="726" max="726" width="12.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="727" max="727" width="11.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="728" max="728" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="729" max="729" width="3.42578125" style="26" customWidth="1" collapsed="1"/>
+    <col min="730" max="730" width="17.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="731" max="731" width="9.140625" style="26" collapsed="1"/>
+    <col min="732" max="732" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="733" max="734" width="9.140625" style="26" collapsed="1"/>
+    <col min="735" max="735" width="8.85546875" style="26" customWidth="1" collapsed="1"/>
+    <col min="736" max="980" width="9.140625" style="26" collapsed="1"/>
+    <col min="981" max="981" width="18.140625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="982" max="982" width="12.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="983" max="983" width="11.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="984" max="984" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="985" max="985" width="3.42578125" style="26" customWidth="1" collapsed="1"/>
+    <col min="986" max="986" width="17.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="987" max="987" width="9.140625" style="26" collapsed="1"/>
+    <col min="988" max="988" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="989" max="990" width="9.140625" style="26" collapsed="1"/>
+    <col min="991" max="991" width="8.85546875" style="26" customWidth="1" collapsed="1"/>
+    <col min="992" max="1236" width="9.140625" style="26" collapsed="1"/>
+    <col min="1237" max="1237" width="18.140625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1238" max="1238" width="12.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1239" max="1239" width="11.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1240" max="1240" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1241" max="1241" width="3.42578125" style="26" customWidth="1" collapsed="1"/>
+    <col min="1242" max="1242" width="17.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1243" max="1243" width="9.140625" style="26" collapsed="1"/>
+    <col min="1244" max="1244" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1245" max="1246" width="9.140625" style="26" collapsed="1"/>
+    <col min="1247" max="1247" width="8.85546875" style="26" customWidth="1" collapsed="1"/>
+    <col min="1248" max="1492" width="9.140625" style="26" collapsed="1"/>
+    <col min="1493" max="1493" width="18.140625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1494" max="1494" width="12.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1495" max="1495" width="11.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1496" max="1496" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1497" max="1497" width="3.42578125" style="26" customWidth="1" collapsed="1"/>
+    <col min="1498" max="1498" width="17.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1499" max="1499" width="9.140625" style="26" collapsed="1"/>
+    <col min="1500" max="1500" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1501" max="1502" width="9.140625" style="26" collapsed="1"/>
+    <col min="1503" max="1503" width="8.85546875" style="26" customWidth="1" collapsed="1"/>
+    <col min="1504" max="1748" width="9.140625" style="26" collapsed="1"/>
+    <col min="1749" max="1749" width="18.140625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1750" max="1750" width="12.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1751" max="1751" width="11.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1752" max="1752" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1753" max="1753" width="3.42578125" style="26" customWidth="1" collapsed="1"/>
+    <col min="1754" max="1754" width="17.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1755" max="1755" width="9.140625" style="26" collapsed="1"/>
+    <col min="1756" max="1756" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1757" max="1758" width="9.140625" style="26" collapsed="1"/>
+    <col min="1759" max="1759" width="8.85546875" style="26" customWidth="1" collapsed="1"/>
+    <col min="1760" max="2004" width="9.140625" style="26" collapsed="1"/>
+    <col min="2005" max="2005" width="18.140625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2006" max="2006" width="12.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2007" max="2007" width="11.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2008" max="2008" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2009" max="2009" width="3.42578125" style="26" customWidth="1" collapsed="1"/>
+    <col min="2010" max="2010" width="17.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2011" max="2011" width="9.140625" style="26" collapsed="1"/>
+    <col min="2012" max="2012" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2013" max="2014" width="9.140625" style="26" collapsed="1"/>
+    <col min="2015" max="2015" width="8.85546875" style="26" customWidth="1" collapsed="1"/>
+    <col min="2016" max="2260" width="9.140625" style="26" collapsed="1"/>
+    <col min="2261" max="2261" width="18.140625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2262" max="2262" width="12.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2263" max="2263" width="11.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2264" max="2264" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2265" max="2265" width="3.42578125" style="26" customWidth="1" collapsed="1"/>
+    <col min="2266" max="2266" width="17.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2267" max="2267" width="9.140625" style="26" collapsed="1"/>
+    <col min="2268" max="2268" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2269" max="2270" width="9.140625" style="26" collapsed="1"/>
+    <col min="2271" max="2271" width="8.85546875" style="26" customWidth="1" collapsed="1"/>
+    <col min="2272" max="2516" width="9.140625" style="26" collapsed="1"/>
+    <col min="2517" max="2517" width="18.140625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2518" max="2518" width="12.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2519" max="2519" width="11.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2520" max="2520" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2521" max="2521" width="3.42578125" style="26" customWidth="1" collapsed="1"/>
+    <col min="2522" max="2522" width="17.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2523" max="2523" width="9.140625" style="26" collapsed="1"/>
+    <col min="2524" max="2524" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2525" max="2526" width="9.140625" style="26" collapsed="1"/>
+    <col min="2527" max="2527" width="8.85546875" style="26" customWidth="1" collapsed="1"/>
+    <col min="2528" max="2772" width="9.140625" style="26" collapsed="1"/>
+    <col min="2773" max="2773" width="18.140625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2774" max="2774" width="12.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2775" max="2775" width="11.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2776" max="2776" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2777" max="2777" width="3.42578125" style="26" customWidth="1" collapsed="1"/>
+    <col min="2778" max="2778" width="17.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2779" max="2779" width="9.140625" style="26" collapsed="1"/>
+    <col min="2780" max="2780" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2781" max="2782" width="9.140625" style="26" collapsed="1"/>
+    <col min="2783" max="2783" width="8.85546875" style="26" customWidth="1" collapsed="1"/>
+    <col min="2784" max="3028" width="9.140625" style="26" collapsed="1"/>
+    <col min="3029" max="3029" width="18.140625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3030" max="3030" width="12.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3031" max="3031" width="11.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3032" max="3032" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3033" max="3033" width="3.42578125" style="26" customWidth="1" collapsed="1"/>
+    <col min="3034" max="3034" width="17.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3035" max="3035" width="9.140625" style="26" collapsed="1"/>
+    <col min="3036" max="3036" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3037" max="3038" width="9.140625" style="26" collapsed="1"/>
+    <col min="3039" max="3039" width="8.85546875" style="26" customWidth="1" collapsed="1"/>
+    <col min="3040" max="3284" width="9.140625" style="26" collapsed="1"/>
+    <col min="3285" max="3285" width="18.140625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3286" max="3286" width="12.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3287" max="3287" width="11.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3288" max="3288" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3289" max="3289" width="3.42578125" style="26" customWidth="1" collapsed="1"/>
+    <col min="3290" max="3290" width="17.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3291" max="3291" width="9.140625" style="26" collapsed="1"/>
+    <col min="3292" max="3292" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3293" max="3294" width="9.140625" style="26" collapsed="1"/>
+    <col min="3295" max="3295" width="8.85546875" style="26" customWidth="1" collapsed="1"/>
+    <col min="3296" max="3540" width="9.140625" style="26" collapsed="1"/>
+    <col min="3541" max="3541" width="18.140625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3542" max="3542" width="12.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3543" max="3543" width="11.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3544" max="3544" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3545" max="3545" width="3.42578125" style="26" customWidth="1" collapsed="1"/>
+    <col min="3546" max="3546" width="17.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3547" max="3547" width="9.140625" style="26" collapsed="1"/>
+    <col min="3548" max="3548" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3549" max="3550" width="9.140625" style="26" collapsed="1"/>
+    <col min="3551" max="3551" width="8.85546875" style="26" customWidth="1" collapsed="1"/>
+    <col min="3552" max="3796" width="9.140625" style="26" collapsed="1"/>
+    <col min="3797" max="3797" width="18.140625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3798" max="3798" width="12.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3799" max="3799" width="11.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3800" max="3800" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3801" max="3801" width="3.42578125" style="26" customWidth="1" collapsed="1"/>
+    <col min="3802" max="3802" width="17.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3803" max="3803" width="9.140625" style="26" collapsed="1"/>
+    <col min="3804" max="3804" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3805" max="3806" width="9.140625" style="26" collapsed="1"/>
+    <col min="3807" max="3807" width="8.85546875" style="26" customWidth="1" collapsed="1"/>
+    <col min="3808" max="4052" width="9.140625" style="26" collapsed="1"/>
+    <col min="4053" max="4053" width="18.140625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4054" max="4054" width="12.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4055" max="4055" width="11.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4056" max="4056" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4057" max="4057" width="3.42578125" style="26" customWidth="1" collapsed="1"/>
+    <col min="4058" max="4058" width="17.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4059" max="4059" width="9.140625" style="26" collapsed="1"/>
+    <col min="4060" max="4060" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4061" max="4062" width="9.140625" style="26" collapsed="1"/>
+    <col min="4063" max="4063" width="8.85546875" style="26" customWidth="1" collapsed="1"/>
+    <col min="4064" max="4308" width="9.140625" style="26" collapsed="1"/>
+    <col min="4309" max="4309" width="18.140625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4310" max="4310" width="12.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4311" max="4311" width="11.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4312" max="4312" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4313" max="4313" width="3.42578125" style="26" customWidth="1" collapsed="1"/>
+    <col min="4314" max="4314" width="17.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4315" max="4315" width="9.140625" style="26" collapsed="1"/>
+    <col min="4316" max="4316" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4317" max="4318" width="9.140625" style="26" collapsed="1"/>
+    <col min="4319" max="4319" width="8.85546875" style="26" customWidth="1" collapsed="1"/>
+    <col min="4320" max="4564" width="9.140625" style="26" collapsed="1"/>
+    <col min="4565" max="4565" width="18.140625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4566" max="4566" width="12.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4567" max="4567" width="11.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4568" max="4568" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4569" max="4569" width="3.42578125" style="26" customWidth="1" collapsed="1"/>
+    <col min="4570" max="4570" width="17.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4571" max="4571" width="9.140625" style="26" collapsed="1"/>
+    <col min="4572" max="4572" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4573" max="4574" width="9.140625" style="26" collapsed="1"/>
+    <col min="4575" max="4575" width="8.85546875" style="26" customWidth="1" collapsed="1"/>
+    <col min="4576" max="4820" width="9.140625" style="26" collapsed="1"/>
+    <col min="4821" max="4821" width="18.140625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4822" max="4822" width="12.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4823" max="4823" width="11.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4824" max="4824" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4825" max="4825" width="3.42578125" style="26" customWidth="1" collapsed="1"/>
+    <col min="4826" max="4826" width="17.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4827" max="4827" width="9.140625" style="26" collapsed="1"/>
+    <col min="4828" max="4828" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4829" max="4830" width="9.140625" style="26" collapsed="1"/>
+    <col min="4831" max="4831" width="8.85546875" style="26" customWidth="1" collapsed="1"/>
+    <col min="4832" max="5076" width="9.140625" style="26" collapsed="1"/>
+    <col min="5077" max="5077" width="18.140625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5078" max="5078" width="12.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5079" max="5079" width="11.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5080" max="5080" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5081" max="5081" width="3.42578125" style="26" customWidth="1" collapsed="1"/>
+    <col min="5082" max="5082" width="17.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5083" max="5083" width="9.140625" style="26" collapsed="1"/>
+    <col min="5084" max="5084" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5085" max="5086" width="9.140625" style="26" collapsed="1"/>
+    <col min="5087" max="5087" width="8.85546875" style="26" customWidth="1" collapsed="1"/>
+    <col min="5088" max="5332" width="9.140625" style="26" collapsed="1"/>
+    <col min="5333" max="5333" width="18.140625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5334" max="5334" width="12.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5335" max="5335" width="11.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5336" max="5336" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5337" max="5337" width="3.42578125" style="26" customWidth="1" collapsed="1"/>
+    <col min="5338" max="5338" width="17.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5339" max="5339" width="9.140625" style="26" collapsed="1"/>
+    <col min="5340" max="5340" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5341" max="5342" width="9.140625" style="26" collapsed="1"/>
+    <col min="5343" max="5343" width="8.85546875" style="26" customWidth="1" collapsed="1"/>
+    <col min="5344" max="5588" width="9.140625" style="26" collapsed="1"/>
+    <col min="5589" max="5589" width="18.140625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5590" max="5590" width="12.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5591" max="5591" width="11.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5592" max="5592" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5593" max="5593" width="3.42578125" style="26" customWidth="1" collapsed="1"/>
+    <col min="5594" max="5594" width="17.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5595" max="5595" width="9.140625" style="26" collapsed="1"/>
+    <col min="5596" max="5596" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5597" max="5598" width="9.140625" style="26" collapsed="1"/>
+    <col min="5599" max="5599" width="8.85546875" style="26" customWidth="1" collapsed="1"/>
+    <col min="5600" max="5844" width="9.140625" style="26" collapsed="1"/>
+    <col min="5845" max="5845" width="18.140625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5846" max="5846" width="12.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5847" max="5847" width="11.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5848" max="5848" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5849" max="5849" width="3.42578125" style="26" customWidth="1" collapsed="1"/>
+    <col min="5850" max="5850" width="17.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5851" max="5851" width="9.140625" style="26" collapsed="1"/>
+    <col min="5852" max="5852" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5853" max="5854" width="9.140625" style="26" collapsed="1"/>
+    <col min="5855" max="5855" width="8.85546875" style="26" customWidth="1" collapsed="1"/>
+    <col min="5856" max="6100" width="9.140625" style="26" collapsed="1"/>
+    <col min="6101" max="6101" width="18.140625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6102" max="6102" width="12.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6103" max="6103" width="11.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6104" max="6104" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6105" max="6105" width="3.42578125" style="26" customWidth="1" collapsed="1"/>
+    <col min="6106" max="6106" width="17.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6107" max="6107" width="9.140625" style="26" collapsed="1"/>
+    <col min="6108" max="6108" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6109" max="6110" width="9.140625" style="26" collapsed="1"/>
+    <col min="6111" max="6111" width="8.85546875" style="26" customWidth="1" collapsed="1"/>
+    <col min="6112" max="6356" width="9.140625" style="26" collapsed="1"/>
+    <col min="6357" max="6357" width="18.140625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6358" max="6358" width="12.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6359" max="6359" width="11.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6360" max="6360" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6361" max="6361" width="3.42578125" style="26" customWidth="1" collapsed="1"/>
+    <col min="6362" max="6362" width="17.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6363" max="6363" width="9.140625" style="26" collapsed="1"/>
+    <col min="6364" max="6364" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6365" max="6366" width="9.140625" style="26" collapsed="1"/>
+    <col min="6367" max="6367" width="8.85546875" style="26" customWidth="1" collapsed="1"/>
+    <col min="6368" max="6612" width="9.140625" style="26" collapsed="1"/>
+    <col min="6613" max="6613" width="18.140625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6614" max="6614" width="12.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6615" max="6615" width="11.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6616" max="6616" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6617" max="6617" width="3.42578125" style="26" customWidth="1" collapsed="1"/>
+    <col min="6618" max="6618" width="17.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6619" max="6619" width="9.140625" style="26" collapsed="1"/>
+    <col min="6620" max="6620" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6621" max="6622" width="9.140625" style="26" collapsed="1"/>
+    <col min="6623" max="6623" width="8.85546875" style="26" customWidth="1" collapsed="1"/>
+    <col min="6624" max="6868" width="9.140625" style="26" collapsed="1"/>
+    <col min="6869" max="6869" width="18.140625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6870" max="6870" width="12.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6871" max="6871" width="11.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6872" max="6872" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6873" max="6873" width="3.42578125" style="26" customWidth="1" collapsed="1"/>
+    <col min="6874" max="6874" width="17.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6875" max="6875" width="9.140625" style="26" collapsed="1"/>
+    <col min="6876" max="6876" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6877" max="6878" width="9.140625" style="26" collapsed="1"/>
+    <col min="6879" max="6879" width="8.85546875" style="26" customWidth="1" collapsed="1"/>
+    <col min="6880" max="7124" width="9.140625" style="26" collapsed="1"/>
+    <col min="7125" max="7125" width="18.140625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7126" max="7126" width="12.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7127" max="7127" width="11.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7128" max="7128" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7129" max="7129" width="3.42578125" style="26" customWidth="1" collapsed="1"/>
+    <col min="7130" max="7130" width="17.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7131" max="7131" width="9.140625" style="26" collapsed="1"/>
+    <col min="7132" max="7132" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7133" max="7134" width="9.140625" style="26" collapsed="1"/>
+    <col min="7135" max="7135" width="8.85546875" style="26" customWidth="1" collapsed="1"/>
+    <col min="7136" max="7380" width="9.140625" style="26" collapsed="1"/>
+    <col min="7381" max="7381" width="18.140625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7382" max="7382" width="12.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7383" max="7383" width="11.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7384" max="7384" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7385" max="7385" width="3.42578125" style="26" customWidth="1" collapsed="1"/>
+    <col min="7386" max="7386" width="17.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7387" max="7387" width="9.140625" style="26" collapsed="1"/>
+    <col min="7388" max="7388" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7389" max="7390" width="9.140625" style="26" collapsed="1"/>
+    <col min="7391" max="7391" width="8.85546875" style="26" customWidth="1" collapsed="1"/>
+    <col min="7392" max="7636" width="9.140625" style="26" collapsed="1"/>
+    <col min="7637" max="7637" width="18.140625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7638" max="7638" width="12.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7639" max="7639" width="11.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7640" max="7640" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7641" max="7641" width="3.42578125" style="26" customWidth="1" collapsed="1"/>
+    <col min="7642" max="7642" width="17.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7643" max="7643" width="9.140625" style="26" collapsed="1"/>
+    <col min="7644" max="7644" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7645" max="7646" width="9.140625" style="26" collapsed="1"/>
+    <col min="7647" max="7647" width="8.85546875" style="26" customWidth="1" collapsed="1"/>
+    <col min="7648" max="7892" width="9.140625" style="26" collapsed="1"/>
+    <col min="7893" max="7893" width="18.140625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7894" max="7894" width="12.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7895" max="7895" width="11.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7896" max="7896" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7897" max="7897" width="3.42578125" style="26" customWidth="1" collapsed="1"/>
+    <col min="7898" max="7898" width="17.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7899" max="7899" width="9.140625" style="26" collapsed="1"/>
+    <col min="7900" max="7900" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7901" max="7902" width="9.140625" style="26" collapsed="1"/>
+    <col min="7903" max="7903" width="8.85546875" style="26" customWidth="1" collapsed="1"/>
+    <col min="7904" max="8148" width="9.140625" style="26" collapsed="1"/>
+    <col min="8149" max="8149" width="18.140625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8150" max="8150" width="12.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8151" max="8151" width="11.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8152" max="8152" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8153" max="8153" width="3.42578125" style="26" customWidth="1" collapsed="1"/>
+    <col min="8154" max="8154" width="17.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8155" max="8155" width="9.140625" style="26" collapsed="1"/>
+    <col min="8156" max="8156" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8157" max="8158" width="9.140625" style="26" collapsed="1"/>
+    <col min="8159" max="8159" width="8.85546875" style="26" customWidth="1" collapsed="1"/>
+    <col min="8160" max="8404" width="9.140625" style="26" collapsed="1"/>
+    <col min="8405" max="8405" width="18.140625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8406" max="8406" width="12.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8407" max="8407" width="11.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8408" max="8408" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8409" max="8409" width="3.42578125" style="26" customWidth="1" collapsed="1"/>
+    <col min="8410" max="8410" width="17.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8411" max="8411" width="9.140625" style="26" collapsed="1"/>
+    <col min="8412" max="8412" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8413" max="8414" width="9.140625" style="26" collapsed="1"/>
+    <col min="8415" max="8415" width="8.85546875" style="26" customWidth="1" collapsed="1"/>
+    <col min="8416" max="8660" width="9.140625" style="26" collapsed="1"/>
+    <col min="8661" max="8661" width="18.140625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8662" max="8662" width="12.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8663" max="8663" width="11.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8664" max="8664" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8665" max="8665" width="3.42578125" style="26" customWidth="1" collapsed="1"/>
+    <col min="8666" max="8666" width="17.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8667" max="8667" width="9.140625" style="26" collapsed="1"/>
+    <col min="8668" max="8668" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8669" max="8670" width="9.140625" style="26" collapsed="1"/>
+    <col min="8671" max="8671" width="8.85546875" style="26" customWidth="1" collapsed="1"/>
+    <col min="8672" max="8916" width="9.140625" style="26" collapsed="1"/>
+    <col min="8917" max="8917" width="18.140625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8918" max="8918" width="12.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8919" max="8919" width="11.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8920" max="8920" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8921" max="8921" width="3.42578125" style="26" customWidth="1" collapsed="1"/>
+    <col min="8922" max="8922" width="17.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8923" max="8923" width="9.140625" style="26" collapsed="1"/>
+    <col min="8924" max="8924" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8925" max="8926" width="9.140625" style="26" collapsed="1"/>
+    <col min="8927" max="8927" width="8.85546875" style="26" customWidth="1" collapsed="1"/>
+    <col min="8928" max="9172" width="9.140625" style="26" collapsed="1"/>
+    <col min="9173" max="9173" width="18.140625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9174" max="9174" width="12.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9175" max="9175" width="11.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9176" max="9176" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9177" max="9177" width="3.42578125" style="26" customWidth="1" collapsed="1"/>
+    <col min="9178" max="9178" width="17.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9179" max="9179" width="9.140625" style="26" collapsed="1"/>
+    <col min="9180" max="9180" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9181" max="9182" width="9.140625" style="26" collapsed="1"/>
+    <col min="9183" max="9183" width="8.85546875" style="26" customWidth="1" collapsed="1"/>
+    <col min="9184" max="9428" width="9.140625" style="26" collapsed="1"/>
+    <col min="9429" max="9429" width="18.140625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9430" max="9430" width="12.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9431" max="9431" width="11.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9432" max="9432" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9433" max="9433" width="3.42578125" style="26" customWidth="1" collapsed="1"/>
+    <col min="9434" max="9434" width="17.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9435" max="9435" width="9.140625" style="26" collapsed="1"/>
+    <col min="9436" max="9436" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9437" max="9438" width="9.140625" style="26" collapsed="1"/>
+    <col min="9439" max="9439" width="8.85546875" style="26" customWidth="1" collapsed="1"/>
+    <col min="9440" max="9684" width="9.140625" style="26" collapsed="1"/>
+    <col min="9685" max="9685" width="18.140625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9686" max="9686" width="12.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9687" max="9687" width="11.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9688" max="9688" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9689" max="9689" width="3.42578125" style="26" customWidth="1" collapsed="1"/>
+    <col min="9690" max="9690" width="17.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9691" max="9691" width="9.140625" style="26" collapsed="1"/>
+    <col min="9692" max="9692" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9693" max="9694" width="9.140625" style="26" collapsed="1"/>
+    <col min="9695" max="9695" width="8.85546875" style="26" customWidth="1" collapsed="1"/>
+    <col min="9696" max="9940" width="9.140625" style="26" collapsed="1"/>
+    <col min="9941" max="9941" width="18.140625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9942" max="9942" width="12.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9943" max="9943" width="11.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9944" max="9944" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9945" max="9945" width="3.42578125" style="26" customWidth="1" collapsed="1"/>
+    <col min="9946" max="9946" width="17.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9947" max="9947" width="9.140625" style="26" collapsed="1"/>
+    <col min="9948" max="9948" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9949" max="9950" width="9.140625" style="26" collapsed="1"/>
+    <col min="9951" max="9951" width="8.85546875" style="26" customWidth="1" collapsed="1"/>
+    <col min="9952" max="10196" width="9.140625" style="26" collapsed="1"/>
+    <col min="10197" max="10197" width="18.140625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10198" max="10198" width="12.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10199" max="10199" width="11.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10200" max="10200" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10201" max="10201" width="3.42578125" style="26" customWidth="1" collapsed="1"/>
+    <col min="10202" max="10202" width="17.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10203" max="10203" width="9.140625" style="26" collapsed="1"/>
+    <col min="10204" max="10204" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10205" max="10206" width="9.140625" style="26" collapsed="1"/>
+    <col min="10207" max="10207" width="8.85546875" style="26" customWidth="1" collapsed="1"/>
+    <col min="10208" max="10452" width="9.140625" style="26" collapsed="1"/>
+    <col min="10453" max="10453" width="18.140625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10454" max="10454" width="12.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10455" max="10455" width="11.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10456" max="10456" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10457" max="10457" width="3.42578125" style="26" customWidth="1" collapsed="1"/>
+    <col min="10458" max="10458" width="17.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10459" max="10459" width="9.140625" style="26" collapsed="1"/>
+    <col min="10460" max="10460" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10461" max="10462" width="9.140625" style="26" collapsed="1"/>
+    <col min="10463" max="10463" width="8.85546875" style="26" customWidth="1" collapsed="1"/>
+    <col min="10464" max="10708" width="9.140625" style="26" collapsed="1"/>
+    <col min="10709" max="10709" width="18.140625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10710" max="10710" width="12.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10711" max="10711" width="11.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10712" max="10712" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10713" max="10713" width="3.42578125" style="26" customWidth="1" collapsed="1"/>
+    <col min="10714" max="10714" width="17.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10715" max="10715" width="9.140625" style="26" collapsed="1"/>
+    <col min="10716" max="10716" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10717" max="10718" width="9.140625" style="26" collapsed="1"/>
+    <col min="10719" max="10719" width="8.85546875" style="26" customWidth="1" collapsed="1"/>
+    <col min="10720" max="10964" width="9.140625" style="26" collapsed="1"/>
+    <col min="10965" max="10965" width="18.140625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10966" max="10966" width="12.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10967" max="10967" width="11.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10968" max="10968" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10969" max="10969" width="3.42578125" style="26" customWidth="1" collapsed="1"/>
+    <col min="10970" max="10970" width="17.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10971" max="10971" width="9.140625" style="26" collapsed="1"/>
+    <col min="10972" max="10972" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10973" max="10974" width="9.140625" style="26" collapsed="1"/>
+    <col min="10975" max="10975" width="8.85546875" style="26" customWidth="1" collapsed="1"/>
+    <col min="10976" max="11220" width="9.140625" style="26" collapsed="1"/>
+    <col min="11221" max="11221" width="18.140625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11222" max="11222" width="12.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11223" max="11223" width="11.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11224" max="11224" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11225" max="11225" width="3.42578125" style="26" customWidth="1" collapsed="1"/>
+    <col min="11226" max="11226" width="17.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11227" max="11227" width="9.140625" style="26" collapsed="1"/>
+    <col min="11228" max="11228" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11229" max="11230" width="9.140625" style="26" collapsed="1"/>
+    <col min="11231" max="11231" width="8.85546875" style="26" customWidth="1" collapsed="1"/>
+    <col min="11232" max="11476" width="9.140625" style="26" collapsed="1"/>
+    <col min="11477" max="11477" width="18.140625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11478" max="11478" width="12.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11479" max="11479" width="11.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11480" max="11480" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11481" max="11481" width="3.42578125" style="26" customWidth="1" collapsed="1"/>
+    <col min="11482" max="11482" width="17.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11483" max="11483" width="9.140625" style="26" collapsed="1"/>
+    <col min="11484" max="11484" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11485" max="11486" width="9.140625" style="26" collapsed="1"/>
+    <col min="11487" max="11487" width="8.85546875" style="26" customWidth="1" collapsed="1"/>
+    <col min="11488" max="11732" width="9.140625" style="26" collapsed="1"/>
+    <col min="11733" max="11733" width="18.140625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11734" max="11734" width="12.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11735" max="11735" width="11.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11736" max="11736" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11737" max="11737" width="3.42578125" style="26" customWidth="1" collapsed="1"/>
+    <col min="11738" max="11738" width="17.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11739" max="11739" width="9.140625" style="26" collapsed="1"/>
+    <col min="11740" max="11740" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11741" max="11742" width="9.140625" style="26" collapsed="1"/>
+    <col min="11743" max="11743" width="8.85546875" style="26" customWidth="1" collapsed="1"/>
+    <col min="11744" max="11988" width="9.140625" style="26" collapsed="1"/>
+    <col min="11989" max="11989" width="18.140625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11990" max="11990" width="12.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11991" max="11991" width="11.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11992" max="11992" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11993" max="11993" width="3.42578125" style="26" customWidth="1" collapsed="1"/>
+    <col min="11994" max="11994" width="17.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11995" max="11995" width="9.140625" style="26" collapsed="1"/>
+    <col min="11996" max="11996" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11997" max="11998" width="9.140625" style="26" collapsed="1"/>
+    <col min="11999" max="11999" width="8.85546875" style="26" customWidth="1" collapsed="1"/>
+    <col min="12000" max="12244" width="9.140625" style="26" collapsed="1"/>
+    <col min="12245" max="12245" width="18.140625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12246" max="12246" width="12.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12247" max="12247" width="11.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12248" max="12248" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12249" max="12249" width="3.42578125" style="26" customWidth="1" collapsed="1"/>
+    <col min="12250" max="12250" width="17.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12251" max="12251" width="9.140625" style="26" collapsed="1"/>
+    <col min="12252" max="12252" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12253" max="12254" width="9.140625" style="26" collapsed="1"/>
+    <col min="12255" max="12255" width="8.85546875" style="26" customWidth="1" collapsed="1"/>
+    <col min="12256" max="12500" width="9.140625" style="26" collapsed="1"/>
+    <col min="12501" max="12501" width="18.140625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12502" max="12502" width="12.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12503" max="12503" width="11.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12504" max="12504" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12505" max="12505" width="3.42578125" style="26" customWidth="1" collapsed="1"/>
+    <col min="12506" max="12506" width="17.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12507" max="12507" width="9.140625" style="26" collapsed="1"/>
+    <col min="12508" max="12508" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12509" max="12510" width="9.140625" style="26" collapsed="1"/>
+    <col min="12511" max="12511" width="8.85546875" style="26" customWidth="1" collapsed="1"/>
+    <col min="12512" max="12756" width="9.140625" style="26" collapsed="1"/>
+    <col min="12757" max="12757" width="18.140625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12758" max="12758" width="12.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12759" max="12759" width="11.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12760" max="12760" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12761" max="12761" width="3.42578125" style="26" customWidth="1" collapsed="1"/>
+    <col min="12762" max="12762" width="17.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12763" max="12763" width="9.140625" style="26" collapsed="1"/>
+    <col min="12764" max="12764" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12765" max="12766" width="9.140625" style="26" collapsed="1"/>
+    <col min="12767" max="12767" width="8.85546875" style="26" customWidth="1" collapsed="1"/>
+    <col min="12768" max="13012" width="9.140625" style="26" collapsed="1"/>
+    <col min="13013" max="13013" width="18.140625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13014" max="13014" width="12.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13015" max="13015" width="11.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13016" max="13016" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13017" max="13017" width="3.42578125" style="26" customWidth="1" collapsed="1"/>
+    <col min="13018" max="13018" width="17.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13019" max="13019" width="9.140625" style="26" collapsed="1"/>
+    <col min="13020" max="13020" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13021" max="13022" width="9.140625" style="26" collapsed="1"/>
+    <col min="13023" max="13023" width="8.85546875" style="26" customWidth="1" collapsed="1"/>
+    <col min="13024" max="13268" width="9.140625" style="26" collapsed="1"/>
+    <col min="13269" max="13269" width="18.140625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13270" max="13270" width="12.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13271" max="13271" width="11.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13272" max="13272" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13273" max="13273" width="3.42578125" style="26" customWidth="1" collapsed="1"/>
+    <col min="13274" max="13274" width="17.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13275" max="13275" width="9.140625" style="26" collapsed="1"/>
+    <col min="13276" max="13276" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13277" max="13278" width="9.140625" style="26" collapsed="1"/>
+    <col min="13279" max="13279" width="8.85546875" style="26" customWidth="1" collapsed="1"/>
+    <col min="13280" max="13524" width="9.140625" style="26" collapsed="1"/>
+    <col min="13525" max="13525" width="18.140625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13526" max="13526" width="12.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13527" max="13527" width="11.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13528" max="13528" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13529" max="13529" width="3.42578125" style="26" customWidth="1" collapsed="1"/>
+    <col min="13530" max="13530" width="17.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13531" max="13531" width="9.140625" style="26" collapsed="1"/>
+    <col min="13532" max="13532" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13533" max="13534" width="9.140625" style="26" collapsed="1"/>
+    <col min="13535" max="13535" width="8.85546875" style="26" customWidth="1" collapsed="1"/>
+    <col min="13536" max="13780" width="9.140625" style="26" collapsed="1"/>
+    <col min="13781" max="13781" width="18.140625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13782" max="13782" width="12.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13783" max="13783" width="11.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13784" max="13784" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13785" max="13785" width="3.42578125" style="26" customWidth="1" collapsed="1"/>
+    <col min="13786" max="13786" width="17.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13787" max="13787" width="9.140625" style="26" collapsed="1"/>
+    <col min="13788" max="13788" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13789" max="13790" width="9.140625" style="26" collapsed="1"/>
+    <col min="13791" max="13791" width="8.85546875" style="26" customWidth="1" collapsed="1"/>
+    <col min="13792" max="14036" width="9.140625" style="26" collapsed="1"/>
+    <col min="14037" max="14037" width="18.140625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14038" max="14038" width="12.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14039" max="14039" width="11.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14040" max="14040" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14041" max="14041" width="3.42578125" style="26" customWidth="1" collapsed="1"/>
+    <col min="14042" max="14042" width="17.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14043" max="14043" width="9.140625" style="26" collapsed="1"/>
+    <col min="14044" max="14044" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14045" max="14046" width="9.140625" style="26" collapsed="1"/>
+    <col min="14047" max="14047" width="8.85546875" style="26" customWidth="1" collapsed="1"/>
+    <col min="14048" max="14292" width="9.140625" style="26" collapsed="1"/>
+    <col min="14293" max="14293" width="18.140625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14294" max="14294" width="12.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14295" max="14295" width="11.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14296" max="14296" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14297" max="14297" width="3.42578125" style="26" customWidth="1" collapsed="1"/>
+    <col min="14298" max="14298" width="17.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14299" max="14299" width="9.140625" style="26" collapsed="1"/>
+    <col min="14300" max="14300" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14301" max="14302" width="9.140625" style="26" collapsed="1"/>
+    <col min="14303" max="14303" width="8.85546875" style="26" customWidth="1" collapsed="1"/>
+    <col min="14304" max="14548" width="9.140625" style="26" collapsed="1"/>
+    <col min="14549" max="14549" width="18.140625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14550" max="14550" width="12.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14551" max="14551" width="11.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14552" max="14552" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14553" max="14553" width="3.42578125" style="26" customWidth="1" collapsed="1"/>
+    <col min="14554" max="14554" width="17.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14555" max="14555" width="9.140625" style="26" collapsed="1"/>
+    <col min="14556" max="14556" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14557" max="14558" width="9.140625" style="26" collapsed="1"/>
+    <col min="14559" max="14559" width="8.85546875" style="26" customWidth="1" collapsed="1"/>
+    <col min="14560" max="14804" width="9.140625" style="26" collapsed="1"/>
+    <col min="14805" max="14805" width="18.140625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14806" max="14806" width="12.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14807" max="14807" width="11.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14808" max="14808" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14809" max="14809" width="3.42578125" style="26" customWidth="1" collapsed="1"/>
+    <col min="14810" max="14810" width="17.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14811" max="14811" width="9.140625" style="26" collapsed="1"/>
+    <col min="14812" max="14812" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14813" max="14814" width="9.140625" style="26" collapsed="1"/>
+    <col min="14815" max="14815" width="8.85546875" style="26" customWidth="1" collapsed="1"/>
+    <col min="14816" max="15060" width="9.140625" style="26" collapsed="1"/>
+    <col min="15061" max="15061" width="18.140625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15062" max="15062" width="12.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15063" max="15063" width="11.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15064" max="15064" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15065" max="15065" width="3.42578125" style="26" customWidth="1" collapsed="1"/>
+    <col min="15066" max="15066" width="17.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15067" max="15067" width="9.140625" style="26" collapsed="1"/>
+    <col min="15068" max="15068" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15069" max="15070" width="9.140625" style="26" collapsed="1"/>
+    <col min="15071" max="15071" width="8.85546875" style="26" customWidth="1" collapsed="1"/>
+    <col min="15072" max="15316" width="9.140625" style="26" collapsed="1"/>
+    <col min="15317" max="15317" width="18.140625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15318" max="15318" width="12.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15319" max="15319" width="11.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15320" max="15320" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15321" max="15321" width="3.42578125" style="26" customWidth="1" collapsed="1"/>
+    <col min="15322" max="15322" width="17.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15323" max="15323" width="9.140625" style="26" collapsed="1"/>
+    <col min="15324" max="15324" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15325" max="15326" width="9.140625" style="26" collapsed="1"/>
+    <col min="15327" max="15327" width="8.85546875" style="26" customWidth="1" collapsed="1"/>
+    <col min="15328" max="15572" width="9.140625" style="26" collapsed="1"/>
+    <col min="15573" max="15573" width="18.140625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15574" max="15574" width="12.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15575" max="15575" width="11.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15576" max="15576" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15577" max="15577" width="3.42578125" style="26" customWidth="1" collapsed="1"/>
+    <col min="15578" max="15578" width="17.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15579" max="15579" width="9.140625" style="26" collapsed="1"/>
+    <col min="15580" max="15580" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15581" max="15582" width="9.140625" style="26" collapsed="1"/>
+    <col min="15583" max="15583" width="8.85546875" style="26" customWidth="1" collapsed="1"/>
+    <col min="15584" max="15828" width="9.140625" style="26" collapsed="1"/>
+    <col min="15829" max="15829" width="18.140625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15830" max="15830" width="12.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15831" max="15831" width="11.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15832" max="15832" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15833" max="15833" width="3.42578125" style="26" customWidth="1" collapsed="1"/>
+    <col min="15834" max="15834" width="17.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15835" max="15835" width="9.140625" style="26" collapsed="1"/>
+    <col min="15836" max="15836" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15837" max="15838" width="9.140625" style="26" collapsed="1"/>
+    <col min="15839" max="15839" width="8.85546875" style="26" customWidth="1" collapsed="1"/>
+    <col min="15840" max="16084" width="9.140625" style="26" collapsed="1"/>
+    <col min="16085" max="16085" width="18.140625" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16086" max="16086" width="12.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16087" max="16087" width="11.42578125" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16088" max="16088" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16089" max="16089" width="3.42578125" style="26" customWidth="1" collapsed="1"/>
+    <col min="16090" max="16090" width="17.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16091" max="16091" width="9.140625" style="26" collapsed="1"/>
+    <col min="16092" max="16092" width="14.85546875" style="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16093" max="16094" width="9.140625" style="26" collapsed="1"/>
+    <col min="16095" max="16095" width="8.85546875" style="26" customWidth="1" collapsed="1"/>
+    <col min="16096" max="16359" width="9.140625" style="26" collapsed="1"/>
+    <col min="16360" max="16384" width="9.140625" style="26" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15">
@@ -27899,6 +29948,1010 @@
     <oddHeader>&amp;CCPI Worksheet</oddHeader>
     <oddFooter>&amp;A</oddFooter>
   </headerFooter>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <controls>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="9256" r:id="rId4" name="Control 40">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>42</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>43</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="9256" r:id="rId4" name="Control 40"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="9255" r:id="rId6" name="Control 39">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>41</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>42</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="9255" r:id="rId6" name="Control 39"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="9254" r:id="rId8" name="Control 38">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>40</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>41</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="9254" r:id="rId8" name="Control 38"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="9253" r:id="rId9" name="Control 37">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>39</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>40</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="9253" r:id="rId9" name="Control 37"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="9252" r:id="rId10" name="Control 36">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>38</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>39</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="9252" r:id="rId10" name="Control 36"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="9251" r:id="rId11" name="Control 35">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>37</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>38</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="9251" r:id="rId11" name="Control 35"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="9250" r:id="rId12" name="Control 34">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>36</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>37</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="9250" r:id="rId12" name="Control 34"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="9249" r:id="rId13" name="Control 33">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>35</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>36</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="9249" r:id="rId13" name="Control 33"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="9248" r:id="rId14" name="Control 32">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>34</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>35</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="9248" r:id="rId14" name="Control 32"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="9247" r:id="rId15" name="Control 31">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>33</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>34</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="9247" r:id="rId15" name="Control 31"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="9246" r:id="rId16" name="Control 30">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>32</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>33</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="9246" r:id="rId16" name="Control 30"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="9245" r:id="rId17" name="Control 29">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>31</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>32</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="9245" r:id="rId17" name="Control 29"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="9244" r:id="rId18" name="Control 28">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>30</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>31</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="9244" r:id="rId18" name="Control 28"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="9243" r:id="rId19" name="Control 27">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>29</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>30</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="9243" r:id="rId19" name="Control 27"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="9242" r:id="rId20" name="Control 26">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>28</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>29</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="9242" r:id="rId20" name="Control 26"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="9241" r:id="rId21" name="Control 25">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>27</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>28</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="9241" r:id="rId21" name="Control 25"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="9240" r:id="rId22" name="Control 24">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>26</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>27</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="9240" r:id="rId22" name="Control 24"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="9239" r:id="rId23" name="Control 23">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>25</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>26</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="9239" r:id="rId23" name="Control 23"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="9238" r:id="rId24" name="Control 22">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>24</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>25</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="9238" r:id="rId24" name="Control 22"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="9237" r:id="rId25" name="Control 21">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>23</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>24</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="9237" r:id="rId25" name="Control 21"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="9236" r:id="rId26" name="Control 20">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>22</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>23</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="9236" r:id="rId26" name="Control 20"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="9235" r:id="rId27" name="Control 19">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>22</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="9235" r:id="rId27" name="Control 19"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="9234" r:id="rId28" name="Control 18">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="9234" r:id="rId28" name="Control 18"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="9233" r:id="rId29" name="Control 17">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>19</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="9233" r:id="rId29" name="Control 17"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="9232" r:id="rId30" name="Control 16">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>19</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="9232" r:id="rId30" name="Control 16"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="9231" r:id="rId31" name="Control 15">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="9231" r:id="rId31" name="Control 15"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="9230" r:id="rId32" name="Control 14">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="9230" r:id="rId32" name="Control 14"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="9229" r:id="rId33" name="Control 13">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>16</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="9229" r:id="rId33" name="Control 13"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="9228" r:id="rId34" name="Control 12">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="9228" r:id="rId34" name="Control 12"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="9227" r:id="rId35" name="Control 11">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="9227" r:id="rId35" name="Control 11"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="9226" r:id="rId36" name="Control 10">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="9226" r:id="rId36" name="Control 10"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="9225" r:id="rId37" name="Control 9">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="9225" r:id="rId37" name="Control 9"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="9224" r:id="rId38" name="Control 8">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="9224" r:id="rId38" name="Control 8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="9223" r:id="rId39" name="Control 7">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="9223" r:id="rId39" name="Control 7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="9222" r:id="rId40" name="Control 6">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="9222" r:id="rId40" name="Control 6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="9221" r:id="rId41" name="Control 5">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="9221" r:id="rId41" name="Control 5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="9220" r:id="rId42" name="Control 4">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="9220" r:id="rId42" name="Control 4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="9219" r:id="rId43" name="Control 3">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="9219" r:id="rId43" name="Control 3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="9218" r:id="rId44" name="Control 2">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="9218" r:id="rId44" name="Control 2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="9217" r:id="rId45" name="Control 1">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="9217" r:id="rId45" name="Control 1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </controls>
 </worksheet>
 </file>
 
@@ -27910,20 +30963,20 @@
   <dimension ref="A2:Q60"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A11" activeCellId="1" sqref="D3:D42 A11:XFD11"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.453125" customWidth="1" collapsed="1"/>
-    <col min="2" max="5" width="16.7265625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="40.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="9.7265625" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="8.26953125" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="10.7265625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="5" width="16.7109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="40.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.7109375" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="8.28515625" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="10.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" ht="15.5">
+    <row r="2" spans="1:17" ht="15.75">
       <c r="A2" s="10" t="s">
         <v>15</v>
       </c>
@@ -27954,7 +31007,7 @@
       <c r="P2" s="21"/>
       <c r="Q2" s="21"/>
     </row>
-    <row r="3" spans="1:17" s="21" customFormat="1" ht="14.5" customHeight="1">
+    <row r="3" spans="1:17" s="21" customFormat="1" ht="14.45" customHeight="1">
       <c r="A3" s="46">
         <v>2019</v>
       </c>
